--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HH102"/>
+  <dimension ref="A1:HI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,9 @@
       <c r="HH1" t="n">
         <v>10314</v>
       </c>
+      <c r="HI1" t="n">
+        <v>10335</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1656,6 +1659,9 @@
       <c r="HH2" t="n">
         <v>2020</v>
       </c>
+      <c r="HI2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2308,6 +2314,9 @@
       <c r="HH3" t="n">
         <v>18</v>
       </c>
+      <c r="HI3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2960,6 +2969,9 @@
       <c r="HH4" t="n">
         <v>1</v>
       </c>
+      <c r="HI4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3612,6 +3624,9 @@
       <c r="HH5" t="n">
         <v>0</v>
       </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4264,6 +4279,9 @@
       <c r="HH6" t="n">
         <v>57</v>
       </c>
+      <c r="HI6" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4916,6 +4934,9 @@
       <c r="HH7" t="n">
         <v>108</v>
       </c>
+      <c r="HI7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5568,6 +5589,9 @@
       <c r="HH8" t="n">
         <v>-51</v>
       </c>
+      <c r="HI8" t="n">
+        <v>-25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6220,6 +6244,9 @@
       <c r="HH9" t="n">
         <v>0</v>
       </c>
+      <c r="HI9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6872,6 +6899,9 @@
       <c r="HH10" t="n">
         <v>10</v>
       </c>
+      <c r="HI10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7524,6 +7554,9 @@
       <c r="HH11" t="n">
         <v>152</v>
       </c>
+      <c r="HI11" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8176,6 +8209,9 @@
       <c r="HH12" t="n">
         <v>119</v>
       </c>
+      <c r="HI12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8828,6 +8864,9 @@
       <c r="HH13" t="n">
         <v>271</v>
       </c>
+      <c r="HI13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9480,6 +9519,9 @@
       <c r="HH14" t="n">
         <v>1.28</v>
       </c>
+      <c r="HI14" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10132,6 +10174,9 @@
       <c r="HH15" t="n">
         <v>54</v>
       </c>
+      <c r="HI15" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10784,6 +10829,9 @@
       <c r="HH16" t="n">
         <v>39</v>
       </c>
+      <c r="HI16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11436,6 +11484,9 @@
       <c r="HH17" t="n">
         <v>32</v>
       </c>
+      <c r="HI17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12088,6 +12139,9 @@
       <c r="HH18" t="n">
         <v>14</v>
       </c>
+      <c r="HI18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12740,6 +12794,9 @@
       <c r="HH19" t="n">
         <v>9</v>
       </c>
+      <c r="HI19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13392,6 +13449,9 @@
       <c r="HH20" t="n">
         <v>8</v>
       </c>
+      <c r="HI20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14044,6 +14104,9 @@
       <c r="HH21" t="n">
         <v>4</v>
       </c>
+      <c r="HI21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14696,6 +14759,9 @@
       <c r="HH22" t="n">
         <v>7</v>
       </c>
+      <c r="HI22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15348,6 +15414,9 @@
       <c r="HH23" t="n">
         <v>2</v>
       </c>
+      <c r="HI23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16000,6 +16069,9 @@
       <c r="HH24" t="n">
         <v>17</v>
       </c>
+      <c r="HI24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16652,6 +16724,9 @@
       <c r="HH25" t="n">
         <v>47.1</v>
       </c>
+      <c r="HI25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17304,6 +17379,9 @@
       <c r="HH26" t="n">
         <v>33.88</v>
       </c>
+      <c r="HI26" t="n">
+        <v>47.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17956,6 +18034,9 @@
       <c r="HH27" t="n">
         <v>15.94</v>
       </c>
+      <c r="HI27" t="n">
+        <v>21.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18608,6 +18689,9 @@
       <c r="HH28" t="n">
         <v>34</v>
       </c>
+      <c r="HI28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19260,6 +19344,9 @@
       <c r="HH29" t="n">
         <v>35</v>
       </c>
+      <c r="HI29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19912,6 +19999,9 @@
       <c r="HH30" t="n">
         <v>26</v>
       </c>
+      <c r="HI30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20564,6 +20654,9 @@
       <c r="HH31" t="n">
         <v>39</v>
       </c>
+      <c r="HI31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21216,6 +21309,9 @@
       <c r="HH32" t="n">
         <v>2.29</v>
       </c>
+      <c r="HI32" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21868,6 +21964,9 @@
       <c r="HH33" t="n">
         <v>4.88</v>
       </c>
+      <c r="HI33" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22520,6 +22619,9 @@
       <c r="HH34" t="n">
         <v>38.5</v>
       </c>
+      <c r="HI34" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23172,6 +23274,9 @@
       <c r="HH35" t="n">
         <v>20.5</v>
       </c>
+      <c r="HI35" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23824,6 +23929,9 @@
       <c r="HH36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HI36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24476,6 +24584,9 @@
       <c r="HH37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HI37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25128,6 +25239,9 @@
       <c r="HH38" t="n">
         <v>23.8</v>
       </c>
+      <c r="HI38" t="n">
+        <v>24.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25780,6 +25894,9 @@
       <c r="HH39" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="HI39" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26432,6 +26549,9 @@
       <c r="HH40" t="n">
         <v>11</v>
       </c>
+      <c r="HI40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27084,6 +27204,9 @@
       <c r="HH41" t="n">
         <v>3</v>
       </c>
+      <c r="HI41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27736,6 +27859,9 @@
       <c r="HH42" t="n">
         <v>5</v>
       </c>
+      <c r="HI42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28388,6 +28514,9 @@
       <c r="HH43" t="n">
         <v>3</v>
       </c>
+      <c r="HI43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29040,6 +29169,9 @@
       <c r="HH44" t="n">
         <v>114</v>
       </c>
+      <c r="HI44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29692,6 +29824,9 @@
       <c r="HH45" t="n">
         <v>161</v>
       </c>
+      <c r="HI45" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30344,6 +30479,9 @@
       <c r="HH46" t="n">
         <v>194</v>
       </c>
+      <c r="HI46" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30996,6 +31134,9 @@
       <c r="HH47" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="HI47" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31648,6 +31789,9 @@
       <c r="HH48" t="n">
         <v>35</v>
       </c>
+      <c r="HI48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32300,6 +32444,9 @@
       <c r="HH49" t="n">
         <v>5</v>
       </c>
+      <c r="HI49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32952,6 +33099,9 @@
       <c r="HH50" t="n">
         <v>8</v>
       </c>
+      <c r="HI50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33604,6 +33754,9 @@
       <c r="HH51" t="n">
         <v>34</v>
       </c>
+      <c r="HI51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34256,6 +34409,9 @@
       <c r="HH52" t="n">
         <v>26</v>
       </c>
+      <c r="HI52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34908,6 +35064,9 @@
       <c r="HH53" t="n">
         <v>35</v>
       </c>
+      <c r="HI53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35560,6 +35719,9 @@
       <c r="HH54" t="n">
         <v>3</v>
       </c>
+      <c r="HI54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36212,6 +36374,9 @@
       <c r="HH55" t="n">
         <v>4</v>
       </c>
+      <c r="HI55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36864,6 +37029,9 @@
       <c r="HH56" t="n">
         <v>50</v>
       </c>
+      <c r="HI56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37516,6 +37684,9 @@
       <c r="HH57" t="n">
         <v>194</v>
       </c>
+      <c r="HI57" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38168,6 +38339,9 @@
       <c r="HH58" t="n">
         <v>176</v>
       </c>
+      <c r="HI58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38820,6 +38994,9 @@
       <c r="HH59" t="n">
         <v>370</v>
       </c>
+      <c r="HI59" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39472,6 +39649,9 @@
       <c r="HH60" t="n">
         <v>1.1</v>
       </c>
+      <c r="HI60" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40124,6 +40304,9 @@
       <c r="HH61" t="n">
         <v>96</v>
       </c>
+      <c r="HI61" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40776,6 +40959,9 @@
       <c r="HH62" t="n">
         <v>37</v>
       </c>
+      <c r="HI62" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41428,6 +41614,9 @@
       <c r="HH63" t="n">
         <v>30</v>
       </c>
+      <c r="HI63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42080,6 +42269,9 @@
       <c r="HH64" t="n">
         <v>9</v>
       </c>
+      <c r="HI64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42732,6 +42924,9 @@
       <c r="HH65" t="n">
         <v>14</v>
       </c>
+      <c r="HI65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43384,6 +43579,9 @@
       <c r="HH66" t="n">
         <v>17</v>
       </c>
+      <c r="HI66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44036,6 +44234,9 @@
       <c r="HH67" t="n">
         <v>10</v>
       </c>
+      <c r="HI67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44688,6 +44889,9 @@
       <c r="HH68" t="n">
         <v>5</v>
       </c>
+      <c r="HI68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45340,6 +45544,9 @@
       <c r="HH69" t="n">
         <v>1</v>
       </c>
+      <c r="HI69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45992,6 +46199,9 @@
       <c r="HH70" t="n">
         <v>23</v>
       </c>
+      <c r="HI70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46644,6 +46854,9 @@
       <c r="HH71" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="HI71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47296,6 +47509,9 @@
       <c r="HH72" t="n">
         <v>21.76</v>
       </c>
+      <c r="HI72" t="n">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47948,6 +48164,9 @@
       <c r="HH73" t="n">
         <v>16.09</v>
       </c>
+      <c r="HI73" t="n">
+        <v>16.96</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48600,6 +48819,9 @@
       <c r="HH74" t="n">
         <v>27</v>
       </c>
+      <c r="HI74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49252,6 +49474,9 @@
       <c r="HH75" t="n">
         <v>34</v>
       </c>
+      <c r="HI75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49904,6 +50129,9 @@
       <c r="HH76" t="n">
         <v>31</v>
       </c>
+      <c r="HI76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50556,6 +50784,9 @@
       <c r="HH77" t="n">
         <v>44</v>
       </c>
+      <c r="HI77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51208,6 +51439,9 @@
       <c r="HH78" t="n">
         <v>1.91</v>
       </c>
+      <c r="HI78" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51860,6 +52094,9 @@
       <c r="HH79" t="n">
         <v>2.59</v>
       </c>
+      <c r="HI79" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52512,6 +52749,9 @@
       <c r="HH80" t="n">
         <v>50</v>
       </c>
+      <c r="HI80" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53164,6 +53404,9 @@
       <c r="HH81" t="n">
         <v>38.6</v>
       </c>
+      <c r="HI81" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53816,6 +54059,9 @@
       <c r="HH82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HI82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54468,6 +54714,9 @@
       <c r="HH83" t="n">
         <v>85.7</v>
       </c>
+      <c r="HI83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55120,6 +55369,9 @@
       <c r="HH84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HI84" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55772,6 +56024,9 @@
       <c r="HH85" t="n">
         <v>127.4</v>
       </c>
+      <c r="HI85" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56424,6 +56679,9 @@
       <c r="HH86" t="n">
         <v>7</v>
       </c>
+      <c r="HI86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57076,6 +57334,9 @@
       <c r="HH87" t="n">
         <v>3</v>
       </c>
+      <c r="HI87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57728,6 +57989,9 @@
       <c r="HH88" t="n">
         <v>3</v>
       </c>
+      <c r="HI88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58380,6 +58644,9 @@
       <c r="HH89" t="n">
         <v>9</v>
       </c>
+      <c r="HI89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59032,6 +59299,9 @@
       <c r="HH90" t="n">
         <v>110</v>
       </c>
+      <c r="HI90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59684,6 +59954,9 @@
       <c r="HH91" t="n">
         <v>251</v>
       </c>
+      <c r="HI91" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60336,6 +60609,9 @@
       <c r="HH92" t="n">
         <v>305</v>
       </c>
+      <c r="HI92" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60988,6 +61264,9 @@
       <c r="HH93" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="HI93" t="n">
+        <v>78.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61640,6 +61919,9 @@
       <c r="HH94" t="n">
         <v>34</v>
       </c>
+      <c r="HI94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62292,6 +62574,9 @@
       <c r="HH95" t="n">
         <v>9</v>
       </c>
+      <c r="HI95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62944,6 +63229,9 @@
       <c r="HH96" t="n">
         <v>15</v>
       </c>
+      <c r="HI96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63596,6 +63884,9 @@
       <c r="HH97" t="n">
         <v>27</v>
       </c>
+      <c r="HI97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64248,6 +64539,9 @@
       <c r="HH98" t="n">
         <v>31</v>
       </c>
+      <c r="HI98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64900,6 +65194,9 @@
       <c r="HH99" t="n">
         <v>36</v>
       </c>
+      <c r="HI99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65552,6 +65849,9 @@
       <c r="HH100" t="n">
         <v>5</v>
       </c>
+      <c r="HI100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66204,6 +66504,9 @@
       <c r="HH101" t="n">
         <v>10</v>
       </c>
+      <c r="HI101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66856,6 +67159,9 @@
       <c r="HH102" t="n">
         <v>58.8</v>
       </c>
+      <c r="HI102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HI102"/>
+  <dimension ref="A1:HJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,9 @@
       <c r="HI1" t="n">
         <v>10335</v>
       </c>
+      <c r="HJ1" t="n">
+        <v>10341</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1662,6 +1665,9 @@
       <c r="HI2" t="n">
         <v>2021</v>
       </c>
+      <c r="HJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2317,6 +2323,9 @@
       <c r="HI3" t="n">
         <v>1</v>
       </c>
+      <c r="HJ3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2972,6 +2981,9 @@
       <c r="HI4" t="n">
         <v>1</v>
       </c>
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3627,6 +3639,9 @@
       <c r="HI5" t="n">
         <v>0</v>
       </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4282,6 +4297,9 @@
       <c r="HI6" t="n">
         <v>58</v>
       </c>
+      <c r="HJ6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4937,6 +4955,9 @@
       <c r="HI7" t="n">
         <v>83</v>
       </c>
+      <c r="HJ7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5592,6 +5613,9 @@
       <c r="HI8" t="n">
         <v>-25</v>
       </c>
+      <c r="HJ8" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6247,6 +6271,9 @@
       <c r="HI9" t="n">
         <v>0</v>
       </c>
+      <c r="HJ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6902,6 +6929,9 @@
       <c r="HI10" t="n">
         <v>17</v>
       </c>
+      <c r="HJ10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7557,6 +7587,9 @@
       <c r="HI11" t="n">
         <v>256</v>
       </c>
+      <c r="HJ11" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8212,6 +8245,9 @@
       <c r="HI12" t="n">
         <v>125</v>
       </c>
+      <c r="HJ12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8867,6 +8903,9 @@
       <c r="HI13" t="n">
         <v>381</v>
       </c>
+      <c r="HJ13" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9522,6 +9561,9 @@
       <c r="HI14" t="n">
         <v>2.05</v>
       </c>
+      <c r="HJ14" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10177,6 +10219,9 @@
       <c r="HI15" t="n">
         <v>137</v>
       </c>
+      <c r="HJ15" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10832,6 +10877,9 @@
       <c r="HI16" t="n">
         <v>39</v>
       </c>
+      <c r="HJ16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11487,6 +11535,9 @@
       <c r="HI17" t="n">
         <v>31</v>
       </c>
+      <c r="HJ17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12142,6 +12193,9 @@
       <c r="HI18" t="n">
         <v>15</v>
       </c>
+      <c r="HJ18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12797,6 +12851,9 @@
       <c r="HI19" t="n">
         <v>20</v>
       </c>
+      <c r="HJ19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13452,6 +13509,9 @@
       <c r="HI20" t="n">
         <v>8</v>
       </c>
+      <c r="HJ20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14107,6 +14167,9 @@
       <c r="HI21" t="n">
         <v>4</v>
       </c>
+      <c r="HJ21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14762,6 +14825,9 @@
       <c r="HI22" t="n">
         <v>10</v>
       </c>
+      <c r="HJ22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15417,6 +15483,9 @@
       <c r="HI23" t="n">
         <v>0</v>
       </c>
+      <c r="HJ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16072,6 +16141,9 @@
       <c r="HI24" t="n">
         <v>18</v>
       </c>
+      <c r="HJ24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16727,6 +16799,9 @@
       <c r="HI25" t="n">
         <v>44.4</v>
       </c>
+      <c r="HJ25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17382,6 +17457,9 @@
       <c r="HI26" t="n">
         <v>47.62</v>
       </c>
+      <c r="HJ26" t="n">
+        <v>31.43</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18037,6 +18115,9 @@
       <c r="HI27" t="n">
         <v>21.17</v>
       </c>
+      <c r="HJ27" t="n">
+        <v>15.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18692,6 +18773,9 @@
       <c r="HI28" t="n">
         <v>30</v>
       </c>
+      <c r="HJ28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19347,6 +19431,9 @@
       <c r="HI29" t="n">
         <v>64</v>
       </c>
+      <c r="HJ29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20002,6 +20089,9 @@
       <c r="HI30" t="n">
         <v>39</v>
       </c>
+      <c r="HJ30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20657,6 +20747,9 @@
       <c r="HI31" t="n">
         <v>44</v>
       </c>
+      <c r="HJ31" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21312,6 +21405,9 @@
       <c r="HI32" t="n">
         <v>2.44</v>
       </c>
+      <c r="HJ32" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21967,6 +22063,9 @@
       <c r="HI33" t="n">
         <v>5.5</v>
       </c>
+      <c r="HJ33" t="n">
+        <v>4.71</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22622,6 +22721,9 @@
       <c r="HI34" t="n">
         <v>40.9</v>
       </c>
+      <c r="HJ34" t="n">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23277,6 +23379,9 @@
       <c r="HI35" t="n">
         <v>18.2</v>
       </c>
+      <c r="HJ35" t="n">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23932,6 +24037,9 @@
       <c r="HI36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HJ36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24587,6 +24695,9 @@
       <c r="HI37" t="n">
         <v>85.7</v>
       </c>
+      <c r="HJ37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25242,6 +25353,9 @@
       <c r="HI38" t="n">
         <v>24.24</v>
       </c>
+      <c r="HJ38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25897,6 +26011,9 @@
       <c r="HI39" t="n">
         <v>69</v>
       </c>
+      <c r="HJ39" t="n">
+        <v>72.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26552,6 +26669,9 @@
       <c r="HI40" t="n">
         <v>11</v>
       </c>
+      <c r="HJ40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27207,6 +27327,9 @@
       <c r="HI41" t="n">
         <v>5</v>
       </c>
+      <c r="HJ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27862,6 +27985,9 @@
       <c r="HI42" t="n">
         <v>5</v>
       </c>
+      <c r="HJ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28517,6 +28643,9 @@
       <c r="HI43" t="n">
         <v>2</v>
       </c>
+      <c r="HJ43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29172,6 +29301,9 @@
       <c r="HI44" t="n">
         <v>114</v>
       </c>
+      <c r="HJ44" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29827,6 +29959,9 @@
       <c r="HI45" t="n">
         <v>264</v>
       </c>
+      <c r="HJ45" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30482,6 +30617,9 @@
       <c r="HI46" t="n">
         <v>302</v>
       </c>
+      <c r="HJ46" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31137,6 +31275,9 @@
       <c r="HI47" t="n">
         <v>79.3</v>
       </c>
+      <c r="HJ47" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31792,6 +31933,9 @@
       <c r="HI48" t="n">
         <v>64</v>
       </c>
+      <c r="HJ48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32447,6 +32591,9 @@
       <c r="HI49" t="n">
         <v>8</v>
       </c>
+      <c r="HJ49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33102,6 +33249,9 @@
       <c r="HI50" t="n">
         <v>5</v>
       </c>
+      <c r="HJ50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33757,6 +33907,9 @@
       <c r="HI51" t="n">
         <v>30</v>
       </c>
+      <c r="HJ51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34412,6 +34565,9 @@
       <c r="HI52" t="n">
         <v>39</v>
       </c>
+      <c r="HJ52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35067,6 +35223,9 @@
       <c r="HI53" t="n">
         <v>37</v>
       </c>
+      <c r="HJ53" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35722,6 +35881,9 @@
       <c r="HI54" t="n">
         <v>14</v>
       </c>
+      <c r="HJ54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36377,6 +36539,9 @@
       <c r="HI55" t="n">
         <v>4</v>
       </c>
+      <c r="HJ55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37032,6 +37197,9 @@
       <c r="HI56" t="n">
         <v>50</v>
       </c>
+      <c r="HJ56" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37687,6 +37855,9 @@
       <c r="HI57" t="n">
         <v>259</v>
       </c>
+      <c r="HJ57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38342,6 +38513,9 @@
       <c r="HI58" t="n">
         <v>131</v>
       </c>
+      <c r="HJ58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38997,6 +39171,9 @@
       <c r="HI59" t="n">
         <v>390</v>
       </c>
+      <c r="HJ59" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39652,6 +39829,9 @@
       <c r="HI60" t="n">
         <v>1.98</v>
       </c>
+      <c r="HJ60" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40307,6 +40487,9 @@
       <c r="HI61" t="n">
         <v>145</v>
       </c>
+      <c r="HJ61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40962,6 +41145,9 @@
       <c r="HI62" t="n">
         <v>34</v>
       </c>
+      <c r="HJ62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41617,6 +41803,9 @@
       <c r="HI63" t="n">
         <v>23</v>
       </c>
+      <c r="HJ63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42272,6 +42461,9 @@
       <c r="HI64" t="n">
         <v>20</v>
       </c>
+      <c r="HJ64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42927,6 +43119,9 @@
       <c r="HI65" t="n">
         <v>15</v>
       </c>
+      <c r="HJ65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43582,6 +43777,9 @@
       <c r="HI66" t="n">
         <v>12</v>
       </c>
+      <c r="HJ66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44237,6 +44435,9 @@
       <c r="HI67" t="n">
         <v>7</v>
       </c>
+      <c r="HJ67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44892,6 +45093,9 @@
       <c r="HI68" t="n">
         <v>11</v>
       </c>
+      <c r="HJ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45547,6 +45751,9 @@
       <c r="HI69" t="n">
         <v>0</v>
       </c>
+      <c r="HJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46202,6 +46409,9 @@
       <c r="HI70" t="n">
         <v>23</v>
       </c>
+      <c r="HJ70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46857,6 +47067,9 @@
       <c r="HI71" t="n">
         <v>52.2</v>
       </c>
+      <c r="HJ71" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47512,6 +47725,9 @@
       <c r="HI72" t="n">
         <v>32.5</v>
       </c>
+      <c r="HJ72" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48167,6 +48383,9 @@
       <c r="HI73" t="n">
         <v>16.96</v>
       </c>
+      <c r="HJ73" t="n">
+        <v>26.29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48822,6 +49041,9 @@
       <c r="HI74" t="n">
         <v>30</v>
       </c>
+      <c r="HJ74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49477,6 +49699,9 @@
       <c r="HI75" t="n">
         <v>44</v>
       </c>
+      <c r="HJ75" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50132,6 +50357,9 @@
       <c r="HI76" t="n">
         <v>36</v>
       </c>
+      <c r="HJ76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50787,6 +51015,9 @@
       <c r="HI77" t="n">
         <v>52</v>
       </c>
+      <c r="HJ77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51442,6 +51673,9 @@
       <c r="HI78" t="n">
         <v>2.26</v>
       </c>
+      <c r="HJ78" t="n">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52097,6 +52331,9 @@
       <c r="HI79" t="n">
         <v>4.33</v>
       </c>
+      <c r="HJ79" t="n">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52752,6 +52989,9 @@
       <c r="HI80" t="n">
         <v>44.2</v>
       </c>
+      <c r="HJ80" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53407,6 +53647,9 @@
       <c r="HI81" t="n">
         <v>23.1</v>
       </c>
+      <c r="HJ81" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54062,6 +54305,9 @@
       <c r="HI82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HJ82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54717,6 +54963,9 @@
       <c r="HI83" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="HJ83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55372,6 +55621,9 @@
       <c r="HI84" t="n">
         <v>26.91</v>
       </c>
+      <c r="HJ84" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56027,6 +56279,9 @@
       <c r="HI85" t="n">
         <v>120.5</v>
       </c>
+      <c r="HJ85" t="n">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56682,6 +56937,9 @@
       <c r="HI86" t="n">
         <v>5</v>
       </c>
+      <c r="HJ86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57337,6 +57595,9 @@
       <c r="HI87" t="n">
         <v>6</v>
       </c>
+      <c r="HJ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57992,6 +58253,9 @@
       <c r="HI88" t="n">
         <v>3</v>
       </c>
+      <c r="HJ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58647,6 +58911,9 @@
       <c r="HI89" t="n">
         <v>8</v>
       </c>
+      <c r="HJ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59302,6 +59569,9 @@
       <c r="HI90" t="n">
         <v>120</v>
       </c>
+      <c r="HJ90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59957,6 +60227,9 @@
       <c r="HI91" t="n">
         <v>265</v>
       </c>
+      <c r="HJ91" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60612,6 +60885,9 @@
       <c r="HI92" t="n">
         <v>305</v>
       </c>
+      <c r="HJ92" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61267,6 +61543,9 @@
       <c r="HI93" t="n">
         <v>78.2</v>
       </c>
+      <c r="HJ93" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61922,6 +62201,9 @@
       <c r="HI94" t="n">
         <v>44</v>
       </c>
+      <c r="HJ94" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62577,6 +62859,9 @@
       <c r="HI95" t="n">
         <v>15</v>
       </c>
+      <c r="HJ95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63232,6 +63517,9 @@
       <c r="HI96" t="n">
         <v>14</v>
       </c>
+      <c r="HJ96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63887,6 +64175,9 @@
       <c r="HI97" t="n">
         <v>30</v>
       </c>
+      <c r="HJ97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64542,6 +64833,9 @@
       <c r="HI98" t="n">
         <v>36</v>
       </c>
+      <c r="HJ98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65197,6 +65491,9 @@
       <c r="HI99" t="n">
         <v>38</v>
       </c>
+      <c r="HJ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65852,6 +66149,9 @@
       <c r="HI100" t="n">
         <v>12</v>
       </c>
+      <c r="HJ100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66507,6 +66807,9 @@
       <c r="HI101" t="n">
         <v>7</v>
       </c>
+      <c r="HJ101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67162,6 +67465,9 @@
       <c r="HI102" t="n">
         <v>58.3</v>
       </c>
+      <c r="HJ102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HJ102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1010,9 @@
       <c r="HJ1" t="n">
         <v>10341</v>
       </c>
+      <c r="HK1" t="n">
+        <v>10347</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1668,6 +1671,9 @@
       <c r="HJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2326,6 +2332,9 @@
       <c r="HJ3" t="n">
         <v>2</v>
       </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2984,6 +2993,9 @@
       <c r="HJ4" t="n">
         <v>0</v>
       </c>
+      <c r="HK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3642,6 +3654,9 @@
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4300,6 +4315,9 @@
       <c r="HJ6" t="n">
         <v>98</v>
       </c>
+      <c r="HK6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4958,6 +4976,9 @@
       <c r="HJ7" t="n">
         <v>39</v>
       </c>
+      <c r="HK7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5616,6 +5637,9 @@
       <c r="HJ8" t="n">
         <v>59</v>
       </c>
+      <c r="HK8" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6274,6 +6298,9 @@
       <c r="HJ9" t="n">
         <v>1</v>
       </c>
+      <c r="HK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6932,6 +6959,9 @@
       <c r="HJ10" t="n">
         <v>12</v>
       </c>
+      <c r="HK10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7590,6 +7620,9 @@
       <c r="HJ11" t="n">
         <v>292</v>
       </c>
+      <c r="HK11" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8248,6 +8281,9 @@
       <c r="HJ12" t="n">
         <v>148</v>
       </c>
+      <c r="HK12" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8906,6 +8942,9 @@
       <c r="HJ13" t="n">
         <v>440</v>
       </c>
+      <c r="HK13" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9564,6 +9603,9 @@
       <c r="HJ14" t="n">
         <v>1.97</v>
       </c>
+      <c r="HK14" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10222,6 +10264,9 @@
       <c r="HJ15" t="n">
         <v>115</v>
       </c>
+      <c r="HK15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10880,6 +10925,9 @@
       <c r="HJ16" t="n">
         <v>69</v>
       </c>
+      <c r="HK16" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11538,6 +11586,9 @@
       <c r="HJ17" t="n">
         <v>37</v>
       </c>
+      <c r="HK17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12196,6 +12247,9 @@
       <c r="HJ18" t="n">
         <v>20</v>
       </c>
+      <c r="HK18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12854,6 +12908,9 @@
       <c r="HJ19" t="n">
         <v>21</v>
       </c>
+      <c r="HK19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13512,6 +13569,9 @@
       <c r="HJ20" t="n">
         <v>14</v>
       </c>
+      <c r="HK20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14170,6 +14230,9 @@
       <c r="HJ21" t="n">
         <v>8</v>
       </c>
+      <c r="HK21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14828,6 +14891,9 @@
       <c r="HJ22" t="n">
         <v>13</v>
       </c>
+      <c r="HK22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15486,6 +15552,9 @@
       <c r="HJ23" t="n">
         <v>1</v>
       </c>
+      <c r="HK23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16144,6 +16213,9 @@
       <c r="HJ24" t="n">
         <v>28</v>
       </c>
+      <c r="HK24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16802,6 +16874,9 @@
       <c r="HJ25" t="n">
         <v>50</v>
       </c>
+      <c r="HK25" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17460,6 +17535,9 @@
       <c r="HJ26" t="n">
         <v>31.43</v>
       </c>
+      <c r="HK26" t="n">
+        <v>27.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18118,6 +18196,9 @@
       <c r="HJ27" t="n">
         <v>15.71</v>
       </c>
+      <c r="HK27" t="n">
+        <v>13.16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18776,6 +18857,9 @@
       <c r="HJ28" t="n">
         <v>39</v>
       </c>
+      <c r="HK28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19434,6 +19518,9 @@
       <c r="HJ29" t="n">
         <v>68</v>
       </c>
+      <c r="HK29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20092,6 +20179,9 @@
       <c r="HJ30" t="n">
         <v>47</v>
       </c>
+      <c r="HK30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20750,6 +20840,9 @@
       <c r="HJ31" t="n">
         <v>66</v>
       </c>
+      <c r="HK31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21408,6 +21501,9 @@
       <c r="HJ32" t="n">
         <v>2.36</v>
       </c>
+      <c r="HK32" t="n">
+        <v>2.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22066,6 +22162,9 @@
       <c r="HJ33" t="n">
         <v>4.71</v>
       </c>
+      <c r="HK33" t="n">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22724,6 +22823,9 @@
       <c r="HJ34" t="n">
         <v>40.9</v>
       </c>
+      <c r="HK34" t="n">
+        <v>39.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23382,6 +23484,9 @@
       <c r="HJ35" t="n">
         <v>21.2</v>
       </c>
+      <c r="HK35" t="n">
+        <v>20.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24040,6 +24145,9 @@
       <c r="HJ36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HK36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24698,6 +24806,9 @@
       <c r="HJ37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HK37" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25356,6 +25467,9 @@
       <c r="HJ38" t="n">
         <v>24.41</v>
       </c>
+      <c r="HK38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26014,6 +26128,9 @@
       <c r="HJ39" t="n">
         <v>72.3</v>
       </c>
+      <c r="HK39" t="n">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26672,6 +26789,9 @@
       <c r="HJ40" t="n">
         <v>9</v>
       </c>
+      <c r="HK40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27330,6 +27450,9 @@
       <c r="HJ41" t="n">
         <v>7</v>
       </c>
+      <c r="HK41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27988,6 +28111,9 @@
       <c r="HJ42" t="n">
         <v>5</v>
       </c>
+      <c r="HK42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28646,6 +28772,9 @@
       <c r="HJ43" t="n">
         <v>2</v>
       </c>
+      <c r="HK43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29304,6 +29433,9 @@
       <c r="HJ44" t="n">
         <v>158</v>
       </c>
+      <c r="HK44" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29962,6 +30094,9 @@
       <c r="HJ45" t="n">
         <v>274</v>
       </c>
+      <c r="HK45" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30620,6 +30755,9 @@
       <c r="HJ46" t="n">
         <v>304</v>
       </c>
+      <c r="HK46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31278,6 +31416,9 @@
       <c r="HJ47" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="HK47" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31936,6 +32077,9 @@
       <c r="HJ48" t="n">
         <v>68</v>
       </c>
+      <c r="HK48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32594,6 +32738,9 @@
       <c r="HJ49" t="n">
         <v>8</v>
       </c>
+      <c r="HK49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33252,6 +33399,9 @@
       <c r="HJ50" t="n">
         <v>16</v>
       </c>
+      <c r="HK50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33910,6 +34060,9 @@
       <c r="HJ51" t="n">
         <v>39</v>
       </c>
+      <c r="HK51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34568,6 +34721,9 @@
       <c r="HJ52" t="n">
         <v>47</v>
       </c>
+      <c r="HK52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35226,6 +35382,9 @@
       <c r="HJ53" t="n">
         <v>58</v>
       </c>
+      <c r="HK53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35884,6 +36043,9 @@
       <c r="HJ54" t="n">
         <v>10</v>
       </c>
+      <c r="HK54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36542,6 +36704,9 @@
       <c r="HJ55" t="n">
         <v>8</v>
       </c>
+      <c r="HK55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37200,6 +37365,9 @@
       <c r="HJ56" t="n">
         <v>57.1</v>
       </c>
+      <c r="HK56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37858,6 +38026,9 @@
       <c r="HJ57" t="n">
         <v>203</v>
       </c>
+      <c r="HK57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38516,6 +38687,9 @@
       <c r="HJ58" t="n">
         <v>165</v>
       </c>
+      <c r="HK58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39174,6 +39348,9 @@
       <c r="HJ59" t="n">
         <v>368</v>
       </c>
+      <c r="HK59" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39832,6 +40009,9 @@
       <c r="HJ60" t="n">
         <v>1.23</v>
       </c>
+      <c r="HK60" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40490,6 +40670,9 @@
       <c r="HJ61" t="n">
         <v>81</v>
       </c>
+      <c r="HK61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41148,6 +41331,9 @@
       <c r="HJ62" t="n">
         <v>62</v>
       </c>
+      <c r="HK62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41806,6 +41992,9 @@
       <c r="HJ63" t="n">
         <v>37</v>
       </c>
+      <c r="HK63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42464,6 +42653,9 @@
       <c r="HJ64" t="n">
         <v>21</v>
       </c>
+      <c r="HK64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43122,6 +43314,9 @@
       <c r="HJ65" t="n">
         <v>19</v>
       </c>
+      <c r="HK65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43780,6 +43975,9 @@
       <c r="HJ66" t="n">
         <v>5</v>
       </c>
+      <c r="HK66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44438,6 +44636,9 @@
       <c r="HJ67" t="n">
         <v>5</v>
       </c>
+      <c r="HK67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45096,6 +45297,9 @@
       <c r="HJ68" t="n">
         <v>7</v>
       </c>
+      <c r="HK68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45754,6 +45958,9 @@
       <c r="HJ69" t="n">
         <v>2</v>
       </c>
+      <c r="HK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46412,6 +46619,9 @@
       <c r="HJ70" t="n">
         <v>14</v>
       </c>
+      <c r="HK70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47070,6 +47280,9 @@
       <c r="HJ71" t="n">
         <v>35.7</v>
       </c>
+      <c r="HK71" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47728,6 +47941,9 @@
       <c r="HJ72" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="HK72" t="n">
+        <v>26.36</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48386,6 +48602,9 @@
       <c r="HJ73" t="n">
         <v>26.29</v>
       </c>
+      <c r="HK73" t="n">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49044,6 +49263,9 @@
       <c r="HJ74" t="n">
         <v>33</v>
       </c>
+      <c r="HK74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49702,6 +49924,9 @@
       <c r="HJ75" t="n">
         <v>76</v>
       </c>
+      <c r="HK75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50360,6 +50585,9 @@
       <c r="HJ76" t="n">
         <v>50</v>
       </c>
+      <c r="HK76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51018,6 +51246,9 @@
       <c r="HJ77" t="n">
         <v>52</v>
       </c>
+      <c r="HK77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51676,6 +51907,9 @@
       <c r="HJ78" t="n">
         <v>3.71</v>
       </c>
+      <c r="HK78" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52334,6 +52568,9 @@
       <c r="HJ79" t="n">
         <v>10.4</v>
       </c>
+      <c r="HK79" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52992,6 +53229,9 @@
       <c r="HJ80" t="n">
         <v>23.1</v>
       </c>
+      <c r="HK80" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53650,6 +53890,9 @@
       <c r="HJ81" t="n">
         <v>9.6</v>
       </c>
+      <c r="HK81" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54308,6 +54551,9 @@
       <c r="HJ82" t="n">
         <v>188</v>
       </c>
+      <c r="HK82" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54966,6 +55212,9 @@
       <c r="HJ83" t="n">
         <v>84</v>
       </c>
+      <c r="HK83" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55624,6 +55873,9 @@
       <c r="HJ84" t="n">
         <v>24.58</v>
       </c>
+      <c r="HK84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56282,6 +56534,9 @@
       <c r="HJ85" t="n">
         <v>77.3</v>
       </c>
+      <c r="HK85" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56940,6 +57195,9 @@
       <c r="HJ86" t="n">
         <v>11</v>
       </c>
+      <c r="HK86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57598,6 +57856,9 @@
       <c r="HJ87" t="n">
         <v>4</v>
       </c>
+      <c r="HK87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58256,6 +58517,9 @@
       <c r="HJ88" t="n">
         <v>5</v>
       </c>
+      <c r="HK88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58914,6 +59178,9 @@
       <c r="HJ89" t="n">
         <v>3</v>
       </c>
+      <c r="HK89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59572,6 +59839,9 @@
       <c r="HJ90" t="n">
         <v>139</v>
       </c>
+      <c r="HK90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60230,6 +60500,9 @@
       <c r="HJ91" t="n">
         <v>224</v>
       </c>
+      <c r="HK91" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60888,6 +61161,9 @@
       <c r="HJ92" t="n">
         <v>258</v>
       </c>
+      <c r="HK92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61546,6 +61822,9 @@
       <c r="HJ93" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="HK93" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62204,6 +62483,9 @@
       <c r="HJ94" t="n">
         <v>76</v>
       </c>
+      <c r="HK94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62862,6 +63144,9 @@
       <c r="HJ95" t="n">
         <v>7</v>
       </c>
+      <c r="HK95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63520,6 +63805,9 @@
       <c r="HJ96" t="n">
         <v>3</v>
       </c>
+      <c r="HK96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64178,6 +64466,9 @@
       <c r="HJ97" t="n">
         <v>33</v>
       </c>
+      <c r="HK97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64836,6 +65127,9 @@
       <c r="HJ98" t="n">
         <v>50</v>
       </c>
+      <c r="HK98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65494,6 +65788,9 @@
       <c r="HJ99" t="n">
         <v>51</v>
       </c>
+      <c r="HK99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66152,6 +66449,9 @@
       <c r="HJ100" t="n">
         <v>1</v>
       </c>
+      <c r="HK100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66810,6 +67110,9 @@
       <c r="HJ101" t="n">
         <v>5</v>
       </c>
+      <c r="HK101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67468,6 +67771,9 @@
       <c r="HJ102" t="n">
         <v>100</v>
       </c>
+      <c r="HK102" t="n">
+        <v>64.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,9 @@
       <c r="HK1" t="n">
         <v>10347</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10358</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1677,9 @@
       <c r="HK2" t="n">
         <v>2021</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2341,9 @@
       <c r="HK3" t="n">
         <v>3</v>
       </c>
+      <c r="HL3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3005,9 @@
       <c r="HK4" t="n">
         <v>1</v>
       </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3669,9 @@
       <c r="HK5" t="n">
         <v>0</v>
       </c>
+      <c r="HL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4333,9 @@
       <c r="HK6" t="n">
         <v>85</v>
       </c>
+      <c r="HL6" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +4997,9 @@
       <c r="HK7" t="n">
         <v>95</v>
       </c>
+      <c r="HL7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5661,9 @@
       <c r="HK8" t="n">
         <v>-10</v>
       </c>
+      <c r="HL8" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6325,9 @@
       <c r="HK9" t="n">
         <v>0</v>
       </c>
+      <c r="HL9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +6989,9 @@
       <c r="HK10" t="n">
         <v>1</v>
       </c>
+      <c r="HL10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7653,9 @@
       <c r="HK11" t="n">
         <v>230</v>
       </c>
+      <c r="HL11" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8317,9 @@
       <c r="HK12" t="n">
         <v>99</v>
       </c>
+      <c r="HL12" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +8981,9 @@
       <c r="HK13" t="n">
         <v>329</v>
       </c>
+      <c r="HL13" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9645,9 @@
       <c r="HK14" t="n">
         <v>2.32</v>
       </c>
+      <c r="HL14" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10309,9 @@
       <c r="HK15" t="n">
         <v>104</v>
       </c>
+      <c r="HL15" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +10973,9 @@
       <c r="HK16" t="n">
         <v>71</v>
       </c>
+      <c r="HL16" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11637,9 @@
       <c r="HK17" t="n">
         <v>34</v>
       </c>
+      <c r="HL17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12301,9 @@
       <c r="HK18" t="n">
         <v>20</v>
       </c>
+      <c r="HL18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +12965,9 @@
       <c r="HK19" t="n">
         <v>17</v>
       </c>
+      <c r="HL19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13629,9 @@
       <c r="HK20" t="n">
         <v>12</v>
       </c>
+      <c r="HL20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14293,9 @@
       <c r="HK21" t="n">
         <v>10</v>
       </c>
+      <c r="HL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +14957,9 @@
       <c r="HK22" t="n">
         <v>11</v>
       </c>
+      <c r="HL22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15621,9 @@
       <c r="HK23" t="n">
         <v>2</v>
       </c>
+      <c r="HL23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16285,9 @@
       <c r="HK24" t="n">
         <v>25</v>
       </c>
+      <c r="HL24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +16949,9 @@
       <c r="HK25" t="n">
         <v>48</v>
       </c>
+      <c r="HL25" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17613,9 @@
       <c r="HK26" t="n">
         <v>27.42</v>
       </c>
+      <c r="HL26" t="n">
+        <v>45.12</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18277,9 @@
       <c r="HK27" t="n">
         <v>13.16</v>
       </c>
+      <c r="HL27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +18941,9 @@
       <c r="HK28" t="n">
         <v>41</v>
       </c>
+      <c r="HL28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19605,9 @@
       <c r="HK29" t="n">
         <v>55</v>
       </c>
+      <c r="HL29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20269,9 @@
       <c r="HK30" t="n">
         <v>41</v>
       </c>
+      <c r="HL30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +20933,9 @@
       <c r="HK31" t="n">
         <v>58</v>
       </c>
+      <c r="HL31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21597,9 @@
       <c r="HK32" t="n">
         <v>2.32</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22261,9 @@
       <c r="HK33" t="n">
         <v>4.83</v>
       </c>
+      <c r="HL33" t="n">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +22925,9 @@
       <c r="HK34" t="n">
         <v>39.7</v>
       </c>
+      <c r="HL34" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23589,9 @@
       <c r="HK35" t="n">
         <v>20.7</v>
       </c>
+      <c r="HL35" t="n">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24253,9 @@
       <c r="HK36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HL36" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +24917,9 @@
       <c r="HK37" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="HL37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25581,9 @@
       <c r="HK38" t="n">
         <v>24.8</v>
       </c>
+      <c r="HL38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26245,9 @@
       <c r="HK39" t="n">
         <v>78.3</v>
       </c>
+      <c r="HL39" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +26909,9 @@
       <c r="HK40" t="n">
         <v>9</v>
       </c>
+      <c r="HL40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27573,9 @@
       <c r="HK41" t="n">
         <v>7</v>
       </c>
+      <c r="HL41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28237,9 @@
       <c r="HK42" t="n">
         <v>4</v>
       </c>
+      <c r="HL42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +28901,9 @@
       <c r="HK43" t="n">
         <v>3</v>
       </c>
+      <c r="HL43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29565,9 @@
       <c r="HK44" t="n">
         <v>150</v>
       </c>
+      <c r="HL44" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30229,9 @@
       <c r="HK45" t="n">
         <v>169</v>
       </c>
+      <c r="HL45" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +30893,9 @@
       <c r="HK46" t="n">
         <v>227</v>
       </c>
+      <c r="HL46" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31557,9 @@
       <c r="HK47" t="n">
         <v>69</v>
       </c>
+      <c r="HL47" t="n">
+        <v>67.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32221,9 @@
       <c r="HK48" t="n">
         <v>55</v>
       </c>
+      <c r="HL48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +32885,9 @@
       <c r="HK49" t="n">
         <v>14</v>
       </c>
+      <c r="HL49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33549,9 @@
       <c r="HK50" t="n">
         <v>10</v>
       </c>
+      <c r="HL50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34213,9 @@
       <c r="HK51" t="n">
         <v>41</v>
       </c>
+      <c r="HL51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +34877,9 @@
       <c r="HK52" t="n">
         <v>41</v>
       </c>
+      <c r="HL52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35541,9 @@
       <c r="HK53" t="n">
         <v>43</v>
       </c>
+      <c r="HL53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36205,9 @@
       <c r="HK54" t="n">
         <v>6</v>
       </c>
+      <c r="HL54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +36869,9 @@
       <c r="HK55" t="n">
         <v>10</v>
       </c>
+      <c r="HL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37533,9 @@
       <c r="HK56" t="n">
         <v>83.3</v>
       </c>
+      <c r="HL56" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38197,9 @@
       <c r="HK57" t="n">
         <v>209</v>
       </c>
+      <c r="HL57" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +38861,9 @@
       <c r="HK58" t="n">
         <v>160</v>
       </c>
+      <c r="HL58" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39525,9 @@
       <c r="HK59" t="n">
         <v>369</v>
       </c>
+      <c r="HL59" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40189,9 @@
       <c r="HK60" t="n">
         <v>1.31</v>
       </c>
+      <c r="HL60" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +40853,9 @@
       <c r="HK61" t="n">
         <v>81</v>
       </c>
+      <c r="HL61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41517,9 @@
       <c r="HK62" t="n">
         <v>58</v>
       </c>
+      <c r="HL62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42181,9 @@
       <c r="HK63" t="n">
         <v>36</v>
       </c>
+      <c r="HL63" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +42845,9 @@
       <c r="HK64" t="n">
         <v>17</v>
       </c>
+      <c r="HL64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43509,9 @@
       <c r="HK65" t="n">
         <v>20</v>
       </c>
+      <c r="HL65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44173,9 @@
       <c r="HK66" t="n">
         <v>14</v>
       </c>
+      <c r="HL66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +44837,9 @@
       <c r="HK67" t="n">
         <v>9</v>
       </c>
+      <c r="HL67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45501,9 @@
       <c r="HK68" t="n">
         <v>10</v>
       </c>
+      <c r="HL68" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46165,9 @@
       <c r="HK69" t="n">
         <v>1</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +46829,9 @@
       <c r="HK70" t="n">
         <v>25</v>
       </c>
+      <c r="HL70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47493,9 @@
       <c r="HK71" t="n">
         <v>56</v>
       </c>
+      <c r="HL71" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48157,9 @@
       <c r="HK72" t="n">
         <v>26.36</v>
       </c>
+      <c r="HL72" t="n">
+        <v>40.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +48821,9 @@
       <c r="HK73" t="n">
         <v>14.76</v>
       </c>
+      <c r="HL73" t="n">
+        <v>14.72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49485,9 @@
       <c r="HK74" t="n">
         <v>34</v>
       </c>
+      <c r="HL74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50149,9 @@
       <c r="HK75" t="n">
         <v>60</v>
       </c>
+      <c r="HL75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +50813,9 @@
       <c r="HK76" t="n">
         <v>45</v>
       </c>
+      <c r="HL76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51477,9 @@
       <c r="HK77" t="n">
         <v>57</v>
       </c>
+      <c r="HL77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52141,9 @@
       <c r="HK78" t="n">
         <v>2.28</v>
       </c>
+      <c r="HL78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +52805,9 @@
       <c r="HK79" t="n">
         <v>4.07</v>
       </c>
+      <c r="HL79" t="n">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53469,9 @@
       <c r="HK80" t="n">
         <v>42.1</v>
       </c>
+      <c r="HL80" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54133,9 @@
       <c r="HK81" t="n">
         <v>24.6</v>
       </c>
+      <c r="HL81" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +54797,9 @@
       <c r="HK82" t="n">
         <v>186.1</v>
       </c>
+      <c r="HL82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55461,9 @@
       <c r="HK83" t="n">
         <v>83.3</v>
       </c>
+      <c r="HL83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56125,9 @@
       <c r="HK84" t="n">
         <v>24.74</v>
       </c>
+      <c r="HL84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +56789,9 @@
       <c r="HK85" t="n">
         <v>71</v>
       </c>
+      <c r="HL85" t="n">
+        <v>100.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57453,9 @@
       <c r="HK86" t="n">
         <v>14</v>
       </c>
+      <c r="HL86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58117,9 @@
       <c r="HK87" t="n">
         <v>1</v>
       </c>
+      <c r="HL87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +58781,9 @@
       <c r="HK88" t="n">
         <v>1</v>
       </c>
+      <c r="HL88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59445,9 @@
       <c r="HK89" t="n">
         <v>6</v>
       </c>
+      <c r="HL89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60109,9 @@
       <c r="HK90" t="n">
         <v>148</v>
       </c>
+      <c r="HL90" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +60773,9 @@
       <c r="HK91" t="n">
         <v>218</v>
       </c>
+      <c r="HL91" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61437,9 @@
       <c r="HK92" t="n">
         <v>276</v>
       </c>
+      <c r="HL92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62101,9 @@
       <c r="HK93" t="n">
         <v>74.8</v>
       </c>
+      <c r="HL93" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +62765,9 @@
       <c r="HK94" t="n">
         <v>60</v>
       </c>
+      <c r="HL94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63429,9 @@
       <c r="HK95" t="n">
         <v>12</v>
       </c>
+      <c r="HL95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64093,9 @@
       <c r="HK96" t="n">
         <v>11</v>
       </c>
+      <c r="HL96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +64757,9 @@
       <c r="HK97" t="n">
         <v>34</v>
       </c>
+      <c r="HL97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +65421,9 @@
       <c r="HK98" t="n">
         <v>45</v>
       </c>
+      <c r="HL98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66085,9 @@
       <c r="HK99" t="n">
         <v>57</v>
       </c>
+      <c r="HL99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +66749,9 @@
       <c r="HK100" t="n">
         <v>0</v>
       </c>
+      <c r="HL100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +67413,9 @@
       <c r="HK101" t="n">
         <v>9</v>
       </c>
+      <c r="HL101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,6 +68077,9 @@
       <c r="HK102" t="n">
         <v>64.3</v>
       </c>
+      <c r="HL102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,9 @@
       <c r="HL1" t="n">
         <v>10358</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10365</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1680,6 +1683,9 @@
       <c r="HL2" t="n">
         <v>2021</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2344,6 +2350,9 @@
       <c r="HL3" t="n">
         <v>4</v>
       </c>
+      <c r="HM3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3008,6 +3017,9 @@
       <c r="HL4" t="n">
         <v>0</v>
       </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3672,6 +3684,9 @@
       <c r="HL5" t="n">
         <v>1</v>
       </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,6 +4351,9 @@
       <c r="HL6" t="n">
         <v>59</v>
       </c>
+      <c r="HM6" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5000,6 +5018,9 @@
       <c r="HL7" t="n">
         <v>70</v>
       </c>
+      <c r="HM7" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5664,6 +5685,9 @@
       <c r="HL8" t="n">
         <v>-11</v>
       </c>
+      <c r="HM8" t="n">
+        <v>-62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6328,6 +6352,9 @@
       <c r="HL9" t="n">
         <v>0</v>
       </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6992,6 +7019,9 @@
       <c r="HL10" t="n">
         <v>3</v>
       </c>
+      <c r="HM10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7656,6 +7686,9 @@
       <c r="HL11" t="n">
         <v>250</v>
       </c>
+      <c r="HM11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8320,6 +8353,9 @@
       <c r="HL12" t="n">
         <v>111</v>
       </c>
+      <c r="HM12" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8984,6 +9020,9 @@
       <c r="HL13" t="n">
         <v>361</v>
       </c>
+      <c r="HM13" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9648,6 +9687,9 @@
       <c r="HL14" t="n">
         <v>2.25</v>
       </c>
+      <c r="HM14" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10312,6 +10354,9 @@
       <c r="HL15" t="n">
         <v>94</v>
       </c>
+      <c r="HM15" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10976,6 +11021,9 @@
       <c r="HL16" t="n">
         <v>78</v>
       </c>
+      <c r="HM16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +11688,9 @@
       <c r="HL17" t="n">
         <v>21</v>
       </c>
+      <c r="HM17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12304,6 +12355,9 @@
       <c r="HL18" t="n">
         <v>24</v>
       </c>
+      <c r="HM18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12968,6 +13022,9 @@
       <c r="HL19" t="n">
         <v>17</v>
       </c>
+      <c r="HM19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13632,6 +13689,9 @@
       <c r="HL20" t="n">
         <v>8</v>
       </c>
+      <c r="HM20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14296,6 +14356,9 @@
       <c r="HL21" t="n">
         <v>7</v>
       </c>
+      <c r="HM21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14960,6 +15023,9 @@
       <c r="HL22" t="n">
         <v>5</v>
       </c>
+      <c r="HM22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15624,6 +15690,9 @@
       <c r="HL23" t="n">
         <v>6</v>
       </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16288,6 +16357,9 @@
       <c r="HL24" t="n">
         <v>19</v>
       </c>
+      <c r="HM24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16952,6 +17024,9 @@
       <c r="HL25" t="n">
         <v>42.1</v>
       </c>
+      <c r="HM25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17616,6 +17691,9 @@
       <c r="HL26" t="n">
         <v>45.12</v>
       </c>
+      <c r="HM26" t="n">
+        <v>44.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18280,6 +18358,9 @@
       <c r="HL27" t="n">
         <v>19</v>
       </c>
+      <c r="HM27" t="n">
+        <v>22.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18944,6 +19025,9 @@
       <c r="HL28" t="n">
         <v>46</v>
       </c>
+      <c r="HM28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19608,6 +19692,9 @@
       <c r="HL29" t="n">
         <v>63</v>
       </c>
+      <c r="HM29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20272,6 +20359,9 @@
       <c r="HL30" t="n">
         <v>45</v>
       </c>
+      <c r="HM30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20936,6 +21026,9 @@
       <c r="HL31" t="n">
         <v>45</v>
       </c>
+      <c r="HM31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21600,6 +21693,9 @@
       <c r="HL32" t="n">
         <v>2.37</v>
       </c>
+      <c r="HM32" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22264,6 +22360,9 @@
       <c r="HL33" t="n">
         <v>5.62</v>
       </c>
+      <c r="HM33" t="n">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22928,6 +23027,9 @@
       <c r="HL34" t="n">
         <v>28.9</v>
       </c>
+      <c r="HM34" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23592,6 +23694,9 @@
       <c r="HL35" t="n">
         <v>17.8</v>
       </c>
+      <c r="HM35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24256,6 +24361,9 @@
       <c r="HL36" t="n">
         <v>186.3</v>
       </c>
+      <c r="HM36" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24920,6 +25028,9 @@
       <c r="HL37" t="n">
         <v>83.7</v>
       </c>
+      <c r="HM37" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25584,6 +25695,9 @@
       <c r="HL38" t="n">
         <v>24.41</v>
       </c>
+      <c r="HM38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26248,6 +26362,9 @@
       <c r="HL39" t="n">
         <v>73.7</v>
       </c>
+      <c r="HM39" t="n">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26912,6 +27029,9 @@
       <c r="HL40" t="n">
         <v>10</v>
       </c>
+      <c r="HM40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27576,6 +27696,9 @@
       <c r="HL41" t="n">
         <v>7</v>
       </c>
+      <c r="HM41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28240,6 +28363,9 @@
       <c r="HL42" t="n">
         <v>3</v>
       </c>
+      <c r="HM42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28904,6 +29030,9 @@
       <c r="HL43" t="n">
         <v>3</v>
       </c>
+      <c r="HM43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29568,6 +29697,9 @@
       <c r="HL44" t="n">
         <v>143</v>
       </c>
+      <c r="HM44" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30232,6 +30364,9 @@
       <c r="HL45" t="n">
         <v>199</v>
       </c>
+      <c r="HM45" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30896,6 +31031,9 @@
       <c r="HL46" t="n">
         <v>245</v>
       </c>
+      <c r="HM46" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31560,6 +31698,9 @@
       <c r="HL47" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="HM47" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32224,6 +32365,9 @@
       <c r="HL48" t="n">
         <v>63</v>
       </c>
+      <c r="HM48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32888,6 +33032,9 @@
       <c r="HL49" t="n">
         <v>7</v>
       </c>
+      <c r="HM49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33552,6 +33699,9 @@
       <c r="HL50" t="n">
         <v>8</v>
       </c>
+      <c r="HM50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34216,6 +34366,9 @@
       <c r="HL51" t="n">
         <v>46</v>
       </c>
+      <c r="HM51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34880,6 +35033,9 @@
       <c r="HL52" t="n">
         <v>45</v>
       </c>
+      <c r="HM52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35544,6 +35700,9 @@
       <c r="HL53" t="n">
         <v>50</v>
       </c>
+      <c r="HM53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36208,6 +36367,9 @@
       <c r="HL54" t="n">
         <v>10</v>
       </c>
+      <c r="HM54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36872,6 +37034,9 @@
       <c r="HL55" t="n">
         <v>7</v>
       </c>
+      <c r="HM55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37536,6 +37701,9 @@
       <c r="HL56" t="n">
         <v>87.5</v>
       </c>
+      <c r="HM56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38200,6 +38368,9 @@
       <c r="HL57" t="n">
         <v>252</v>
       </c>
+      <c r="HM57" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38864,6 +39035,9 @@
       <c r="HL58" t="n">
         <v>116</v>
       </c>
+      <c r="HM58" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39528,6 +39702,9 @@
       <c r="HL59" t="n">
         <v>368</v>
       </c>
+      <c r="HM59" t="n">
+        <v>415</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40192,6 +40369,9 @@
       <c r="HL60" t="n">
         <v>2.17</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40856,6 +41036,9 @@
       <c r="HL61" t="n">
         <v>88</v>
       </c>
+      <c r="HM61" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41520,6 +41703,9 @@
       <c r="HL62" t="n">
         <v>62</v>
       </c>
+      <c r="HM62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42184,6 +42370,9 @@
       <c r="HL63" t="n">
         <v>63</v>
       </c>
+      <c r="HM63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42848,6 +43037,9 @@
       <c r="HL64" t="n">
         <v>17</v>
       </c>
+      <c r="HM64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43512,6 +43704,9 @@
       <c r="HL65" t="n">
         <v>24</v>
       </c>
+      <c r="HM65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44176,6 +44371,9 @@
       <c r="HL66" t="n">
         <v>9</v>
       </c>
+      <c r="HM66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44840,6 +45038,9 @@
       <c r="HL67" t="n">
         <v>6</v>
       </c>
+      <c r="HM67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45504,6 +45705,9 @@
       <c r="HL68" t="n">
         <v>15</v>
       </c>
+      <c r="HM68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46168,6 +46372,9 @@
       <c r="HL69" t="n">
         <v>1</v>
       </c>
+      <c r="HM69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46832,6 +47039,9 @@
       <c r="HL70" t="n">
         <v>25</v>
       </c>
+      <c r="HM70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47496,6 +47706,9 @@
       <c r="HL71" t="n">
         <v>36</v>
       </c>
+      <c r="HM71" t="n">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48160,6 +48373,9 @@
       <c r="HL72" t="n">
         <v>40.89</v>
       </c>
+      <c r="HM72" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48824,6 +49040,9 @@
       <c r="HL73" t="n">
         <v>14.72</v>
       </c>
+      <c r="HM73" t="n">
+        <v>12.58</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49488,6 +49707,9 @@
       <c r="HL74" t="n">
         <v>39</v>
       </c>
+      <c r="HM74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50152,6 +50374,9 @@
       <c r="HL75" t="n">
         <v>59</v>
       </c>
+      <c r="HM75" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50816,6 +51041,9 @@
       <c r="HL76" t="n">
         <v>37</v>
       </c>
+      <c r="HM76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51480,6 +51708,9 @@
       <c r="HL77" t="n">
         <v>56</v>
       </c>
+      <c r="HM77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52144,6 +52375,9 @@
       <c r="HL78" t="n">
         <v>2.24</v>
       </c>
+      <c r="HM78" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52808,6 +53042,9 @@
       <c r="HL79" t="n">
         <v>6.22</v>
       </c>
+      <c r="HM79" t="n">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53472,6 +53709,9 @@
       <c r="HL80" t="n">
         <v>42.9</v>
       </c>
+      <c r="HM80" t="n">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54136,6 +54376,9 @@
       <c r="HL81" t="n">
         <v>16.1</v>
       </c>
+      <c r="HM81" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54800,6 +55043,9 @@
       <c r="HL82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HM82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55464,6 +55710,9 @@
       <c r="HL83" t="n">
         <v>86.5</v>
       </c>
+      <c r="HM83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56128,6 +56377,9 @@
       <c r="HL84" t="n">
         <v>25.74</v>
       </c>
+      <c r="HM84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56792,6 +57044,9 @@
       <c r="HL85" t="n">
         <v>100.5</v>
       </c>
+      <c r="HM85" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57456,6 +57711,9 @@
       <c r="HL86" t="n">
         <v>9</v>
       </c>
+      <c r="HM86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58120,6 +58378,9 @@
       <c r="HL87" t="n">
         <v>4</v>
       </c>
+      <c r="HM87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58784,6 +59045,9 @@
       <c r="HL88" t="n">
         <v>6</v>
       </c>
+      <c r="HM88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59448,6 +59712,9 @@
       <c r="HL89" t="n">
         <v>4</v>
       </c>
+      <c r="HM89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60112,6 +60379,9 @@
       <c r="HL90" t="n">
         <v>150</v>
       </c>
+      <c r="HM90" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60776,6 +61046,9 @@
       <c r="HL91" t="n">
         <v>201</v>
       </c>
+      <c r="HM91" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61440,6 +61713,9 @@
       <c r="HL92" t="n">
         <v>255</v>
       </c>
+      <c r="HM92" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62104,6 +62380,9 @@
       <c r="HL93" t="n">
         <v>69.3</v>
       </c>
+      <c r="HM93" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62768,6 +63047,9 @@
       <c r="HL94" t="n">
         <v>59</v>
       </c>
+      <c r="HM94" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63432,6 +63714,9 @@
       <c r="HL95" t="n">
         <v>11</v>
       </c>
+      <c r="HM95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64096,6 +64381,9 @@
       <c r="HL96" t="n">
         <v>6</v>
       </c>
+      <c r="HM96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64760,6 +65048,9 @@
       <c r="HL97" t="n">
         <v>39</v>
       </c>
+      <c r="HM97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65424,6 +65715,9 @@
       <c r="HL98" t="n">
         <v>37</v>
       </c>
+      <c r="HM98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66088,6 +66382,9 @@
       <c r="HL99" t="n">
         <v>46</v>
       </c>
+      <c r="HM99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66752,6 +67049,9 @@
       <c r="HL100" t="n">
         <v>5</v>
       </c>
+      <c r="HM100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67416,6 +67716,9 @@
       <c r="HL101" t="n">
         <v>6</v>
       </c>
+      <c r="HM101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68080,6 +68383,9 @@
       <c r="HL102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HM102" t="n">
+        <v>76.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,6 +1022,9 @@
       <c r="HN1" t="n">
         <v>10374</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10382</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1760,6 +1695,9 @@
       <c r="HN2" t="n">
         <v>2021</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2430,6 +2368,9 @@
       <c r="HN3" t="n">
         <v>6</v>
       </c>
+      <c r="HO3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3100,6 +3041,9 @@
       <c r="HN4" t="n">
         <v>0</v>
       </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3770,6 +3714,9 @@
       <c r="HN5" t="n">
         <v>0</v>
       </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4440,6 +4387,9 @@
       <c r="HN6" t="n">
         <v>100</v>
       </c>
+      <c r="HO6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5110,6 +5060,9 @@
       <c r="HN7" t="n">
         <v>60</v>
       </c>
+      <c r="HO7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5780,6 +5733,9 @@
       <c r="HN8" t="n">
         <v>40</v>
       </c>
+      <c r="HO8" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6450,6 +6406,9 @@
       <c r="HN9" t="n">
         <v>1</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7120,6 +7079,9 @@
       <c r="HN10" t="n">
         <v>16</v>
       </c>
+      <c r="HO10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7790,6 +7752,9 @@
       <c r="HN11" t="n">
         <v>247</v>
       </c>
+      <c r="HO11" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8460,6 +8425,9 @@
       <c r="HN12" t="n">
         <v>150</v>
       </c>
+      <c r="HO12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9130,6 +9098,9 @@
       <c r="HN13" t="n">
         <v>397</v>
       </c>
+      <c r="HO13" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9800,6 +9771,9 @@
       <c r="HN14" t="n">
         <v>1.65</v>
       </c>
+      <c r="HO14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10470,6 +10444,9 @@
       <c r="HN15" t="n">
         <v>114</v>
       </c>
+      <c r="HO15" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11140,6 +11117,9 @@
       <c r="HN16" t="n">
         <v>79</v>
       </c>
+      <c r="HO16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11810,6 +11790,9 @@
       <c r="HN17" t="n">
         <v>20</v>
       </c>
+      <c r="HO17" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12480,6 +12463,9 @@
       <c r="HN18" t="n">
         <v>19</v>
       </c>
+      <c r="HO18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13150,6 +13136,9 @@
       <c r="HN19" t="n">
         <v>16</v>
       </c>
+      <c r="HO19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13820,6 +13809,9 @@
       <c r="HN20" t="n">
         <v>15</v>
       </c>
+      <c r="HO20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14490,6 +14482,9 @@
       <c r="HN21" t="n">
         <v>11</v>
       </c>
+      <c r="HO21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15160,6 +15155,9 @@
       <c r="HN22" t="n">
         <v>7</v>
       </c>
+      <c r="HO22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15830,6 +15828,9 @@
       <c r="HN23" t="n">
         <v>3</v>
       </c>
+      <c r="HO23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16500,6 +16501,9 @@
       <c r="HN24" t="n">
         <v>25</v>
       </c>
+      <c r="HO24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17170,6 +17174,9 @@
       <c r="HN25" t="n">
         <v>60</v>
       </c>
+      <c r="HO25" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17840,6 +17847,9 @@
       <c r="HN26" t="n">
         <v>26.47</v>
       </c>
+      <c r="HO26" t="n">
+        <v>33.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18510,6 +18520,9 @@
       <c r="HN27" t="n">
         <v>15.88</v>
       </c>
+      <c r="HO27" t="n">
+        <v>21.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19180,6 +19193,9 @@
       <c r="HN28" t="n">
         <v>44</v>
       </c>
+      <c r="HO28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19850,6 +19866,9 @@
       <c r="HN29" t="n">
         <v>39</v>
       </c>
+      <c r="HO29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20520,6 +20539,9 @@
       <c r="HN30" t="n">
         <v>44</v>
       </c>
+      <c r="HO30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21190,6 +21212,9 @@
       <c r="HN31" t="n">
         <v>52</v>
       </c>
+      <c r="HO31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21860,6 +21885,9 @@
       <c r="HN32" t="n">
         <v>2.08</v>
       </c>
+      <c r="HO32" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22530,6 +22558,9 @@
       <c r="HN33" t="n">
         <v>3.47</v>
       </c>
+      <c r="HO33" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23200,6 +23231,9 @@
       <c r="HN34" t="n">
         <v>42.3</v>
       </c>
+      <c r="HO34" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23870,6 +23904,9 @@
       <c r="HN35" t="n">
         <v>28.8</v>
       </c>
+      <c r="HO35" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24540,6 +24577,9 @@
       <c r="HN36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HO36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25210,6 +25250,9 @@
       <c r="HN37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HO37" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25880,6 +25923,9 @@
       <c r="HN38" t="n">
         <v>23.74</v>
       </c>
+      <c r="HO38" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26550,6 +26596,9 @@
       <c r="HN39" t="n">
         <v>59.1</v>
       </c>
+      <c r="HO39" t="n">
+        <v>60.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27220,6 +27269,9 @@
       <c r="HN40" t="n">
         <v>12</v>
       </c>
+      <c r="HO40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27890,6 +27942,9 @@
       <c r="HN41" t="n">
         <v>6</v>
       </c>
+      <c r="HO41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28560,6 +28615,9 @@
       <c r="HN42" t="n">
         <v>2</v>
       </c>
+      <c r="HO42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29230,6 +29288,9 @@
       <c r="HN43" t="n">
         <v>2</v>
       </c>
+      <c r="HO43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29900,6 +29961,9 @@
       <c r="HN44" t="n">
         <v>154</v>
       </c>
+      <c r="HO44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30570,6 +30634,9 @@
       <c r="HN45" t="n">
         <v>241</v>
       </c>
+      <c r="HO45" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31240,6 +31307,9 @@
       <c r="HN46" t="n">
         <v>286</v>
       </c>
+      <c r="HO46" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31910,6 +31980,9 @@
       <c r="HN47" t="n">
         <v>72</v>
       </c>
+      <c r="HO47" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32580,6 +32653,9 @@
       <c r="HN48" t="n">
         <v>39</v>
       </c>
+      <c r="HO48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33250,6 +33326,9 @@
       <c r="HN49" t="n">
         <v>11</v>
       </c>
+      <c r="HO49" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33920,6 +33999,9 @@
       <c r="HN50" t="n">
         <v>15</v>
       </c>
+      <c r="HO50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34590,6 +34672,9 @@
       <c r="HN51" t="n">
         <v>44</v>
       </c>
+      <c r="HO51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35260,6 +35345,9 @@
       <c r="HN52" t="n">
         <v>44</v>
       </c>
+      <c r="HO52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35930,6 +36018,9 @@
       <c r="HN53" t="n">
         <v>44</v>
       </c>
+      <c r="HO53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36600,6 +36691,9 @@
       <c r="HN54" t="n">
         <v>9</v>
       </c>
+      <c r="HO54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37270,6 +37364,9 @@
       <c r="HN55" t="n">
         <v>11</v>
       </c>
+      <c r="HO55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37940,6 +38037,9 @@
       <c r="HN56" t="n">
         <v>73.3</v>
       </c>
+      <c r="HO56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38610,6 +38710,9 @@
       <c r="HN57" t="n">
         <v>216</v>
       </c>
+      <c r="HO57" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39280,6 +39383,9 @@
       <c r="HN58" t="n">
         <v>175</v>
       </c>
+      <c r="HO58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39950,6 +40056,9 @@
       <c r="HN59" t="n">
         <v>391</v>
       </c>
+      <c r="HO59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40620,6 +40729,9 @@
       <c r="HN60" t="n">
         <v>1.23</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41290,6 +41402,9 @@
       <c r="HN61" t="n">
         <v>90</v>
       </c>
+      <c r="HO61" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41960,6 +42075,9 @@
       <c r="HN62" t="n">
         <v>72</v>
       </c>
+      <c r="HO62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42630,6 +42748,9 @@
       <c r="HN63" t="n">
         <v>76</v>
       </c>
+      <c r="HO63" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43300,6 +43421,9 @@
       <c r="HN64" t="n">
         <v>15</v>
       </c>
+      <c r="HO64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43970,6 +44094,9 @@
       <c r="HN65" t="n">
         <v>19</v>
       </c>
+      <c r="HO65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44640,6 +44767,9 @@
       <c r="HN66" t="n">
         <v>9</v>
       </c>
+      <c r="HO66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45310,6 +45440,9 @@
       <c r="HN67" t="n">
         <v>7</v>
       </c>
+      <c r="HO67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45980,6 +46113,9 @@
       <c r="HN68" t="n">
         <v>4</v>
       </c>
+      <c r="HO68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46650,6 +46786,9 @@
       <c r="HN69" t="n">
         <v>2</v>
       </c>
+      <c r="HO69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47320,6 +47459,9 @@
       <c r="HN70" t="n">
         <v>15</v>
       </c>
+      <c r="HO70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47990,6 +48132,9 @@
       <c r="HN71" t="n">
         <v>60</v>
       </c>
+      <c r="HO71" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48660,6 +48805,9 @@
       <c r="HN72" t="n">
         <v>43.44</v>
       </c>
+      <c r="HO72" t="n">
+        <v>52.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49330,6 +49478,9 @@
       <c r="HN73" t="n">
         <v>26.07</v>
       </c>
+      <c r="HO73" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50000,6 +50151,9 @@
       <c r="HN74" t="n">
         <v>41</v>
       </c>
+      <c r="HO74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50670,6 +50824,9 @@
       <c r="HN75" t="n">
         <v>50</v>
       </c>
+      <c r="HO75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51340,6 +51497,9 @@
       <c r="HN76" t="n">
         <v>36</v>
       </c>
+      <c r="HO76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52010,6 +52170,9 @@
       <c r="HN77" t="n">
         <v>53</v>
       </c>
+      <c r="HO77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52680,6 +52843,9 @@
       <c r="HN78" t="n">
         <v>3.53</v>
       </c>
+      <c r="HO78" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53350,6 +53516,9 @@
       <c r="HN79" t="n">
         <v>5.89</v>
       </c>
+      <c r="HO79" t="n">
+        <v>6.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54020,6 +54189,9 @@
       <c r="HN80" t="n">
         <v>24.5</v>
       </c>
+      <c r="HO80" t="n">
+        <v>38.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54690,6 +54862,9 @@
       <c r="HN81" t="n">
         <v>17</v>
       </c>
+      <c r="HO81" t="n">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55360,6 +55535,9 @@
       <c r="HN82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HO82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56030,6 +56208,9 @@
       <c r="HN83" t="n">
         <v>84.2</v>
       </c>
+      <c r="HO83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56700,6 +56881,9 @@
       <c r="HN84" t="n">
         <v>24.41</v>
       </c>
+      <c r="HO84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57370,6 +57554,9 @@
       <c r="HN85" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="HO85" t="n">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58040,6 +58227,9 @@
       <c r="HN86" t="n">
         <v>11</v>
       </c>
+      <c r="HO86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58710,6 +58900,9 @@
       <c r="HN87" t="n">
         <v>3</v>
       </c>
+      <c r="HO87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59380,6 +59573,9 @@
       <c r="HN88" t="n">
         <v>5</v>
       </c>
+      <c r="HO88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60050,6 +60246,9 @@
       <c r="HN89" t="n">
         <v>4</v>
       </c>
+      <c r="HO89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60720,6 +60919,9 @@
       <c r="HN90" t="n">
         <v>144</v>
       </c>
+      <c r="HO90" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61390,6 +61592,9 @@
       <c r="HN91" t="n">
         <v>245</v>
       </c>
+      <c r="HO91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62060,6 +62265,9 @@
       <c r="HN92" t="n">
         <v>282</v>
       </c>
+      <c r="HO92" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62730,6 +62938,9 @@
       <c r="HN93" t="n">
         <v>72.09999999999999</v>
       </c>
+      <c r="HO93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63400,6 +63611,9 @@
       <c r="HN94" t="n">
         <v>50</v>
       </c>
+      <c r="HO94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64070,6 +64284,9 @@
       <c r="HN95" t="n">
         <v>10</v>
       </c>
+      <c r="HO95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64740,6 +64957,9 @@
       <c r="HN96" t="n">
         <v>8</v>
       </c>
+      <c r="HO96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65410,6 +65630,9 @@
       <c r="HN97" t="n">
         <v>41</v>
       </c>
+      <c r="HO97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66080,6 +66303,9 @@
       <c r="HN98" t="n">
         <v>36</v>
       </c>
+      <c r="HO98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66750,6 +66976,9 @@
       <c r="HN99" t="n">
         <v>49</v>
       </c>
+      <c r="HO99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67420,6 +67649,9 @@
       <c r="HN100" t="n">
         <v>6</v>
       </c>
+      <c r="HO100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68090,6 +68322,9 @@
       <c r="HN101" t="n">
         <v>7</v>
       </c>
+      <c r="HO101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68760,6 +68995,9 @@
       <c r="HN102" t="n">
         <v>77.8</v>
       </c>
+      <c r="HO102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,9 @@
       <c r="HP1" t="n">
         <v>10390</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10400</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1707,9 @@
       <c r="HP2" t="n">
         <v>2021</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2386,9 @@
       <c r="HP3" t="n">
         <v>8</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3065,9 @@
       <c r="HP4" t="n">
         <v>0</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3744,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4423,9 @@
       <c r="HP6" t="n">
         <v>54</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5102,9 @@
       <c r="HP7" t="n">
         <v>63</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5781,9 @@
       <c r="HP8" t="n">
         <v>-9</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>-73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6460,9 @@
       <c r="HP9" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7139,9 @@
       <c r="HP10" t="n">
         <v>15</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7818,9 @@
       <c r="HP11" t="n">
         <v>231</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8497,9 @@
       <c r="HP12" t="n">
         <v>144</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9176,9 @@
       <c r="HP13" t="n">
         <v>375</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9855,9 @@
       <c r="HP14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10534,9 @@
       <c r="HP15" t="n">
         <v>120</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11213,9 @@
       <c r="HP16" t="n">
         <v>61</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11892,9 @@
       <c r="HP17" t="n">
         <v>15</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12571,9 @@
       <c r="HP18" t="n">
         <v>17</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13250,9 @@
       <c r="HP19" t="n">
         <v>19</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13929,9 @@
       <c r="HP20" t="n">
         <v>7</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14608,9 @@
       <c r="HP21" t="n">
         <v>6</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15287,9 @@
       <c r="HP22" t="n">
         <v>11</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +15966,9 @@
       <c r="HP23" t="n">
         <v>1</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16645,9 @@
       <c r="HP24" t="n">
         <v>19</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17324,9 @@
       <c r="HP25" t="n">
         <v>36.8</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18003,9 @@
       <c r="HP26" t="n">
         <v>53.57</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>42.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18682,9 @@
       <c r="HP27" t="n">
         <v>19.74</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19361,9 @@
       <c r="HP28" t="n">
         <v>27</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20040,9 @@
       <c r="HP29" t="n">
         <v>66</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20719,9 @@
       <c r="HP30" t="n">
         <v>47</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21398,9 @@
       <c r="HP31" t="n">
         <v>53</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22077,9 @@
       <c r="HP32" t="n">
         <v>2.79</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22756,9 @@
       <c r="HP33" t="n">
         <v>7.57</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23435,9 @@
       <c r="HP34" t="n">
         <v>34</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24114,9 @@
       <c r="HP35" t="n">
         <v>13.2</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24793,9 @@
       <c r="HP36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25472,9 @@
       <c r="HP37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26151,9 @@
       <c r="HP38" t="n">
         <v>23.74</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>23.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26830,9 @@
       <c r="HP39" t="n">
         <v>61.1</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27509,9 @@
       <c r="HP40" t="n">
         <v>12</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28188,9 @@
       <c r="HP41" t="n">
         <v>5</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28867,9 @@
       <c r="HP42" t="n">
         <v>3</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29546,9 @@
       <c r="HP43" t="n">
         <v>2</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30225,9 @@
       <c r="HP44" t="n">
         <v>124</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30904,9 @@
       <c r="HP45" t="n">
         <v>238</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31583,9 @@
       <c r="HP46" t="n">
         <v>278</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32262,9 @@
       <c r="HP47" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +32941,9 @@
       <c r="HP48" t="n">
         <v>66</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33620,9 @@
       <c r="HP49" t="n">
         <v>10</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34299,9 @@
       <c r="HP50" t="n">
         <v>11</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +34978,9 @@
       <c r="HP51" t="n">
         <v>27</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35657,9 @@
       <c r="HP52" t="n">
         <v>47</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36336,9 @@
       <c r="HP53" t="n">
         <v>44</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37015,9 @@
       <c r="HP54" t="n">
         <v>16</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37694,9 @@
       <c r="HP55" t="n">
         <v>6</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38373,9 @@
       <c r="HP56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39052,9 @@
       <c r="HP57" t="n">
         <v>260</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39731,9 @@
       <c r="HP58" t="n">
         <v>137</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40410,9 @@
       <c r="HP59" t="n">
         <v>397</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41089,9 @@
       <c r="HP60" t="n">
         <v>1.9</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41768,9 @@
       <c r="HP61" t="n">
         <v>125</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42447,9 @@
       <c r="HP62" t="n">
         <v>56</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43126,9 @@
       <c r="HP63" t="n">
         <v>49</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43805,9 @@
       <c r="HP64" t="n">
         <v>19</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44484,9 @@
       <c r="HP65" t="n">
         <v>17</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45163,9 @@
       <c r="HP66" t="n">
         <v>8</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45842,9 @@
       <c r="HP67" t="n">
         <v>4</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46521,9 @@
       <c r="HP68" t="n">
         <v>13</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47200,9 @@
       <c r="HP69" t="n">
         <v>2</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47879,9 @@
       <c r="HP70" t="n">
         <v>23</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48558,9 @@
       <c r="HP71" t="n">
         <v>34.8</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>65.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49237,9 @@
       <c r="HP72" t="n">
         <v>49.62</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>21.79</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49916,9 @@
       <c r="HP73" t="n">
         <v>17.26</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>14.28</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50595,9 @@
       <c r="HP74" t="n">
         <v>37</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51274,9 @@
       <c r="HP75" t="n">
         <v>64</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +51953,9 @@
       <c r="HP76" t="n">
         <v>46</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52632,9 @@
       <c r="HP77" t="n">
         <v>57</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53311,9 @@
       <c r="HP78" t="n">
         <v>2.48</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +53990,9 @@
       <c r="HP79" t="n">
         <v>7.12</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>3.37</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54669,9 @@
       <c r="HP80" t="n">
         <v>36.8</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55348,9 @@
       <c r="HP81" t="n">
         <v>14</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56027,9 @@
       <c r="HP82" t="n">
         <v>188.8</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56706,9 @@
       <c r="HP83" t="n">
         <v>85.7</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57385,9 @@
       <c r="HP84" t="n">
         <v>25</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58064,9 @@
       <c r="HP85" t="n">
         <v>80.5</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58743,9 @@
       <c r="HP86" t="n">
         <v>7</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59422,9 @@
       <c r="HP87" t="n">
         <v>7</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60101,9 @@
       <c r="HP88" t="n">
         <v>6</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60780,9 @@
       <c r="HP89" t="n">
         <v>2</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61459,9 @@
       <c r="HP90" t="n">
         <v>140</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62138,9 @@
       <c r="HP91" t="n">
         <v>248</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62817,9 @@
       <c r="HP92" t="n">
         <v>294</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63496,9 @@
       <c r="HP93" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64175,9 @@
       <c r="HP94" t="n">
         <v>64</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64854,9 @@
       <c r="HP95" t="n">
         <v>13</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65533,9 @@
       <c r="HP96" t="n">
         <v>10</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66212,9 @@
       <c r="HP97" t="n">
         <v>37</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66891,9 @@
       <c r="HP98" t="n">
         <v>46</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67570,9 @@
       <c r="HP99" t="n">
         <v>50</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68249,9 @@
       <c r="HP100" t="n">
         <v>2</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68928,9 @@
       <c r="HP101" t="n">
         <v>4</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,6 +69607,9 @@
       <c r="HP102" t="n">
         <v>50</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,9 @@
       <c r="HQ1" t="n">
         <v>10400</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10412</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1713,9 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2395,9 @@
       <c r="HQ3" t="n">
         <v>9</v>
       </c>
+      <c r="HR3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3077,9 @@
       <c r="HQ4" t="n">
         <v>0</v>
       </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3759,9 @@
       <c r="HQ5" t="n">
         <v>1</v>
       </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4441,9 @@
       <c r="HQ6" t="n">
         <v>51</v>
       </c>
+      <c r="HR6" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5123,9 @@
       <c r="HQ7" t="n">
         <v>124</v>
       </c>
+      <c r="HR7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5805,9 @@
       <c r="HQ8" t="n">
         <v>-73</v>
       </c>
+      <c r="HR8" t="n">
+        <v>-34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6487,9 @@
       <c r="HQ9" t="n">
         <v>0</v>
       </c>
+      <c r="HR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7169,9 @@
       <c r="HQ10" t="n">
         <v>2</v>
       </c>
+      <c r="HR10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7851,9 @@
       <c r="HQ11" t="n">
         <v>177</v>
       </c>
+      <c r="HR11" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8533,9 @@
       <c r="HQ12" t="n">
         <v>118</v>
       </c>
+      <c r="HR12" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9215,9 @@
       <c r="HQ13" t="n">
         <v>295</v>
       </c>
+      <c r="HR13" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9897,9 @@
       <c r="HQ14" t="n">
         <v>1.5</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10579,9 @@
       <c r="HQ15" t="n">
         <v>81</v>
       </c>
+      <c r="HR15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11261,9 @@
       <c r="HQ16" t="n">
         <v>43</v>
       </c>
+      <c r="HR16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +11943,9 @@
       <c r="HQ17" t="n">
         <v>17</v>
       </c>
+      <c r="HR17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12625,9 @@
       <c r="HQ18" t="n">
         <v>11</v>
       </c>
+      <c r="HR18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13307,9 @@
       <c r="HQ19" t="n">
         <v>21</v>
       </c>
+      <c r="HR19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +13989,9 @@
       <c r="HQ20" t="n">
         <v>7</v>
       </c>
+      <c r="HR20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14671,9 @@
       <c r="HQ21" t="n">
         <v>3</v>
       </c>
+      <c r="HR21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15353,9 @@
       <c r="HQ22" t="n">
         <v>7</v>
       </c>
+      <c r="HR22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16035,9 @@
       <c r="HQ23" t="n">
         <v>2</v>
       </c>
+      <c r="HR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16717,9 @@
       <c r="HQ24" t="n">
         <v>16</v>
       </c>
+      <c r="HR24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17399,9 @@
       <c r="HQ25" t="n">
         <v>43.8</v>
       </c>
+      <c r="HR25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18081,9 @@
       <c r="HQ26" t="n">
         <v>42.14</v>
       </c>
+      <c r="HR26" t="n">
+        <v>36.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18763,9 @@
       <c r="HQ27" t="n">
         <v>18.44</v>
       </c>
+      <c r="HR27" t="n">
+        <v>17.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19445,9 @@
       <c r="HQ28" t="n">
         <v>24</v>
       </c>
+      <c r="HR28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20127,9 @@
       <c r="HQ29" t="n">
         <v>49</v>
       </c>
+      <c r="HR29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20809,9 @@
       <c r="HQ30" t="n">
         <v>40</v>
       </c>
+      <c r="HR30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21491,9 @@
       <c r="HQ31" t="n">
         <v>39</v>
       </c>
+      <c r="HR31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22173,9 @@
       <c r="HQ32" t="n">
         <v>2.44</v>
       </c>
+      <c r="HR32" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +22855,9 @@
       <c r="HQ33" t="n">
         <v>5.57</v>
       </c>
+      <c r="HR33" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23537,9 @@
       <c r="HQ34" t="n">
         <v>35.9</v>
       </c>
+      <c r="HR34" t="n">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24219,9 @@
       <c r="HQ35" t="n">
         <v>17.9</v>
       </c>
+      <c r="HR35" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +24901,9 @@
       <c r="HQ36" t="n">
         <v>186.8</v>
       </c>
+      <c r="HR36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25583,9 @@
       <c r="HQ37" t="n">
         <v>83.7</v>
       </c>
+      <c r="HR37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26265,9 @@
       <c r="HQ38" t="n">
         <v>23.58</v>
       </c>
+      <c r="HR38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +26947,9 @@
       <c r="HQ39" t="n">
         <v>58.1</v>
       </c>
+      <c r="HR39" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27629,9 @@
       <c r="HQ40" t="n">
         <v>13</v>
       </c>
+      <c r="HR40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28311,9 @@
       <c r="HQ41" t="n">
         <v>5</v>
       </c>
+      <c r="HR41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +28993,9 @@
       <c r="HQ42" t="n">
         <v>3</v>
       </c>
+      <c r="HR42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29675,9 @@
       <c r="HQ43" t="n">
         <v>2</v>
       </c>
+      <c r="HR43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30357,9 @@
       <c r="HQ44" t="n">
         <v>111</v>
       </c>
+      <c r="HR44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31039,9 @@
       <c r="HQ45" t="n">
         <v>189</v>
       </c>
+      <c r="HR45" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31721,9 @@
       <c r="HQ46" t="n">
         <v>214</v>
       </c>
+      <c r="HR46" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32403,9 @@
       <c r="HQ47" t="n">
         <v>72.5</v>
       </c>
+      <c r="HR47" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33085,9 @@
       <c r="HQ48" t="n">
         <v>49</v>
       </c>
+      <c r="HR48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +33767,9 @@
       <c r="HQ49" t="n">
         <v>10</v>
       </c>
+      <c r="HR49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34449,9 @@
       <c r="HQ50" t="n">
         <v>6</v>
       </c>
+      <c r="HR50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35131,9 @@
       <c r="HQ51" t="n">
         <v>24</v>
       </c>
+      <c r="HR51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +35813,9 @@
       <c r="HQ52" t="n">
         <v>40</v>
       </c>
+      <c r="HR52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36495,9 @@
       <c r="HQ53" t="n">
         <v>51</v>
       </c>
+      <c r="HR53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37177,9 @@
       <c r="HQ54" t="n">
         <v>12</v>
       </c>
+      <c r="HR54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +37859,9 @@
       <c r="HQ55" t="n">
         <v>3</v>
       </c>
+      <c r="HR55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38541,9 @@
       <c r="HQ56" t="n">
         <v>42.9</v>
       </c>
+      <c r="HR56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39223,9 @@
       <c r="HQ57" t="n">
         <v>263</v>
       </c>
+      <c r="HR57" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +39905,9 @@
       <c r="HQ58" t="n">
         <v>151</v>
       </c>
+      <c r="HR58" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40587,9 @@
       <c r="HQ59" t="n">
         <v>414</v>
       </c>
+      <c r="HR59" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41269,9 @@
       <c r="HQ60" t="n">
         <v>1.74</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +41951,9 @@
       <c r="HQ61" t="n">
         <v>138</v>
       </c>
+      <c r="HR61" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42633,9 @@
       <c r="HQ62" t="n">
         <v>39</v>
       </c>
+      <c r="HR62" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43315,9 @@
       <c r="HQ63" t="n">
         <v>42</v>
       </c>
+      <c r="HR63" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +43997,9 @@
       <c r="HQ64" t="n">
         <v>21</v>
       </c>
+      <c r="HR64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +44679,9 @@
       <c r="HQ65" t="n">
         <v>11</v>
       </c>
+      <c r="HR65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45361,9 @@
       <c r="HQ66" t="n">
         <v>19</v>
       </c>
+      <c r="HR66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46043,9 @@
       <c r="HQ67" t="n">
         <v>13</v>
       </c>
+      <c r="HR67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +46725,9 @@
       <c r="HQ68" t="n">
         <v>7</v>
       </c>
+      <c r="HR68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47407,9 @@
       <c r="HQ69" t="n">
         <v>3</v>
       </c>
+      <c r="HR69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48089,9 @@
       <c r="HQ70" t="n">
         <v>29</v>
       </c>
+      <c r="HR70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +48771,9 @@
       <c r="HQ71" t="n">
         <v>65.5</v>
       </c>
+      <c r="HR71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49453,9 @@
       <c r="HQ72" t="n">
         <v>21.79</v>
       </c>
+      <c r="HR72" t="n">
+        <v>32.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50135,9 @@
       <c r="HQ73" t="n">
         <v>14.28</v>
       </c>
+      <c r="HR73" t="n">
+        <v>21.52</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +50817,9 @@
       <c r="HQ74" t="n">
         <v>41</v>
       </c>
+      <c r="HR74" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51499,9 @@
       <c r="HQ75" t="n">
         <v>42</v>
       </c>
+      <c r="HR75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52181,9 @@
       <c r="HQ76" t="n">
         <v>32</v>
       </c>
+      <c r="HR76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +52863,9 @@
       <c r="HQ77" t="n">
         <v>64</v>
       </c>
+      <c r="HR77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +53545,9 @@
       <c r="HQ78" t="n">
         <v>2.21</v>
       </c>
+      <c r="HR78" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54227,9 @@
       <c r="HQ79" t="n">
         <v>3.37</v>
       </c>
+      <c r="HR79" t="n">
+        <v>4.43</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +54909,9 @@
       <c r="HQ80" t="n">
         <v>40.6</v>
       </c>
+      <c r="HR80" t="n">
+        <v>32.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +55591,9 @@
       <c r="HQ81" t="n">
         <v>29.7</v>
       </c>
+      <c r="HR81" t="n">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56273,9 @@
       <c r="HQ82" t="n">
         <v>188.6</v>
       </c>
+      <c r="HR82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +56955,9 @@
       <c r="HQ83" t="n">
         <v>87.3</v>
       </c>
+      <c r="HR83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +57637,9 @@
       <c r="HQ84" t="n">
         <v>26</v>
       </c>
+      <c r="HR84" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58319,9 @@
       <c r="HQ85" t="n">
         <v>106.6</v>
       </c>
+      <c r="HR85" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59001,9 @@
       <c r="HQ86" t="n">
         <v>5</v>
       </c>
+      <c r="HR86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +59683,9 @@
       <c r="HQ87" t="n">
         <v>6</v>
       </c>
+      <c r="HR87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60365,9 @@
       <c r="HQ88" t="n">
         <v>7</v>
       </c>
+      <c r="HR88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61047,9 @@
       <c r="HQ89" t="n">
         <v>5</v>
       </c>
+      <c r="HR89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +61729,9 @@
       <c r="HQ90" t="n">
         <v>135</v>
       </c>
+      <c r="HR90" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62411,9 @@
       <c r="HQ91" t="n">
         <v>279</v>
       </c>
+      <c r="HR91" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63093,9 @@
       <c r="HQ92" t="n">
         <v>327</v>
       </c>
+      <c r="HR92" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +63775,9 @@
       <c r="HQ93" t="n">
         <v>79</v>
       </c>
+      <c r="HR93" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +64457,9 @@
       <c r="HQ94" t="n">
         <v>42</v>
       </c>
+      <c r="HR94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65139,9 @@
       <c r="HQ95" t="n">
         <v>20</v>
       </c>
+      <c r="HR95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +65821,9 @@
       <c r="HQ96" t="n">
         <v>16</v>
       </c>
+      <c r="HR96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +66503,9 @@
       <c r="HQ97" t="n">
         <v>41</v>
       </c>
+      <c r="HR97" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67185,9 @@
       <c r="HQ98" t="n">
         <v>32</v>
       </c>
+      <c r="HR98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +67867,9 @@
       <c r="HQ99" t="n">
         <v>44</v>
       </c>
+      <c r="HR99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +68549,9 @@
       <c r="HQ100" t="n">
         <v>3</v>
       </c>
+      <c r="HR100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69231,9 @@
       <c r="HQ101" t="n">
         <v>13</v>
       </c>
+      <c r="HR101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,6 +69913,9 @@
       <c r="HQ102" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HR102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10423</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10437</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>11</v>
       </c>
+      <c r="HT3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>0</v>
       </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>113</v>
       </c>
+      <c r="HT6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>76</v>
       </c>
+      <c r="HT7" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>37</v>
       </c>
+      <c r="HT8" t="n">
+        <v>-27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>1</v>
       </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>10</v>
       </c>
+      <c r="HT10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>246</v>
       </c>
+      <c r="HT11" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>134</v>
       </c>
+      <c r="HT12" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>380</v>
       </c>
+      <c r="HT13" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.84</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>111</v>
       </c>
+      <c r="HT15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>62</v>
       </c>
+      <c r="HT16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>28</v>
       </c>
+      <c r="HT17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>14</v>
       </c>
+      <c r="HT18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>17</v>
       </c>
+      <c r="HT19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>17</v>
       </c>
+      <c r="HT20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>13</v>
       </c>
+      <c r="HT21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>7</v>
       </c>
+      <c r="HT22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>4</v>
       </c>
+      <c r="HT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>28</v>
       </c>
+      <c r="HT24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>60.7</v>
       </c>
+      <c r="HT25" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>22.35</v>
       </c>
+      <c r="HT26" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>13.57</v>
       </c>
+      <c r="HT27" t="n">
+        <v>16.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>41</v>
       </c>
+      <c r="HT28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>57</v>
       </c>
+      <c r="HT29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>35</v>
       </c>
+      <c r="HT30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>61</v>
       </c>
+      <c r="HT31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2.18</v>
       </c>
+      <c r="HT32" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>3.59</v>
       </c>
+      <c r="HT33" t="n">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>39.3</v>
       </c>
+      <c r="HT34" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>27.9</v>
       </c>
+      <c r="HT35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HT36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>84.8</v>
       </c>
+      <c r="HT37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>24.49</v>
       </c>
+      <c r="HT38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>70.2</v>
       </c>
+      <c r="HT39" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>11</v>
       </c>
+      <c r="HT40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>4</v>
       </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>6</v>
       </c>
+      <c r="HT42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>2</v>
       </c>
+      <c r="HT43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>140</v>
       </c>
+      <c r="HT44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>232</v>
       </c>
+      <c r="HT45" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>275</v>
       </c>
+      <c r="HT46" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HT47" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>57</v>
       </c>
+      <c r="HT48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>11</v>
       </c>
+      <c r="HT49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>17</v>
       </c>
+      <c r="HT50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>41</v>
       </c>
+      <c r="HT51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>35</v>
       </c>
+      <c r="HT52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>43</v>
       </c>
+      <c r="HT53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>19</v>
       </c>
+      <c r="HT54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>13</v>
       </c>
+      <c r="HT55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>76.5</v>
       </c>
+      <c r="HT56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>215</v>
       </c>
+      <c r="HT57" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>126</v>
       </c>
+      <c r="HT58" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>341</v>
       </c>
+      <c r="HT59" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.71</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>91</v>
       </c>
+      <c r="HT61" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>65</v>
       </c>
+      <c r="HT62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>57</v>
       </c>
+      <c r="HT63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>17</v>
       </c>
+      <c r="HT64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>14</v>
       </c>
+      <c r="HT65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>11</v>
       </c>
+      <c r="HT66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>10</v>
       </c>
+      <c r="HT67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>7</v>
       </c>
+      <c r="HT68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>3</v>
       </c>
+      <c r="HT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>21</v>
       </c>
+      <c r="HT70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>52.4</v>
       </c>
+      <c r="HT71" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>31</v>
       </c>
+      <c r="HT72" t="n">
+        <v>35.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>16.24</v>
       </c>
+      <c r="HT73" t="n">
+        <v>18.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>36</v>
       </c>
+      <c r="HT74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>51</v>
       </c>
+      <c r="HT75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>43</v>
       </c>
+      <c r="HT76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>47</v>
       </c>
+      <c r="HT77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>2.24</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>4.27</v>
       </c>
+      <c r="HT79" t="n">
+        <v>4.36</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>38.3</v>
       </c>
+      <c r="HT80" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>23.4</v>
       </c>
+      <c r="HT81" t="n">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HT82" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HT83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>25.49</v>
       </c>
+      <c r="HT84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>101.7</v>
       </c>
+      <c r="HT85" t="n">
+        <v>77.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>9</v>
       </c>
+      <c r="HT86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>4</v>
       </c>
+      <c r="HT87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>4</v>
       </c>
+      <c r="HT88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>5</v>
       </c>
+      <c r="HT89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>120</v>
       </c>
+      <c r="HT90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>213</v>
       </c>
+      <c r="HT91" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>254</v>
       </c>
+      <c r="HT92" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>74.5</v>
       </c>
+      <c r="HT93" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>51</v>
       </c>
+      <c r="HT94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>11</v>
       </c>
+      <c r="HT95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>12</v>
       </c>
+      <c r="HT96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>36</v>
       </c>
+      <c r="HT97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>43</v>
       </c>
+      <c r="HT98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>60</v>
       </c>
+      <c r="HT99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>5</v>
       </c>
+      <c r="HT100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>10</v>
       </c>
+      <c r="HT101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HT102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,9 @@
       <c r="HT1" t="n">
         <v>10437</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10439</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1731,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2422,9 @@
       <c r="HT3" t="n">
         <v>13</v>
       </c>
+      <c r="HU3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3113,9 @@
       <c r="HT4" t="n">
         <v>1</v>
       </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3804,9 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4495,9 @@
       <c r="HT6" t="n">
         <v>49</v>
       </c>
+      <c r="HU6" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5186,9 @@
       <c r="HT7" t="n">
         <v>76</v>
       </c>
+      <c r="HU7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5877,9 @@
       <c r="HT8" t="n">
         <v>-27</v>
       </c>
+      <c r="HU8" t="n">
+        <v>-50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6568,9 @@
       <c r="HT9" t="n">
         <v>0</v>
       </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7259,9 @@
       <c r="HT10" t="n">
         <v>6</v>
       </c>
+      <c r="HU10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7950,9 @@
       <c r="HT11" t="n">
         <v>194</v>
       </c>
+      <c r="HU11" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8641,9 @@
       <c r="HT12" t="n">
         <v>124</v>
       </c>
+      <c r="HU12" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9332,9 @@
       <c r="HT13" t="n">
         <v>318</v>
       </c>
+      <c r="HU13" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10023,9 @@
       <c r="HT14" t="n">
         <v>1.56</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10714,9 @@
       <c r="HT15" t="n">
         <v>89</v>
       </c>
+      <c r="HU15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11405,9 @@
       <c r="HT16" t="n">
         <v>61</v>
       </c>
+      <c r="HU16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12096,9 @@
       <c r="HT17" t="n">
         <v>23</v>
       </c>
+      <c r="HU17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12787,9 @@
       <c r="HT18" t="n">
         <v>23</v>
       </c>
+      <c r="HU18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13478,9 @@
       <c r="HT19" t="n">
         <v>25</v>
       </c>
+      <c r="HU19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14169,9 @@
       <c r="HT20" t="n">
         <v>6</v>
       </c>
+      <c r="HU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14860,9 @@
       <c r="HT21" t="n">
         <v>3</v>
       </c>
+      <c r="HU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15551,9 @@
       <c r="HT22" t="n">
         <v>12</v>
       </c>
+      <c r="HU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16242,9 @@
       <c r="HT23" t="n">
         <v>1</v>
       </c>
+      <c r="HU23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +16933,9 @@
       <c r="HT24" t="n">
         <v>19</v>
       </c>
+      <c r="HU24" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17624,9 @@
       <c r="HT25" t="n">
         <v>31.6</v>
       </c>
+      <c r="HU25" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18315,9 @@
       <c r="HT26" t="n">
         <v>53</v>
       </c>
+      <c r="HU26" t="n">
+        <v>88.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19006,9 @@
       <c r="HT27" t="n">
         <v>16.74</v>
       </c>
+      <c r="HU27" t="n">
+        <v>32.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19697,9 @@
       <c r="HT28" t="n">
         <v>30</v>
       </c>
+      <c r="HU28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20388,9 @@
       <c r="HT29" t="n">
         <v>58</v>
       </c>
+      <c r="HU29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21079,9 @@
       <c r="HT30" t="n">
         <v>36</v>
       </c>
+      <c r="HU30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21770,9 @@
       <c r="HT31" t="n">
         <v>46</v>
       </c>
+      <c r="HU31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22461,9 @@
       <c r="HT32" t="n">
         <v>2.42</v>
       </c>
+      <c r="HU32" t="n">
+        <v>4.73</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23152,9 @@
       <c r="HT33" t="n">
         <v>7.67</v>
       </c>
+      <c r="HU33" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23843,9 @@
       <c r="HT34" t="n">
         <v>39.1</v>
       </c>
+      <c r="HU34" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24534,9 @@
       <c r="HT35" t="n">
         <v>13</v>
       </c>
+      <c r="HU35" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25225,9 @@
       <c r="HT36" t="n">
         <v>187.3</v>
       </c>
+      <c r="HU36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25916,9 @@
       <c r="HT37" t="n">
         <v>84</v>
       </c>
+      <c r="HU37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26607,9 @@
       <c r="HT38" t="n">
         <v>24.8</v>
       </c>
+      <c r="HU38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27298,9 @@
       <c r="HT39" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="HU39" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +27989,9 @@
       <c r="HT40" t="n">
         <v>10</v>
       </c>
+      <c r="HU40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28680,9 @@
       <c r="HT41" t="n">
         <v>5</v>
       </c>
+      <c r="HU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29371,9 @@
       <c r="HT42" t="n">
         <v>5</v>
       </c>
+      <c r="HU42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30062,9 @@
       <c r="HT43" t="n">
         <v>2</v>
       </c>
+      <c r="HU43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30753,9 @@
       <c r="HT44" t="n">
         <v>114</v>
       </c>
+      <c r="HU44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31444,9 @@
       <c r="HT45" t="n">
         <v>193</v>
       </c>
+      <c r="HU45" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32135,9 @@
       <c r="HT46" t="n">
         <v>232</v>
       </c>
+      <c r="HU46" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32826,9 @@
       <c r="HT47" t="n">
         <v>73</v>
       </c>
+      <c r="HU47" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33517,9 @@
       <c r="HT48" t="n">
         <v>58</v>
       </c>
+      <c r="HU48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34208,9 @@
       <c r="HT49" t="n">
         <v>12</v>
       </c>
+      <c r="HU49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34899,9 @@
       <c r="HT50" t="n">
         <v>8</v>
       </c>
+      <c r="HU50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35590,9 @@
       <c r="HT51" t="n">
         <v>30</v>
       </c>
+      <c r="HU51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36281,9 @@
       <c r="HT52" t="n">
         <v>36</v>
       </c>
+      <c r="HU52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +36972,9 @@
       <c r="HT53" t="n">
         <v>47</v>
       </c>
+      <c r="HU53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37663,9 @@
       <c r="HT54" t="n">
         <v>9</v>
       </c>
+      <c r="HU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38354,9 @@
       <c r="HT55" t="n">
         <v>3</v>
       </c>
+      <c r="HU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39045,9 @@
       <c r="HT56" t="n">
         <v>50</v>
       </c>
+      <c r="HU56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39736,9 @@
       <c r="HT57" t="n">
         <v>246</v>
       </c>
+      <c r="HU57" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40427,9 @@
       <c r="HT58" t="n">
         <v>146</v>
       </c>
+      <c r="HU58" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41118,9 @@
       <c r="HT59" t="n">
         <v>392</v>
       </c>
+      <c r="HU59" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41809,9 @@
       <c r="HT60" t="n">
         <v>1.68</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42500,9 @@
       <c r="HT61" t="n">
         <v>134</v>
       </c>
+      <c r="HU61" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43191,9 @@
       <c r="HT62" t="n">
         <v>66</v>
       </c>
+      <c r="HU62" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43882,9 @@
       <c r="HT63" t="n">
         <v>41</v>
       </c>
+      <c r="HU63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44573,9 @@
       <c r="HT64" t="n">
         <v>25</v>
       </c>
+      <c r="HU64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45264,9 @@
       <c r="HT65" t="n">
         <v>23</v>
       </c>
+      <c r="HU65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +45955,9 @@
       <c r="HT66" t="n">
         <v>11</v>
       </c>
+      <c r="HU66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46646,9 @@
       <c r="HT67" t="n">
         <v>8</v>
       </c>
+      <c r="HU67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47337,9 @@
       <c r="HT68" t="n">
         <v>9</v>
       </c>
+      <c r="HU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48028,9 @@
       <c r="HT69" t="n">
         <v>1</v>
       </c>
+      <c r="HU69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48719,9 @@
       <c r="HT70" t="n">
         <v>21</v>
       </c>
+      <c r="HU70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49410,9 @@
       <c r="HT71" t="n">
         <v>52.4</v>
       </c>
+      <c r="HU71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50101,9 @@
       <c r="HT72" t="n">
         <v>35.64</v>
       </c>
+      <c r="HU72" t="n">
+        <v>37.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50792,9 @@
       <c r="HT73" t="n">
         <v>18.67</v>
       </c>
+      <c r="HU73" t="n">
+        <v>21.19</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51483,9 @@
       <c r="HT74" t="n">
         <v>34</v>
       </c>
+      <c r="HU74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52174,9 @@
       <c r="HT75" t="n">
         <v>54</v>
       </c>
+      <c r="HU75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52865,9 @@
       <c r="HT76" t="n">
         <v>38</v>
       </c>
+      <c r="HU76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53556,9 @@
       <c r="HT77" t="n">
         <v>48</v>
       </c>
+      <c r="HU77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54247,9 @@
       <c r="HT78" t="n">
         <v>2.29</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +54938,9 @@
       <c r="HT79" t="n">
         <v>4.36</v>
       </c>
+      <c r="HU79" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55629,9 @@
       <c r="HT80" t="n">
         <v>41.7</v>
       </c>
+      <c r="HU80" t="n">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56320,9 @@
       <c r="HT81" t="n">
         <v>22.9</v>
       </c>
+      <c r="HU81" t="n">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57011,9 @@
       <c r="HT82" t="n">
         <v>185.9</v>
       </c>
+      <c r="HU82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57702,9 @@
       <c r="HT83" t="n">
         <v>85.5</v>
       </c>
+      <c r="HU83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58393,9 @@
       <c r="HT84" t="n">
         <v>24.41</v>
       </c>
+      <c r="HU84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59084,9 @@
       <c r="HT85" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="HU85" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59775,9 @@
       <c r="HT86" t="n">
         <v>9</v>
       </c>
+      <c r="HU86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60466,9 @@
       <c r="HT87" t="n">
         <v>7</v>
       </c>
+      <c r="HU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61157,9 @@
       <c r="HT88" t="n">
         <v>4</v>
       </c>
+      <c r="HU88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61848,9 @@
       <c r="HT89" t="n">
         <v>2</v>
       </c>
+      <c r="HU89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62539,9 @@
       <c r="HT90" t="n">
         <v>129</v>
       </c>
+      <c r="HU90" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63230,9 @@
       <c r="HT91" t="n">
         <v>254</v>
       </c>
+      <c r="HU91" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63921,9 @@
       <c r="HT92" t="n">
         <v>302</v>
       </c>
+      <c r="HU92" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64612,9 @@
       <c r="HT93" t="n">
         <v>77</v>
       </c>
+      <c r="HU93" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65303,9 @@
       <c r="HT94" t="n">
         <v>54</v>
       </c>
+      <c r="HU94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +65994,9 @@
       <c r="HT95" t="n">
         <v>15</v>
       </c>
+      <c r="HU95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66685,9 @@
       <c r="HT96" t="n">
         <v>14</v>
       </c>
+      <c r="HU96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67376,9 @@
       <c r="HT97" t="n">
         <v>34</v>
       </c>
+      <c r="HU97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68067,9 @@
       <c r="HT98" t="n">
         <v>38</v>
       </c>
+      <c r="HU98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68758,9 @@
       <c r="HT99" t="n">
         <v>36</v>
       </c>
+      <c r="HU99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69449,9 @@
       <c r="HT100" t="n">
         <v>3</v>
       </c>
+      <c r="HU100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70140,9 @@
       <c r="HT101" t="n">
         <v>8</v>
       </c>
+      <c r="HU101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70831,9 @@
       <c r="HT102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HU102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,9 @@
       <c r="HU1" t="n">
         <v>10439</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10449</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1734,6 +1737,9 @@
       <c r="HU2" t="n">
         <v>2021</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2425,6 +2431,9 @@
       <c r="HU3" t="n">
         <v>14</v>
       </c>
+      <c r="HV3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3116,6 +3125,9 @@
       <c r="HU4" t="n">
         <v>0</v>
       </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3807,6 +3819,9 @@
       <c r="HU5" t="n">
         <v>1</v>
       </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4498,6 +4513,9 @@
       <c r="HU6" t="n">
         <v>31</v>
       </c>
+      <c r="HV6" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5189,6 +5207,9 @@
       <c r="HU7" t="n">
         <v>81</v>
       </c>
+      <c r="HV7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5880,6 +5901,9 @@
       <c r="HU8" t="n">
         <v>-50</v>
       </c>
+      <c r="HV8" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6571,6 +6595,9 @@
       <c r="HU9" t="n">
         <v>0</v>
       </c>
+      <c r="HV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7262,6 +7289,9 @@
       <c r="HU10" t="n">
         <v>13</v>
       </c>
+      <c r="HV10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7953,6 +7983,9 @@
       <c r="HU11" t="n">
         <v>203</v>
       </c>
+      <c r="HV11" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8644,6 +8677,9 @@
       <c r="HU12" t="n">
         <v>150</v>
       </c>
+      <c r="HV12" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9335,6 +9371,9 @@
       <c r="HU13" t="n">
         <v>353</v>
       </c>
+      <c r="HV13" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10026,6 +10065,9 @@
       <c r="HU14" t="n">
         <v>1.35</v>
       </c>
+      <c r="HV14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10717,6 +10759,9 @@
       <c r="HU15" t="n">
         <v>89</v>
       </c>
+      <c r="HV15" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11408,6 +11453,9 @@
       <c r="HU16" t="n">
         <v>66</v>
       </c>
+      <c r="HV16" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12099,6 +12147,9 @@
       <c r="HU17" t="n">
         <v>28</v>
       </c>
+      <c r="HV17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12790,6 +12841,9 @@
       <c r="HU18" t="n">
         <v>22</v>
       </c>
+      <c r="HV18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13481,6 +13535,9 @@
       <c r="HU19" t="n">
         <v>21</v>
       </c>
+      <c r="HV19" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14172,6 +14229,9 @@
       <c r="HU20" t="n">
         <v>4</v>
       </c>
+      <c r="HV20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14863,6 +14923,9 @@
       <c r="HU21" t="n">
         <v>3</v>
       </c>
+      <c r="HV21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15554,6 +15617,9 @@
       <c r="HU22" t="n">
         <v>4</v>
       </c>
+      <c r="HV22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16245,6 +16311,9 @@
       <c r="HU23" t="n">
         <v>3</v>
       </c>
+      <c r="HV23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16936,6 +17005,9 @@
       <c r="HU24" t="n">
         <v>11</v>
       </c>
+      <c r="HV24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17627,6 +17699,9 @@
       <c r="HU25" t="n">
         <v>36.4</v>
       </c>
+      <c r="HV25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18318,6 +18393,9 @@
       <c r="HU26" t="n">
         <v>88.25</v>
       </c>
+      <c r="HV26" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19009,6 +19087,9 @@
       <c r="HU27" t="n">
         <v>32.09</v>
       </c>
+      <c r="HV27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19700,6 +19781,9 @@
       <c r="HU28" t="n">
         <v>40</v>
       </c>
+      <c r="HV28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20391,6 +20475,9 @@
       <c r="HU29" t="n">
         <v>65</v>
       </c>
+      <c r="HV29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21082,6 +21169,9 @@
       <c r="HU30" t="n">
         <v>45</v>
       </c>
+      <c r="HV30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21773,6 +21863,9 @@
       <c r="HU31" t="n">
         <v>52</v>
       </c>
+      <c r="HV31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22464,6 +22557,9 @@
       <c r="HU32" t="n">
         <v>4.73</v>
       </c>
+      <c r="HV32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23155,6 +23251,9 @@
       <c r="HU33" t="n">
         <v>13</v>
       </c>
+      <c r="HV33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23846,6 +23945,9 @@
       <c r="HU34" t="n">
         <v>15.4</v>
       </c>
+      <c r="HV34" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24537,6 +24639,9 @@
       <c r="HU35" t="n">
         <v>7.7</v>
       </c>
+      <c r="HV35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25228,6 +25333,9 @@
       <c r="HU36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HV36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25919,6 +26027,9 @@
       <c r="HU37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HV37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26610,6 +26721,9 @@
       <c r="HU38" t="n">
         <v>24.41</v>
       </c>
+      <c r="HV38" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27301,6 +27415,9 @@
       <c r="HU39" t="n">
         <v>76.3</v>
       </c>
+      <c r="HV39" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27992,6 +28109,9 @@
       <c r="HU40" t="n">
         <v>9</v>
       </c>
+      <c r="HV40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28683,6 +28803,9 @@
       <c r="HU41" t="n">
         <v>6</v>
       </c>
+      <c r="HV41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29374,6 +29497,9 @@
       <c r="HU42" t="n">
         <v>6</v>
       </c>
+      <c r="HV42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30065,6 +30191,9 @@
       <c r="HU43" t="n">
         <v>2</v>
       </c>
+      <c r="HV43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30756,6 +30885,9 @@
       <c r="HU44" t="n">
         <v>140</v>
       </c>
+      <c r="HV44" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31447,6 +31579,9 @@
       <c r="HU45" t="n">
         <v>213</v>
       </c>
+      <c r="HV45" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32138,6 +32273,9 @@
       <c r="HU46" t="n">
         <v>246</v>
       </c>
+      <c r="HV46" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32829,6 +32967,9 @@
       <c r="HU47" t="n">
         <v>69.7</v>
       </c>
+      <c r="HV47" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33520,6 +33661,9 @@
       <c r="HU48" t="n">
         <v>65</v>
       </c>
+      <c r="HV48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34211,6 +34355,9 @@
       <c r="HU49" t="n">
         <v>12</v>
       </c>
+      <c r="HV49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34902,6 +35049,9 @@
       <c r="HU50" t="n">
         <v>5</v>
       </c>
+      <c r="HV50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35593,6 +35743,9 @@
       <c r="HU51" t="n">
         <v>40</v>
       </c>
+      <c r="HV51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36284,6 +36437,9 @@
       <c r="HU52" t="n">
         <v>45</v>
       </c>
+      <c r="HV52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36975,6 +37131,9 @@
       <c r="HU53" t="n">
         <v>64</v>
       </c>
+      <c r="HV53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37666,6 +37825,9 @@
       <c r="HU54" t="n">
         <v>8</v>
       </c>
+      <c r="HV54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38357,6 +38519,9 @@
       <c r="HU55" t="n">
         <v>3</v>
       </c>
+      <c r="HV55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39048,6 +39213,9 @@
       <c r="HU56" t="n">
         <v>75</v>
       </c>
+      <c r="HV56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39739,6 +39907,9 @@
       <c r="HU57" t="n">
         <v>247</v>
       </c>
+      <c r="HV57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40430,6 +40601,9 @@
       <c r="HU58" t="n">
         <v>198</v>
       </c>
+      <c r="HV58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41121,6 +41295,9 @@
       <c r="HU59" t="n">
         <v>445</v>
       </c>
+      <c r="HV59" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41812,6 +41989,9 @@
       <c r="HU60" t="n">
         <v>1.25</v>
       </c>
+      <c r="HV60" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42503,6 +42683,9 @@
       <c r="HU61" t="n">
         <v>112</v>
       </c>
+      <c r="HV61" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43194,6 +43377,9 @@
       <c r="HU62" t="n">
         <v>70</v>
       </c>
+      <c r="HV62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43885,6 +44071,9 @@
       <c r="HU63" t="n">
         <v>39</v>
       </c>
+      <c r="HV63" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44576,6 +44765,9 @@
       <c r="HU64" t="n">
         <v>21</v>
       </c>
+      <c r="HV64" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45267,6 +45459,9 @@
       <c r="HU65" t="n">
         <v>22</v>
       </c>
+      <c r="HV65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45958,6 +46153,9 @@
       <c r="HU66" t="n">
         <v>12</v>
       </c>
+      <c r="HV66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46649,6 +46847,9 @@
       <c r="HU67" t="n">
         <v>10</v>
       </c>
+      <c r="HV67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47340,6 +47541,9 @@
       <c r="HU68" t="n">
         <v>8</v>
       </c>
+      <c r="HV68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48031,6 +48235,9 @@
       <c r="HU69" t="n">
         <v>1</v>
       </c>
+      <c r="HV69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48722,6 +48929,9 @@
       <c r="HU70" t="n">
         <v>21</v>
       </c>
+      <c r="HV70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49413,6 +49623,9 @@
       <c r="HU71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HV71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50104,6 +50317,9 @@
       <c r="HU72" t="n">
         <v>37.08</v>
       </c>
+      <c r="HV72" t="n">
+        <v>41.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50795,6 +51011,9 @@
       <c r="HU73" t="n">
         <v>21.19</v>
       </c>
+      <c r="HV73" t="n">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51486,6 +51705,9 @@
       <c r="HU74" t="n">
         <v>39</v>
       </c>
+      <c r="HV74" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52177,6 +52399,9 @@
       <c r="HU75" t="n">
         <v>70</v>
       </c>
+      <c r="HV75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52868,6 +53093,9 @@
       <c r="HU76" t="n">
         <v>45</v>
       </c>
+      <c r="HV76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53559,6 +53787,9 @@
       <c r="HU77" t="n">
         <v>57</v>
       </c>
+      <c r="HV77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54250,6 +54481,9 @@
       <c r="HU78" t="n">
         <v>2.71</v>
       </c>
+      <c r="HV78" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54941,6 +55175,9 @@
       <c r="HU79" t="n">
         <v>4.75</v>
       </c>
+      <c r="HV79" t="n">
+        <v>6.78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55632,6 +55869,9 @@
       <c r="HU80" t="n">
         <v>35.1</v>
       </c>
+      <c r="HV80" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56323,6 +56563,9 @@
       <c r="HU81" t="n">
         <v>21.1</v>
       </c>
+      <c r="HV81" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57014,6 +57257,9 @@
       <c r="HU82" t="n">
         <v>188.7</v>
       </c>
+      <c r="HV82" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57705,6 +57951,9 @@
       <c r="HU83" t="n">
         <v>84.8</v>
       </c>
+      <c r="HV83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58396,6 +58645,9 @@
       <c r="HU84" t="n">
         <v>26</v>
       </c>
+      <c r="HV84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59087,6 +59339,9 @@
       <c r="HU85" t="n">
         <v>104.9</v>
       </c>
+      <c r="HV85" t="n">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59778,6 +60033,9 @@
       <c r="HU86" t="n">
         <v>8</v>
       </c>
+      <c r="HV86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60469,6 +60727,9 @@
       <c r="HU87" t="n">
         <v>5</v>
       </c>
+      <c r="HV87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61160,6 +61421,9 @@
       <c r="HU88" t="n">
         <v>3</v>
       </c>
+      <c r="HV88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61851,6 +62115,9 @@
       <c r="HU89" t="n">
         <v>7</v>
       </c>
+      <c r="HV89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62542,6 +62809,9 @@
       <c r="HU90" t="n">
         <v>158</v>
       </c>
+      <c r="HV90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63233,6 +63503,9 @@
       <c r="HU91" t="n">
         <v>290</v>
       </c>
+      <c r="HV91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63924,6 +64197,9 @@
       <c r="HU92" t="n">
         <v>336</v>
       </c>
+      <c r="HV92" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64615,6 +64891,9 @@
       <c r="HU93" t="n">
         <v>75.5</v>
       </c>
+      <c r="HV93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65306,6 +65585,9 @@
       <c r="HU94" t="n">
         <v>70</v>
       </c>
+      <c r="HV94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65997,6 +66279,9 @@
       <c r="HU95" t="n">
         <v>16</v>
       </c>
+      <c r="HV95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66688,6 +66973,9 @@
       <c r="HU96" t="n">
         <v>13</v>
       </c>
+      <c r="HV96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67379,6 +67667,9 @@
       <c r="HU97" t="n">
         <v>39</v>
       </c>
+      <c r="HV97" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68070,6 +68361,9 @@
       <c r="HU98" t="n">
         <v>45</v>
       </c>
+      <c r="HV98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68761,6 +69055,9 @@
       <c r="HU99" t="n">
         <v>56</v>
       </c>
+      <c r="HV99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69452,6 +69749,9 @@
       <c r="HU100" t="n">
         <v>8</v>
       </c>
+      <c r="HV100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70143,6 +70443,9 @@
       <c r="HU101" t="n">
         <v>10</v>
       </c>
+      <c r="HV101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70834,8 +71137,11 @@
       <c r="HU102" t="n">
         <v>83.3</v>
       </c>
+      <c r="HV102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1046,9 @@
       <c r="HV1" t="n">
         <v>10449</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10455</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1740,6 +1743,9 @@
       <c r="HV2" t="n">
         <v>2021</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2440,9 @@
       <c r="HV3" t="n">
         <v>15</v>
       </c>
+      <c r="HW3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3128,6 +3137,9 @@
       <c r="HV4" t="n">
         <v>1</v>
       </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3822,6 +3834,9 @@
       <c r="HV5" t="n">
         <v>0</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4516,6 +4531,9 @@
       <c r="HV6" t="n">
         <v>63</v>
       </c>
+      <c r="HW6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5210,6 +5228,9 @@
       <c r="HV7" t="n">
         <v>72</v>
       </c>
+      <c r="HW7" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5904,6 +5925,9 @@
       <c r="HV8" t="n">
         <v>-9</v>
       </c>
+      <c r="HW8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6598,6 +6622,9 @@
       <c r="HV9" t="n">
         <v>0</v>
       </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7292,6 +7319,9 @@
       <c r="HV10" t="n">
         <v>12</v>
       </c>
+      <c r="HW10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7986,6 +8016,9 @@
       <c r="HV11" t="n">
         <v>197</v>
       </c>
+      <c r="HW11" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8680,6 +8713,9 @@
       <c r="HV12" t="n">
         <v>127</v>
       </c>
+      <c r="HW12" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9374,6 +9410,9 @@
       <c r="HV13" t="n">
         <v>324</v>
       </c>
+      <c r="HW13" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10068,6 +10107,9 @@
       <c r="HV14" t="n">
         <v>1.55</v>
       </c>
+      <c r="HW14" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10762,6 +10804,9 @@
       <c r="HV15" t="n">
         <v>83</v>
       </c>
+      <c r="HW15" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11456,6 +11501,9 @@
       <c r="HV16" t="n">
         <v>65</v>
       </c>
+      <c r="HW16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12150,6 +12198,9 @@
       <c r="HV17" t="n">
         <v>17</v>
       </c>
+      <c r="HW17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12844,6 +12895,9 @@
       <c r="HV18" t="n">
         <v>19</v>
       </c>
+      <c r="HW18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13538,6 +13592,9 @@
       <c r="HV19" t="n">
         <v>27</v>
       </c>
+      <c r="HW19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14232,6 +14289,9 @@
       <c r="HV20" t="n">
         <v>9</v>
       </c>
+      <c r="HW20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14926,6 +14986,9 @@
       <c r="HV21" t="n">
         <v>5</v>
       </c>
+      <c r="HW21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15620,6 +15683,9 @@
       <c r="HV22" t="n">
         <v>4</v>
       </c>
+      <c r="HW22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16314,6 +16380,9 @@
       <c r="HV23" t="n">
         <v>5</v>
       </c>
+      <c r="HW23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17008,6 +17077,9 @@
       <c r="HV24" t="n">
         <v>18</v>
       </c>
+      <c r="HW24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17702,6 +17774,9 @@
       <c r="HV25" t="n">
         <v>50</v>
       </c>
+      <c r="HW25" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18396,6 +18471,9 @@
       <c r="HV26" t="n">
         <v>36</v>
       </c>
+      <c r="HW26" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19090,6 +19168,9 @@
       <c r="HV27" t="n">
         <v>18</v>
       </c>
+      <c r="HW27" t="n">
+        <v>13.37</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19784,6 +19865,9 @@
       <c r="HV28" t="n">
         <v>27</v>
       </c>
+      <c r="HW28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20478,6 +20562,9 @@
       <c r="HV29" t="n">
         <v>56</v>
       </c>
+      <c r="HW29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21172,6 +21259,9 @@
       <c r="HV30" t="n">
         <v>48</v>
       </c>
+      <c r="HW30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21866,6 +21956,9 @@
       <c r="HV31" t="n">
         <v>45</v>
       </c>
+      <c r="HW31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22560,6 +22653,9 @@
       <c r="HV32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HW32" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23254,6 +23350,9 @@
       <c r="HV33" t="n">
         <v>5</v>
       </c>
+      <c r="HW33" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23948,6 +24047,9 @@
       <c r="HV34" t="n">
         <v>28.9</v>
       </c>
+      <c r="HW34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24642,6 +24744,9 @@
       <c r="HV35" t="n">
         <v>20</v>
       </c>
+      <c r="HW35" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25336,6 +25441,9 @@
       <c r="HV36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HW36" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26030,6 +26138,9 @@
       <c r="HV37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HW37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26724,6 +26835,9 @@
       <c r="HV38" t="n">
         <v>24</v>
       </c>
+      <c r="HW38" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27418,6 +27532,9 @@
       <c r="HV39" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="HW39" t="n">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28112,6 +28229,9 @@
       <c r="HV40" t="n">
         <v>10</v>
       </c>
+      <c r="HW40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28806,6 +28926,9 @@
       <c r="HV41" t="n">
         <v>6</v>
       </c>
+      <c r="HW41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29500,6 +29623,9 @@
       <c r="HV42" t="n">
         <v>5</v>
       </c>
+      <c r="HW42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30194,6 +30320,9 @@
       <c r="HV43" t="n">
         <v>1</v>
       </c>
+      <c r="HW43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30888,6 +31017,9 @@
       <c r="HV44" t="n">
         <v>126</v>
       </c>
+      <c r="HW44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31582,6 +31714,9 @@
       <c r="HV45" t="n">
         <v>198</v>
       </c>
+      <c r="HW45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32276,6 +32411,9 @@
       <c r="HV46" t="n">
         <v>242</v>
       </c>
+      <c r="HW46" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32970,6 +33108,9 @@
       <c r="HV47" t="n">
         <v>74.7</v>
       </c>
+      <c r="HW47" t="n">
+        <v>70.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33664,6 +33805,9 @@
       <c r="HV48" t="n">
         <v>56</v>
       </c>
+      <c r="HW48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34358,6 +34502,9 @@
       <c r="HV49" t="n">
         <v>7</v>
       </c>
+      <c r="HW49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35052,6 +35199,9 @@
       <c r="HV50" t="n">
         <v>8</v>
       </c>
+      <c r="HW50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35746,6 +35896,9 @@
       <c r="HV51" t="n">
         <v>27</v>
       </c>
+      <c r="HW51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36440,6 +36593,9 @@
       <c r="HV52" t="n">
         <v>48</v>
       </c>
+      <c r="HW52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37134,6 +37290,9 @@
       <c r="HV53" t="n">
         <v>49</v>
       </c>
+      <c r="HW53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37828,6 +37987,9 @@
       <c r="HV54" t="n">
         <v>4</v>
       </c>
+      <c r="HW54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38522,6 +38684,9 @@
       <c r="HV55" t="n">
         <v>5</v>
       </c>
+      <c r="HW55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39216,6 +39381,9 @@
       <c r="HV56" t="n">
         <v>55.6</v>
       </c>
+      <c r="HW56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39910,6 +40078,9 @@
       <c r="HV57" t="n">
         <v>223</v>
       </c>
+      <c r="HW57" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40604,6 +40775,9 @@
       <c r="HV58" t="n">
         <v>147</v>
       </c>
+      <c r="HW58" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41298,6 +41472,9 @@
       <c r="HV59" t="n">
         <v>370</v>
       </c>
+      <c r="HW59" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41992,6 +42169,9 @@
       <c r="HV60" t="n">
         <v>1.52</v>
       </c>
+      <c r="HW60" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42686,6 +42866,9 @@
       <c r="HV61" t="n">
         <v>92</v>
       </c>
+      <c r="HW61" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43380,6 +43563,9 @@
       <c r="HV62" t="n">
         <v>54</v>
       </c>
+      <c r="HW62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44074,6 +44260,9 @@
       <c r="HV63" t="n">
         <v>51</v>
       </c>
+      <c r="HW63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44768,6 +44957,9 @@
       <c r="HV64" t="n">
         <v>27</v>
       </c>
+      <c r="HW64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45462,6 +45654,9 @@
       <c r="HV65" t="n">
         <v>19</v>
       </c>
+      <c r="HW65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46156,6 +46351,9 @@
       <c r="HV66" t="n">
         <v>9</v>
       </c>
+      <c r="HW66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46850,6 +47048,9 @@
       <c r="HV67" t="n">
         <v>9</v>
       </c>
+      <c r="HW67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47544,6 +47745,9 @@
       <c r="HV68" t="n">
         <v>13</v>
       </c>
+      <c r="HW68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48238,6 +48442,9 @@
       <c r="HV69" t="n">
         <v>5</v>
       </c>
+      <c r="HW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48932,6 +49139,9 @@
       <c r="HV70" t="n">
         <v>27</v>
       </c>
+      <c r="HW70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49626,6 +49836,9 @@
       <c r="HV71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HW71" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50320,6 +50533,9 @@
       <c r="HV72" t="n">
         <v>41.11</v>
       </c>
+      <c r="HW72" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51014,6 +51230,9 @@
       <c r="HV73" t="n">
         <v>13.7</v>
       </c>
+      <c r="HW73" t="n">
+        <v>18.82</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51708,6 +51927,9 @@
       <c r="HV74" t="n">
         <v>46</v>
       </c>
+      <c r="HW74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52402,6 +52624,9 @@
       <c r="HV75" t="n">
         <v>54</v>
       </c>
+      <c r="HW75" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53096,6 +53321,9 @@
       <c r="HV76" t="n">
         <v>36</v>
       </c>
+      <c r="HW76" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53790,6 +54018,9 @@
       <c r="HV77" t="n">
         <v>61</v>
       </c>
+      <c r="HW77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54484,6 +54715,9 @@
       <c r="HV78" t="n">
         <v>2.26</v>
       </c>
+      <c r="HW78" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55178,6 +55412,9 @@
       <c r="HV79" t="n">
         <v>6.78</v>
       </c>
+      <c r="HW79" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55872,6 +56109,9 @@
       <c r="HV80" t="n">
         <v>36.1</v>
       </c>
+      <c r="HW80" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56566,6 +56806,9 @@
       <c r="HV81" t="n">
         <v>14.8</v>
       </c>
+      <c r="HW81" t="n">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57260,6 +57503,9 @@
       <c r="HV82" t="n">
         <v>189.3</v>
       </c>
+      <c r="HW82" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57954,6 +58200,9 @@
       <c r="HV83" t="n">
         <v>86</v>
       </c>
+      <c r="HW83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58648,6 +58897,9 @@
       <c r="HV84" t="n">
         <v>25.16</v>
       </c>
+      <c r="HW84" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59342,6 +59594,9 @@
       <c r="HV85" t="n">
         <v>97.09999999999999</v>
       </c>
+      <c r="HW85" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60036,6 +60291,9 @@
       <c r="HV86" t="n">
         <v>9</v>
       </c>
+      <c r="HW86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60730,6 +60988,9 @@
       <c r="HV87" t="n">
         <v>4</v>
       </c>
+      <c r="HW87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61424,6 +61685,9 @@
       <c r="HV88" t="n">
         <v>4</v>
       </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62118,6 +62382,9 @@
       <c r="HV89" t="n">
         <v>5</v>
       </c>
+      <c r="HW89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62812,6 +63079,9 @@
       <c r="HV90" t="n">
         <v>144</v>
       </c>
+      <c r="HW90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63506,6 +63776,9 @@
       <c r="HV91" t="n">
         <v>216</v>
       </c>
+      <c r="HW91" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64200,6 +64473,9 @@
       <c r="HV92" t="n">
         <v>256</v>
       </c>
+      <c r="HW92" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64894,6 +65170,9 @@
       <c r="HV93" t="n">
         <v>69.2</v>
       </c>
+      <c r="HW93" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65588,6 +65867,9 @@
       <c r="HV94" t="n">
         <v>54</v>
       </c>
+      <c r="HW94" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66282,6 +66564,9 @@
       <c r="HV95" t="n">
         <v>10</v>
       </c>
+      <c r="HW95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66976,6 +67261,9 @@
       <c r="HV96" t="n">
         <v>13</v>
       </c>
+      <c r="HW96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67670,6 +67958,9 @@
       <c r="HV97" t="n">
         <v>46</v>
       </c>
+      <c r="HW97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68364,6 +68655,9 @@
       <c r="HV98" t="n">
         <v>36</v>
       </c>
+      <c r="HW98" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69058,6 +69352,9 @@
       <c r="HV99" t="n">
         <v>54</v>
       </c>
+      <c r="HW99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69752,6 +70049,9 @@
       <c r="HV100" t="n">
         <v>2</v>
       </c>
+      <c r="HW100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70446,6 +70746,9 @@
       <c r="HV101" t="n">
         <v>9</v>
       </c>
+      <c r="HW101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71140,8 +71443,11 @@
       <c r="HV102" t="n">
         <v>100</v>
       </c>
+      <c r="HW102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10455</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10465</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1746,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2443,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>16</v>
       </c>
+      <c r="HX3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3837,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4534,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>77</v>
       </c>
+      <c r="HX6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5231,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>67</v>
       </c>
+      <c r="HX7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5928,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>10</v>
       </c>
+      <c r="HX8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6625,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7322,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>14</v>
       </c>
+      <c r="HX10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8019,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>252</v>
       </c>
+      <c r="HX11" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8716,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>109</v>
       </c>
+      <c r="HX12" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9413,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>361</v>
       </c>
+      <c r="HX13" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10110,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>2.31</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10807,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>120</v>
       </c>
+      <c r="HX15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11504,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>66</v>
       </c>
+      <c r="HX16" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12201,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>29</v>
       </c>
+      <c r="HX17" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12898,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>29</v>
       </c>
+      <c r="HX18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13595,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>22</v>
       </c>
+      <c r="HX19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14292,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>10</v>
       </c>
+      <c r="HX20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14989,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>7</v>
       </c>
+      <c r="HX21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15686,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>14</v>
       </c>
+      <c r="HX22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16383,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>3</v>
       </c>
+      <c r="HX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17080,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>27</v>
       </c>
+      <c r="HX24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17777,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>37</v>
       </c>
+      <c r="HX25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18474,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>36.1</v>
       </c>
+      <c r="HX26" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19171,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>13.37</v>
       </c>
+      <c r="HX27" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19868,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>36</v>
       </c>
+      <c r="HX28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20565,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>50</v>
       </c>
+      <c r="HX29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21262,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>30</v>
       </c>
+      <c r="HX30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21959,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>64</v>
       </c>
+      <c r="HX31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22656,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>2.37</v>
       </c>
+      <c r="HX32" t="n">
+        <v>3.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23353,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>6.4</v>
       </c>
+      <c r="HX33" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24050,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>37.5</v>
       </c>
+      <c r="HX34" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24747,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>15.6</v>
       </c>
+      <c r="HX35" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25444,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>186.6</v>
       </c>
+      <c r="HX36" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26141,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>84</v>
       </c>
+      <c r="HX37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26838,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>24.16</v>
       </c>
+      <c r="HX38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27535,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>70.8</v>
       </c>
+      <c r="HX39" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28232,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>8</v>
       </c>
+      <c r="HX40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28929,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>9</v>
       </c>
+      <c r="HX41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29626,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>4</v>
       </c>
+      <c r="HX42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30323,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>2</v>
       </c>
+      <c r="HX43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31020,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>146</v>
       </c>
+      <c r="HX44" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31717,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>211</v>
       </c>
+      <c r="HX45" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32414,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>256</v>
       </c>
+      <c r="HX46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33111,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>70.90000000000001</v>
       </c>
+      <c r="HX47" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33808,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>50</v>
       </c>
+      <c r="HX48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34505,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>18</v>
       </c>
+      <c r="HX49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35202,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>14</v>
       </c>
+      <c r="HX50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35899,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>36</v>
       </c>
+      <c r="HX51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36596,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>30</v>
       </c>
+      <c r="HX52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37293,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>42</v>
       </c>
+      <c r="HX53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37990,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>5</v>
       </c>
+      <c r="HX54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38687,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>7</v>
       </c>
+      <c r="HX55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39384,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>70</v>
       </c>
+      <c r="HX56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40081,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>187</v>
       </c>
+      <c r="HX57" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40778,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>133</v>
       </c>
+      <c r="HX58" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41475,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>320</v>
       </c>
+      <c r="HX59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42172,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>1.41</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42869,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>57</v>
       </c>
+      <c r="HX61" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43566,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>48</v>
       </c>
+      <c r="HX62" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44263,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>37</v>
       </c>
+      <c r="HX63" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44960,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>22</v>
       </c>
+      <c r="HX64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45657,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>29</v>
       </c>
+      <c r="HX65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46354,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>10</v>
       </c>
+      <c r="HX66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47051,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>8</v>
       </c>
+      <c r="HX67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47748,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>6</v>
       </c>
+      <c r="HX68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48445,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>1</v>
       </c>
+      <c r="HX69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49142,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>17</v>
       </c>
+      <c r="HX70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49839,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>58.8</v>
       </c>
+      <c r="HX71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50536,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>32</v>
       </c>
+      <c r="HX72" t="n">
+        <v>41.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51233,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>18.82</v>
       </c>
+      <c r="HX73" t="n">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51930,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>30</v>
       </c>
+      <c r="HX74" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52627,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>75</v>
       </c>
+      <c r="HX75" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53324,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>54</v>
       </c>
+      <c r="HX76" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54021,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>42</v>
       </c>
+      <c r="HX77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54718,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>2.47</v>
       </c>
+      <c r="HX78" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55415,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>4.2</v>
       </c>
+      <c r="HX79" t="n">
+        <v>5.89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56112,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>38.1</v>
       </c>
+      <c r="HX80" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56809,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>23.8</v>
       </c>
+      <c r="HX81" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57506,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>186.1</v>
       </c>
+      <c r="HX82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58203,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>85.2</v>
       </c>
+      <c r="HX83" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58900,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>26.49</v>
       </c>
+      <c r="HX84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59597,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>116.5</v>
       </c>
+      <c r="HX85" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60294,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>8</v>
       </c>
+      <c r="HX86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60991,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>3</v>
       </c>
+      <c r="HX87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61688,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>4</v>
       </c>
+      <c r="HX88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62385,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>8</v>
       </c>
+      <c r="HX89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63082,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>130</v>
       </c>
+      <c r="HX90" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63779,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>176</v>
       </c>
+      <c r="HX91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64476,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>229</v>
       </c>
+      <c r="HX92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65173,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="HX93" t="n">
+        <v>63.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65870,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>75</v>
       </c>
+      <c r="HX94" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66567,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>13</v>
       </c>
+      <c r="HX95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67264,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>10</v>
       </c>
+      <c r="HX96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67961,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>30</v>
       </c>
+      <c r="HX97" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68658,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>54</v>
       </c>
+      <c r="HX98" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69355,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>51</v>
       </c>
+      <c r="HX99" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70052,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>8</v>
       </c>
+      <c r="HX100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70749,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>8</v>
       </c>
+      <c r="HX101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71446,6 +71749,9 @@
       <c r="HW102" t="n">
         <v>80</v>
       </c>
+      <c r="HX102" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,9 @@
       <c r="HX1" t="n">
         <v>10465</v>
       </c>
+      <c r="HY1" t="n">
+        <v>10472</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1752,6 +1755,9 @@
       <c r="HX2" t="n">
         <v>2021</v>
       </c>
+      <c r="HY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2452,6 +2458,9 @@
       <c r="HX3" t="n">
         <v>17</v>
       </c>
+      <c r="HY3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3152,6 +3161,9 @@
       <c r="HX4" t="n">
         <v>1</v>
       </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3852,6 +3864,9 @@
       <c r="HX5" t="n">
         <v>1</v>
       </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4552,6 +4567,9 @@
       <c r="HX6" t="n">
         <v>65</v>
       </c>
+      <c r="HY6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5252,6 +5270,9 @@
       <c r="HX7" t="n">
         <v>64</v>
       </c>
+      <c r="HY7" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5952,6 +5973,9 @@
       <c r="HX8" t="n">
         <v>1</v>
       </c>
+      <c r="HY8" t="n">
+        <v>-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6652,6 +6676,9 @@
       <c r="HX9" t="n">
         <v>1</v>
       </c>
+      <c r="HY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7352,6 +7379,9 @@
       <c r="HX10" t="n">
         <v>9</v>
       </c>
+      <c r="HY10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8052,6 +8082,9 @@
       <c r="HX11" t="n">
         <v>224</v>
       </c>
+      <c r="HY11" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8752,6 +8785,9 @@
       <c r="HX12" t="n">
         <v>145</v>
       </c>
+      <c r="HY12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9452,6 +9488,9 @@
       <c r="HX13" t="n">
         <v>369</v>
       </c>
+      <c r="HY13" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10152,6 +10191,9 @@
       <c r="HX14" t="n">
         <v>1.54</v>
       </c>
+      <c r="HY14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10852,6 +10894,9 @@
       <c r="HX15" t="n">
         <v>86</v>
       </c>
+      <c r="HY15" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11552,6 +11597,9 @@
       <c r="HX16" t="n">
         <v>92</v>
       </c>
+      <c r="HY16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12252,6 +12300,9 @@
       <c r="HX17" t="n">
         <v>50</v>
       </c>
+      <c r="HY17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12952,6 +13003,9 @@
       <c r="HX18" t="n">
         <v>23</v>
       </c>
+      <c r="HY18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13652,6 +13706,9 @@
       <c r="HX19" t="n">
         <v>12</v>
       </c>
+      <c r="HY19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14352,6 +14409,9 @@
       <c r="HX20" t="n">
         <v>10</v>
       </c>
+      <c r="HY20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15052,6 +15112,9 @@
       <c r="HX21" t="n">
         <v>7</v>
       </c>
+      <c r="HY21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15752,6 +15815,9 @@
       <c r="HX22" t="n">
         <v>5</v>
       </c>
+      <c r="HY22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16452,6 +16518,9 @@
       <c r="HX23" t="n">
         <v>0</v>
       </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17152,6 +17221,9 @@
       <c r="HX24" t="n">
         <v>15</v>
       </c>
+      <c r="HY24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17852,6 +17924,9 @@
       <c r="HX25" t="n">
         <v>66.7</v>
       </c>
+      <c r="HY25" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18552,6 +18627,9 @@
       <c r="HX26" t="n">
         <v>36.9</v>
       </c>
+      <c r="HY26" t="n">
+        <v>34.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19252,6 +19330,9 @@
       <c r="HX27" t="n">
         <v>24.6</v>
       </c>
+      <c r="HY27" t="n">
+        <v>15.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19952,6 +20033,9 @@
       <c r="HX28" t="n">
         <v>38</v>
       </c>
+      <c r="HY28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20652,6 +20736,9 @@
       <c r="HX29" t="n">
         <v>63</v>
       </c>
+      <c r="HY29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21352,6 +21439,9 @@
       <c r="HX30" t="n">
         <v>42</v>
       </c>
+      <c r="HY30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22052,6 +22142,9 @@
       <c r="HX31" t="n">
         <v>59</v>
       </c>
+      <c r="HY31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22752,6 +22845,9 @@
       <c r="HX32" t="n">
         <v>3.93</v>
       </c>
+      <c r="HY32" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23452,6 +23548,9 @@
       <c r="HX33" t="n">
         <v>5.9</v>
       </c>
+      <c r="HY33" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24152,6 +24251,9 @@
       <c r="HX34" t="n">
         <v>25.4</v>
       </c>
+      <c r="HY34" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24852,6 +24954,9 @@
       <c r="HX35" t="n">
         <v>16.9</v>
       </c>
+      <c r="HY35" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25552,6 +25657,9 @@
       <c r="HX36" t="n">
         <v>187.1</v>
       </c>
+      <c r="HY36" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26252,6 +26360,9 @@
       <c r="HX37" t="n">
         <v>84.3</v>
       </c>
+      <c r="HY37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26952,6 +27063,9 @@
       <c r="HX38" t="n">
         <v>24.49</v>
       </c>
+      <c r="HY38" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27652,6 +27766,9 @@
       <c r="HX39" t="n">
         <v>76.3</v>
       </c>
+      <c r="HY39" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28352,6 +28469,9 @@
       <c r="HX40" t="n">
         <v>7</v>
       </c>
+      <c r="HY40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29052,6 +29172,9 @@
       <c r="HX41" t="n">
         <v>9</v>
       </c>
+      <c r="HY41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29752,6 +29875,9 @@
       <c r="HX42" t="n">
         <v>5</v>
       </c>
+      <c r="HY42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30452,6 +30578,9 @@
       <c r="HX43" t="n">
         <v>2</v>
       </c>
+      <c r="HY43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31152,6 +31281,9 @@
       <c r="HX44" t="n">
         <v>157</v>
       </c>
+      <c r="HY44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31852,6 +31984,9 @@
       <c r="HX45" t="n">
         <v>208</v>
       </c>
+      <c r="HY45" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32552,6 +32687,9 @@
       <c r="HX46" t="n">
         <v>251</v>
       </c>
+      <c r="HY46" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33252,6 +33390,9 @@
       <c r="HX47" t="n">
         <v>68</v>
       </c>
+      <c r="HY47" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33952,6 +34093,9 @@
       <c r="HX48" t="n">
         <v>63</v>
       </c>
+      <c r="HY48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34652,6 +34796,9 @@
       <c r="HX49" t="n">
         <v>12</v>
       </c>
+      <c r="HY49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35352,6 +35499,9 @@
       <c r="HX50" t="n">
         <v>5</v>
       </c>
+      <c r="HY50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36052,6 +36202,9 @@
       <c r="HX51" t="n">
         <v>38</v>
       </c>
+      <c r="HY51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36752,6 +36905,9 @@
       <c r="HX52" t="n">
         <v>42</v>
       </c>
+      <c r="HY52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37452,6 +37608,9 @@
       <c r="HX53" t="n">
         <v>56</v>
       </c>
+      <c r="HY53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38152,6 +38311,9 @@
       <c r="HX54" t="n">
         <v>10</v>
       </c>
+      <c r="HY54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38852,6 +39014,9 @@
       <c r="HX55" t="n">
         <v>7</v>
       </c>
+      <c r="HY55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39552,6 +39717,9 @@
       <c r="HX56" t="n">
         <v>70</v>
       </c>
+      <c r="HY56" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40252,6 +40420,9 @@
       <c r="HX57" t="n">
         <v>207</v>
       </c>
+      <c r="HY57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40952,6 +41123,9 @@
       <c r="HX58" t="n">
         <v>170</v>
       </c>
+      <c r="HY58" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41652,6 +41826,9 @@
       <c r="HX59" t="n">
         <v>377</v>
       </c>
+      <c r="HY59" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42352,6 +42529,9 @@
       <c r="HX60" t="n">
         <v>1.22</v>
       </c>
+      <c r="HY60" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43052,6 +43232,9 @@
       <c r="HX61" t="n">
         <v>52</v>
       </c>
+      <c r="HY61" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43752,6 +43935,9 @@
       <c r="HX62" t="n">
         <v>85</v>
       </c>
+      <c r="HY62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44452,6 +44638,9 @@
       <c r="HX63" t="n">
         <v>57</v>
       </c>
+      <c r="HY63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45152,6 +45341,9 @@
       <c r="HX64" t="n">
         <v>12</v>
       </c>
+      <c r="HY64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45852,6 +46044,9 @@
       <c r="HX65" t="n">
         <v>23</v>
       </c>
+      <c r="HY65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46552,6 +46747,9 @@
       <c r="HX66" t="n">
         <v>9</v>
       </c>
+      <c r="HY66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47252,6 +47450,9 @@
       <c r="HX67" t="n">
         <v>8</v>
       </c>
+      <c r="HY67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47952,6 +48153,9 @@
       <c r="HX68" t="n">
         <v>7</v>
       </c>
+      <c r="HY68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48652,6 +48856,9 @@
       <c r="HX69" t="n">
         <v>3</v>
       </c>
+      <c r="HY69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49352,6 +49559,9 @@
       <c r="HX70" t="n">
         <v>19</v>
       </c>
+      <c r="HY70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50052,6 +50262,9 @@
       <c r="HX71" t="n">
         <v>47.4</v>
       </c>
+      <c r="HY71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50752,6 +50965,9 @@
       <c r="HX72" t="n">
         <v>41.89</v>
       </c>
+      <c r="HY72" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51452,6 +51668,9 @@
       <c r="HX73" t="n">
         <v>19.84</v>
       </c>
+      <c r="HY73" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52152,6 +52371,9 @@
       <c r="HX74" t="n">
         <v>53</v>
       </c>
+      <c r="HY74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52852,6 +53074,9 @@
       <c r="HX75" t="n">
         <v>87</v>
       </c>
+      <c r="HY75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53552,6 +53777,9 @@
       <c r="HX76" t="n">
         <v>48</v>
       </c>
+      <c r="HY76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54252,6 +54480,9 @@
       <c r="HX77" t="n">
         <v>53</v>
       </c>
+      <c r="HY77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54952,6 +55183,9 @@
       <c r="HX78" t="n">
         <v>2.79</v>
       </c>
+      <c r="HY78" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55652,6 +55886,9 @@
       <c r="HX79" t="n">
         <v>5.89</v>
       </c>
+      <c r="HY79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56352,6 +56589,9 @@
       <c r="HX80" t="n">
         <v>30.2</v>
       </c>
+      <c r="HY80" t="n">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57052,6 +57292,9 @@
       <c r="HX81" t="n">
         <v>17</v>
       </c>
+      <c r="HY81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57752,6 +57995,9 @@
       <c r="HX82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HY82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58452,6 +58698,9 @@
       <c r="HX83" t="n">
         <v>86.2</v>
       </c>
+      <c r="HY83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59152,6 +59401,9 @@
       <c r="HX84" t="n">
         <v>25.91</v>
       </c>
+      <c r="HY84" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59852,6 +60104,9 @@
       <c r="HX85" t="n">
         <v>99.59999999999999</v>
       </c>
+      <c r="HY85" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60552,6 +60807,9 @@
       <c r="HX86" t="n">
         <v>6</v>
       </c>
+      <c r="HY86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61252,6 +61510,9 @@
       <c r="HX87" t="n">
         <v>7</v>
       </c>
+      <c r="HY87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61952,6 +62213,9 @@
       <c r="HX88" t="n">
         <v>4</v>
       </c>
+      <c r="HY88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62652,6 +62916,9 @@
       <c r="HX89" t="n">
         <v>6</v>
       </c>
+      <c r="HY89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63352,6 +63619,9 @@
       <c r="HX90" t="n">
         <v>185</v>
       </c>
+      <c r="HY90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64052,6 +64322,9 @@
       <c r="HX91" t="n">
         <v>191</v>
       </c>
+      <c r="HY91" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64752,6 +65025,9 @@
       <c r="HX92" t="n">
         <v>240</v>
       </c>
+      <c r="HY92" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65452,6 +65728,9 @@
       <c r="HX93" t="n">
         <v>63.7</v>
       </c>
+      <c r="HY93" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66152,6 +66431,9 @@
       <c r="HX94" t="n">
         <v>87</v>
       </c>
+      <c r="HY94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66852,6 +67134,9 @@
       <c r="HX95" t="n">
         <v>13</v>
       </c>
+      <c r="HY95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67552,6 +67837,9 @@
       <c r="HX96" t="n">
         <v>8</v>
       </c>
+      <c r="HY96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68252,6 +68540,9 @@
       <c r="HX97" t="n">
         <v>53</v>
       </c>
+      <c r="HY97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68952,6 +69243,9 @@
       <c r="HX98" t="n">
         <v>48</v>
       </c>
+      <c r="HY98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69652,6 +69946,9 @@
       <c r="HX99" t="n">
         <v>65</v>
       </c>
+      <c r="HY99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70352,6 +70649,9 @@
       <c r="HX100" t="n">
         <v>5</v>
       </c>
+      <c r="HY100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71052,6 +71352,9 @@
       <c r="HX101" t="n">
         <v>8</v>
       </c>
+      <c r="HY101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71752,6 +72055,9 @@
       <c r="HX102" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HY102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,9 @@
       <c r="HY1" t="n">
         <v>10472</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10489</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1761,9 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2467,9 @@
       <c r="HY3" t="n">
         <v>18</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3173,9 @@
       <c r="HY4" t="n">
         <v>0</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3879,9 @@
       <c r="HY5" t="n">
         <v>1</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4585,9 @@
       <c r="HY6" t="n">
         <v>79</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5291,9 @@
       <c r="HY7" t="n">
         <v>90</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +5997,9 @@
       <c r="HY8" t="n">
         <v>-11</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6703,9 @@
       <c r="HY9" t="n">
         <v>0</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7409,9 @@
       <c r="HY10" t="n">
         <v>18</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8115,9 @@
       <c r="HY11" t="n">
         <v>230</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8821,9 @@
       <c r="HY12" t="n">
         <v>148</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9527,9 @@
       <c r="HY13" t="n">
         <v>378</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10233,9 @@
       <c r="HY14" t="n">
         <v>1.55</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10939,9 @@
       <c r="HY15" t="n">
         <v>99</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11645,9 @@
       <c r="HY16" t="n">
         <v>59</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12351,9 @@
       <c r="HY17" t="n">
         <v>33</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13057,9 @@
       <c r="HY18" t="n">
         <v>21</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13763,9 @@
       <c r="HY19" t="n">
         <v>20</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14469,9 @@
       <c r="HY20" t="n">
         <v>11</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15175,9 @@
       <c r="HY21" t="n">
         <v>7</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15881,9 @@
       <c r="HY22" t="n">
         <v>13</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16587,9 @@
       <c r="HY23" t="n">
         <v>0</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17293,9 @@
       <c r="HY24" t="n">
         <v>24</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +17999,9 @@
       <c r="HY25" t="n">
         <v>45.8</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18705,9 @@
       <c r="HY26" t="n">
         <v>34.36</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19411,9 @@
       <c r="HY27" t="n">
         <v>15.75</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>17.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20117,9 @@
       <c r="HY28" t="n">
         <v>37</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20823,9 @@
       <c r="HY29" t="n">
         <v>54</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21529,9 @@
       <c r="HY30" t="n">
         <v>41</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22235,9 @@
       <c r="HY31" t="n">
         <v>45</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +22941,9 @@
       <c r="HY32" t="n">
         <v>1.88</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23647,9 @@
       <c r="HY33" t="n">
         <v>4.09</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24353,9 @@
       <c r="HY34" t="n">
         <v>53.3</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25059,9 @@
       <c r="HY35" t="n">
         <v>24.4</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25765,9 @@
       <c r="HY36" t="n">
         <v>187</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26471,9 @@
       <c r="HY37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27177,9 @@
       <c r="HY38" t="n">
         <v>23.74</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>23.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27883,9 @@
       <c r="HY39" t="n">
         <v>69</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>60.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28589,9 @@
       <c r="HY40" t="n">
         <v>9</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29295,9 @@
       <c r="HY41" t="n">
         <v>8</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30001,9 @@
       <c r="HY42" t="n">
         <v>4</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30707,9 @@
       <c r="HY43" t="n">
         <v>2</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31413,9 @@
       <c r="HY44" t="n">
         <v>136</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32119,9 @@
       <c r="HY45" t="n">
         <v>240</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32825,9 @@
       <c r="HY46" t="n">
         <v>297</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33531,9 @@
       <c r="HY47" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34237,9 @@
       <c r="HY48" t="n">
         <v>54</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +34943,9 @@
       <c r="HY49" t="n">
         <v>14</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35649,9 @@
       <c r="HY50" t="n">
         <v>10</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36355,9 @@
       <c r="HY51" t="n">
         <v>37</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37061,9 @@
       <c r="HY52" t="n">
         <v>41</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37767,9 @@
       <c r="HY53" t="n">
         <v>56</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38473,9 @@
       <c r="HY54" t="n">
         <v>5</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39179,9 @@
       <c r="HY55" t="n">
         <v>7</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +39885,9 @@
       <c r="HY56" t="n">
         <v>63.6</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40591,9 @@
       <c r="HY57" t="n">
         <v>201</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41297,9 @@
       <c r="HY58" t="n">
         <v>191</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42003,9 @@
       <c r="HY59" t="n">
         <v>392</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42709,9 @@
       <c r="HY60" t="n">
         <v>1.05</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43415,9 @@
       <c r="HY61" t="n">
         <v>70</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44121,9 @@
       <c r="HY62" t="n">
         <v>41</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +44827,9 @@
       <c r="HY63" t="n">
         <v>46</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45533,9 @@
       <c r="HY64" t="n">
         <v>20</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46239,9 @@
       <c r="HY65" t="n">
         <v>21</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +46945,9 @@
       <c r="HY66" t="n">
         <v>14</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47651,9 @@
       <c r="HY67" t="n">
         <v>10</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48357,9 @@
       <c r="HY68" t="n">
         <v>3</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49063,9 @@
       <c r="HY69" t="n">
         <v>3</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49769,9 @@
       <c r="HY70" t="n">
         <v>20</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50475,9 @@
       <c r="HY71" t="n">
         <v>70</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51181,9 @@
       <c r="HY72" t="n">
         <v>28</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>21.94</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +51887,9 @@
       <c r="HY73" t="n">
         <v>19.6</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>10.66</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52593,9 @@
       <c r="HY74" t="n">
         <v>47</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53299,9 @@
       <c r="HY75" t="n">
         <v>67</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54005,9 @@
       <c r="HY76" t="n">
         <v>33</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54711,9 @@
       <c r="HY77" t="n">
         <v>56</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55417,9 @@
       <c r="HY78" t="n">
         <v>2.8</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56123,9 @@
       <c r="HY79" t="n">
         <v>4</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>4.24</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +56829,9 @@
       <c r="HY80" t="n">
         <v>30.4</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57535,9 @@
       <c r="HY81" t="n">
         <v>25</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58241,9 @@
       <c r="HY82" t="n">
         <v>186.7</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +58947,9 @@
       <c r="HY83" t="n">
         <v>83.7</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>88.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59653,9 @@
       <c r="HY84" t="n">
         <v>24.58</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60359,9 @@
       <c r="HY85" t="n">
         <v>86.8</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61065,9 @@
       <c r="HY86" t="n">
         <v>5</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +61771,9 @@
       <c r="HY87" t="n">
         <v>9</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62477,9 @@
       <c r="HY88" t="n">
         <v>3</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63183,9 @@
       <c r="HY89" t="n">
         <v>5</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +63889,9 @@
       <c r="HY90" t="n">
         <v>144</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64595,9 @@
       <c r="HY91" t="n">
         <v>242</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65301,9 @@
       <c r="HY92" t="n">
         <v>290</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66007,9 @@
       <c r="HY93" t="n">
         <v>74</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66713,9 @@
       <c r="HY94" t="n">
         <v>67</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67419,9 @@
       <c r="HY95" t="n">
         <v>5</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68125,9 @@
       <c r="HY96" t="n">
         <v>10</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +68831,9 @@
       <c r="HY97" t="n">
         <v>47</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69537,9 @@
       <c r="HY98" t="n">
         <v>33</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70243,9 @@
       <c r="HY99" t="n">
         <v>40</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +70949,9 @@
       <c r="HY100" t="n">
         <v>12</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71655,9 @@
       <c r="HY101" t="n">
         <v>10</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,6 +72361,9 @@
       <c r="HY102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>58.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10489</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10531</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>19</v>
       </c>
+      <c r="IA3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>1</v>
       </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>0</v>
       </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>71</v>
       </c>
+      <c r="IA6" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>120</v>
       </c>
+      <c r="IA7" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>-49</v>
       </c>
+      <c r="IA8" t="n">
+        <v>-98</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>0</v>
       </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>2</v>
       </c>
+      <c r="IA10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>215</v>
       </c>
+      <c r="IA11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>149</v>
       </c>
+      <c r="IA12" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>364</v>
       </c>
+      <c r="IA13" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.44</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>105</v>
       </c>
+      <c r="IA15" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>55</v>
       </c>
+      <c r="IA16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>20</v>
       </c>
+      <c r="IA17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>20</v>
       </c>
+      <c r="IA18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>20</v>
       </c>
+      <c r="IA19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>10</v>
       </c>
+      <c r="IA20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>6</v>
       </c>
+      <c r="IA21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>10</v>
       </c>
+      <c r="IA22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>1</v>
       </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>21</v>
       </c>
+      <c r="IA24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>47.6</v>
       </c>
+      <c r="IA25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>36.4</v>
       </c>
+      <c r="IA26" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>17.33</v>
       </c>
+      <c r="IA27" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>26</v>
       </c>
+      <c r="IA28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>65</v>
       </c>
+      <c r="IA29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>52</v>
       </c>
+      <c r="IA30" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>40</v>
       </c>
+      <c r="IA31" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>1.9</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>4</v>
       </c>
+      <c r="IA33" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>50</v>
       </c>
+      <c r="IA34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>25</v>
       </c>
+      <c r="IA35" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>187.3</v>
       </c>
+      <c r="IA36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>84</v>
       </c>
+      <c r="IA37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>23.49</v>
       </c>
+      <c r="IA38" t="n">
+        <v>23.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>60.6</v>
       </c>
+      <c r="IA39" t="n">
+        <v>62.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>11</v>
       </c>
+      <c r="IA40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>7</v>
       </c>
+      <c r="IA41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>4</v>
       </c>
+      <c r="IA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>1</v>
       </c>
+      <c r="IA43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>116</v>
       </c>
+      <c r="IA44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>241</v>
       </c>
+      <c r="IA45" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>270</v>
       </c>
+      <c r="IA46" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>74.2</v>
       </c>
+      <c r="IA47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>65</v>
       </c>
+      <c r="IA48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>7</v>
       </c>
+      <c r="IA49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>11</v>
       </c>
+      <c r="IA50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>26</v>
       </c>
+      <c r="IA51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>52</v>
       </c>
+      <c r="IA52" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>53</v>
       </c>
+      <c r="IA53" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>3</v>
       </c>
+      <c r="IA54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>6</v>
       </c>
+      <c r="IA55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>60</v>
       </c>
+      <c r="IA56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>254</v>
       </c>
+      <c r="IA57" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>119</v>
       </c>
+      <c r="IA58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>373</v>
       </c>
+      <c r="IA59" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>2.13</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>108</v>
       </c>
+      <c r="IA61" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>50</v>
       </c>
+      <c r="IA62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>46</v>
       </c>
+      <c r="IA63" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>21</v>
       </c>
+      <c r="IA64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>20</v>
       </c>
+      <c r="IA65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>17</v>
       </c>
+      <c r="IA66" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>10</v>
       </c>
+      <c r="IA67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>16</v>
       </c>
+      <c r="IA68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>2</v>
       </c>
+      <c r="IA69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>35</v>
       </c>
+      <c r="IA70" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>48.6</v>
       </c>
+      <c r="IA71" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>21.94</v>
       </c>
+      <c r="IA72" t="n">
+        <v>21.44</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>10.66</v>
       </c>
+      <c r="IA73" t="n">
+        <v>10.16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>40</v>
       </c>
+      <c r="IA74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>57</v>
       </c>
+      <c r="IA75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>30</v>
       </c>
+      <c r="IA76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>72</v>
       </c>
+      <c r="IA77" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>2.06</v>
       </c>
+      <c r="IA78" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>4.24</v>
       </c>
+      <c r="IA79" t="n">
+        <v>3.94</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>45.8</v>
       </c>
+      <c r="IA80" t="n">
+        <v>43.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>23.6</v>
       </c>
+      <c r="IA81" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IA82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>88.3</v>
       </c>
+      <c r="IA83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>26.16</v>
       </c>
+      <c r="IA84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>116</v>
       </c>
+      <c r="IA85" t="n">
+        <v>89.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>5</v>
       </c>
+      <c r="IA86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>5</v>
       </c>
+      <c r="IA87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>5</v>
       </c>
+      <c r="IA88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>7</v>
       </c>
+      <c r="IA89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>148</v>
       </c>
+      <c r="IA90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>211</v>
       </c>
+      <c r="IA91" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>261</v>
       </c>
+      <c r="IA92" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>70</v>
       </c>
+      <c r="IA93" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>57</v>
       </c>
+      <c r="IA94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>19</v>
       </c>
+      <c r="IA95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>14</v>
       </c>
+      <c r="IA96" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>40</v>
       </c>
+      <c r="IA97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>30</v>
       </c>
+      <c r="IA98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>42</v>
       </c>
+      <c r="IA99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>7</v>
       </c>
+      <c r="IA100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>10</v>
       </c>
+      <c r="IA101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>58.8</v>
       </c>
+      <c r="IA102" t="n">
+        <v>61.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,9 @@
       <c r="IA1" t="n">
         <v>10531</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10499</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1773,9 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2485,9 @@
       <c r="IA3" t="n">
         <v>20</v>
       </c>
+      <c r="IB3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3197,9 @@
       <c r="IA4" t="n">
         <v>0</v>
       </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3909,9 @@
       <c r="IA5" t="n">
         <v>1</v>
       </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4621,9 @@
       <c r="IA6" t="n">
         <v>30</v>
       </c>
+      <c r="IB6" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5333,9 @@
       <c r="IA7" t="n">
         <v>128</v>
       </c>
+      <c r="IB7" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6045,9 @@
       <c r="IA8" t="n">
         <v>-98</v>
       </c>
+      <c r="IB8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6757,9 @@
       <c r="IA9" t="n">
         <v>0</v>
       </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7469,9 @@
       <c r="IA10" t="n">
         <v>11</v>
       </c>
+      <c r="IB10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8181,9 @@
       <c r="IA11" t="n">
         <v>198</v>
       </c>
+      <c r="IB11" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8893,9 @@
       <c r="IA12" t="n">
         <v>122</v>
       </c>
+      <c r="IB12" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9605,9 @@
       <c r="IA13" t="n">
         <v>320</v>
       </c>
+      <c r="IB13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10317,9 @@
       <c r="IA14" t="n">
         <v>1.62</v>
       </c>
+      <c r="IB14" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11029,9 @@
       <c r="IA15" t="n">
         <v>89</v>
       </c>
+      <c r="IB15" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11741,9 @@
       <c r="IA16" t="n">
         <v>61</v>
       </c>
+      <c r="IB16" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12453,9 @@
       <c r="IA17" t="n">
         <v>25</v>
       </c>
+      <c r="IB17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13165,9 @@
       <c r="IA18" t="n">
         <v>16</v>
       </c>
+      <c r="IB18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13877,9 @@
       <c r="IA19" t="n">
         <v>16</v>
       </c>
+      <c r="IB19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14589,9 @@
       <c r="IA20" t="n">
         <v>4</v>
       </c>
+      <c r="IB20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15301,9 @@
       <c r="IA21" t="n">
         <v>3</v>
       </c>
+      <c r="IB21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16013,9 @@
       <c r="IA22" t="n">
         <v>5</v>
       </c>
+      <c r="IB22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16725,9 @@
       <c r="IA23" t="n">
         <v>1</v>
       </c>
+      <c r="IB23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17437,9 @@
       <c r="IA24" t="n">
         <v>10</v>
       </c>
+      <c r="IB24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18149,9 @@
       <c r="IA25" t="n">
         <v>40</v>
       </c>
+      <c r="IB25" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18861,9 @@
       <c r="IA26" t="n">
         <v>80</v>
       </c>
+      <c r="IB26" t="n">
+        <v>34.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19573,9 @@
       <c r="IA27" t="n">
         <v>32</v>
       </c>
+      <c r="IB27" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20285,9 @@
       <c r="IA28" t="n">
         <v>26</v>
       </c>
+      <c r="IB28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +20997,9 @@
       <c r="IA29" t="n">
         <v>62</v>
       </c>
+      <c r="IB29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21709,9 @@
       <c r="IA30" t="n">
         <v>53</v>
       </c>
+      <c r="IB30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22421,9 @@
       <c r="IA31" t="n">
         <v>27</v>
       </c>
+      <c r="IB31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23133,9 @@
       <c r="IA32" t="n">
         <v>2.7</v>
       </c>
+      <c r="IB32" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23845,9 @@
       <c r="IA33" t="n">
         <v>6.75</v>
       </c>
+      <c r="IB33" t="n">
+        <v>4.73</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24557,9 @@
       <c r="IA34" t="n">
         <v>33.3</v>
       </c>
+      <c r="IB34" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25269,9 @@
       <c r="IA35" t="n">
         <v>14.8</v>
       </c>
+      <c r="IB35" t="n">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +25981,9 @@
       <c r="IA36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IB36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26693,9 @@
       <c r="IA37" t="n">
         <v>84</v>
       </c>
+      <c r="IB37" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27405,9 @@
       <c r="IA38" t="n">
         <v>23.58</v>
       </c>
+      <c r="IB38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28117,9 @@
       <c r="IA39" t="n">
         <v>62.6</v>
       </c>
+      <c r="IB39" t="n">
+        <v>71.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28829,9 @@
       <c r="IA40" t="n">
         <v>8</v>
       </c>
+      <c r="IB40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29541,9 @@
       <c r="IA41" t="n">
         <v>9</v>
       </c>
+      <c r="IB41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30253,9 @@
       <c r="IA42" t="n">
         <v>4</v>
       </c>
+      <c r="IB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +30965,9 @@
       <c r="IA43" t="n">
         <v>1</v>
       </c>
+      <c r="IB43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31677,9 @@
       <c r="IA44" t="n">
         <v>108</v>
       </c>
+      <c r="IB44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32389,9 @@
       <c r="IA45" t="n">
         <v>202</v>
       </c>
+      <c r="IB45" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33101,9 @@
       <c r="IA46" t="n">
         <v>226</v>
       </c>
+      <c r="IB46" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33813,9 @@
       <c r="IA47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IB47" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34525,9 @@
       <c r="IA48" t="n">
         <v>62</v>
       </c>
+      <c r="IB48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35237,9 @@
       <c r="IA49" t="n">
         <v>4</v>
       </c>
+      <c r="IB49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +35949,9 @@
       <c r="IA50" t="n">
         <v>5</v>
       </c>
+      <c r="IB50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36661,9 @@
       <c r="IA51" t="n">
         <v>26</v>
       </c>
+      <c r="IB51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37373,9 @@
       <c r="IA52" t="n">
         <v>53</v>
       </c>
+      <c r="IB52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38085,9 @@
       <c r="IA53" t="n">
         <v>62</v>
       </c>
+      <c r="IB53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38797,9 @@
       <c r="IA54" t="n">
         <v>9</v>
       </c>
+      <c r="IB54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39509,9 @@
       <c r="IA55" t="n">
         <v>3</v>
       </c>
+      <c r="IB55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40221,9 @@
       <c r="IA56" t="n">
         <v>75</v>
       </c>
+      <c r="IB56" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +40933,9 @@
       <c r="IA57" t="n">
         <v>231</v>
       </c>
+      <c r="IB57" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41645,9 @@
       <c r="IA58" t="n">
         <v>155</v>
       </c>
+      <c r="IB58" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42357,9 @@
       <c r="IA59" t="n">
         <v>386</v>
       </c>
+      <c r="IB59" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43069,9 @@
       <c r="IA60" t="n">
         <v>1.49</v>
       </c>
+      <c r="IB60" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43781,9 @@
       <c r="IA61" t="n">
         <v>106</v>
       </c>
+      <c r="IB61" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44493,9 @@
       <c r="IA62" t="n">
         <v>63</v>
       </c>
+      <c r="IB62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45205,9 @@
       <c r="IA63" t="n">
         <v>49</v>
       </c>
+      <c r="IB63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +45917,9 @@
       <c r="IA64" t="n">
         <v>16</v>
       </c>
+      <c r="IB64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46629,9 @@
       <c r="IA65" t="n">
         <v>16</v>
       </c>
+      <c r="IB65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47341,9 @@
       <c r="IA66" t="n">
         <v>18</v>
       </c>
+      <c r="IB66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48053,9 @@
       <c r="IA67" t="n">
         <v>11</v>
       </c>
+      <c r="IB67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48765,9 @@
       <c r="IA68" t="n">
         <v>13</v>
       </c>
+      <c r="IB68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49477,9 @@
       <c r="IA69" t="n">
         <v>7</v>
       </c>
+      <c r="IB69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50189,9 @@
       <c r="IA70" t="n">
         <v>38</v>
       </c>
+      <c r="IB70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +50901,9 @@
       <c r="IA71" t="n">
         <v>47.4</v>
       </c>
+      <c r="IB71" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51613,9 @@
       <c r="IA72" t="n">
         <v>21.44</v>
       </c>
+      <c r="IB72" t="n">
+        <v>39.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52325,9 @@
       <c r="IA73" t="n">
         <v>10.16</v>
       </c>
+      <c r="IB73" t="n">
+        <v>18.41</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53037,9 @@
       <c r="IA74" t="n">
         <v>43</v>
       </c>
+      <c r="IB74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53749,9 @@
       <c r="IA75" t="n">
         <v>47</v>
       </c>
+      <c r="IB75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54461,9 @@
       <c r="IA76" t="n">
         <v>23</v>
       </c>
+      <c r="IB76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55173,9 @@
       <c r="IA77" t="n">
         <v>71</v>
       </c>
+      <c r="IB77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +55885,9 @@
       <c r="IA78" t="n">
         <v>1.87</v>
       </c>
+      <c r="IB78" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56597,9 @@
       <c r="IA79" t="n">
         <v>3.94</v>
       </c>
+      <c r="IB79" t="n">
+        <v>6.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57309,9 @@
       <c r="IA80" t="n">
         <v>43.7</v>
       </c>
+      <c r="IB80" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58021,9 @@
       <c r="IA81" t="n">
         <v>25.4</v>
       </c>
+      <c r="IB81" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58733,9 @@
       <c r="IA82" t="n">
         <v>187.2</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59445,9 @@
       <c r="IA83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IB83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60157,9 @@
       <c r="IA84" t="n">
         <v>24.49</v>
       </c>
+      <c r="IB84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +60869,9 @@
       <c r="IA85" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="IB85" t="n">
+        <v>98.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61581,9 @@
       <c r="IA86" t="n">
         <v>7</v>
       </c>
+      <c r="IB86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62293,9 @@
       <c r="IA87" t="n">
         <v>4</v>
       </c>
+      <c r="IB87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63005,9 @@
       <c r="IA88" t="n">
         <v>9</v>
       </c>
+      <c r="IB88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63717,9 @@
       <c r="IA89" t="n">
         <v>3</v>
       </c>
+      <c r="IB89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64429,9 @@
       <c r="IA90" t="n">
         <v>139</v>
       </c>
+      <c r="IB90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65141,9 @@
       <c r="IA91" t="n">
         <v>248</v>
       </c>
+      <c r="IB91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +65853,9 @@
       <c r="IA92" t="n">
         <v>280</v>
       </c>
+      <c r="IB92" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66565,9 @@
       <c r="IA93" t="n">
         <v>72.5</v>
       </c>
+      <c r="IB93" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67277,9 @@
       <c r="IA94" t="n">
         <v>47</v>
       </c>
+      <c r="IB94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +67989,9 @@
       <c r="IA95" t="n">
         <v>12</v>
       </c>
+      <c r="IB95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68701,9 @@
       <c r="IA96" t="n">
         <v>19</v>
       </c>
+      <c r="IB96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69413,9 @@
       <c r="IA97" t="n">
         <v>43</v>
       </c>
+      <c r="IB97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70125,9 @@
       <c r="IA98" t="n">
         <v>23</v>
       </c>
+      <c r="IB98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +70837,9 @@
       <c r="IA99" t="n">
         <v>47</v>
       </c>
+      <c r="IB99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71549,9 @@
       <c r="IA100" t="n">
         <v>9</v>
       </c>
+      <c r="IB100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72261,9 @@
       <c r="IA101" t="n">
         <v>11</v>
       </c>
+      <c r="IB101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +72973,9 @@
       <c r="IA102" t="n">
         <v>61.1</v>
       </c>
+      <c r="IB102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,9 @@
       <c r="IC1" t="n">
         <v>10509</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1850,6 +1853,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2565,6 +2571,9 @@
       <c r="IC3" t="n">
         <v>22</v>
       </c>
+      <c r="ID3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3280,6 +3289,9 @@
       <c r="IC4" t="n">
         <v>0</v>
       </c>
+      <c r="ID4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3995,6 +4007,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4710,6 +4725,9 @@
       <c r="IC6" t="n">
         <v>30</v>
       </c>
+      <c r="ID6" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5425,6 +5443,9 @@
       <c r="IC7" t="n">
         <v>98</v>
       </c>
+      <c r="ID7" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6140,6 +6161,9 @@
       <c r="IC8" t="n">
         <v>-68</v>
       </c>
+      <c r="ID8" t="n">
+        <v>-87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6855,6 +6879,9 @@
       <c r="IC9" t="n">
         <v>0</v>
       </c>
+      <c r="ID9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7570,6 +7597,9 @@
       <c r="IC10" t="n">
         <v>5</v>
       </c>
+      <c r="ID10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8285,6 +8315,9 @@
       <c r="IC11" t="n">
         <v>205</v>
       </c>
+      <c r="ID11" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9000,6 +9033,9 @@
       <c r="IC12" t="n">
         <v>140</v>
       </c>
+      <c r="ID12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9715,6 +9751,9 @@
       <c r="IC13" t="n">
         <v>345</v>
       </c>
+      <c r="ID13" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10430,6 +10469,9 @@
       <c r="IC14" t="n">
         <v>1.46</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11145,6 +11187,9 @@
       <c r="IC15" t="n">
         <v>92</v>
       </c>
+      <c r="ID15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11860,6 +11905,9 @@
       <c r="IC16" t="n">
         <v>32</v>
       </c>
+      <c r="ID16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12575,6 +12623,9 @@
       <c r="IC17" t="n">
         <v>23</v>
       </c>
+      <c r="ID17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13290,6 +13341,9 @@
       <c r="IC18" t="n">
         <v>17</v>
       </c>
+      <c r="ID18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14005,6 +14059,9 @@
       <c r="IC19" t="n">
         <v>22</v>
       </c>
+      <c r="ID19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14720,6 +14777,9 @@
       <c r="IC20" t="n">
         <v>4</v>
       </c>
+      <c r="ID20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15435,6 +15495,9 @@
       <c r="IC21" t="n">
         <v>2</v>
       </c>
+      <c r="ID21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16150,6 +16213,9 @@
       <c r="IC22" t="n">
         <v>3</v>
       </c>
+      <c r="ID22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16865,6 +16931,9 @@
       <c r="IC23" t="n">
         <v>3</v>
       </c>
+      <c r="ID23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17580,6 +17649,9 @@
       <c r="IC24" t="n">
         <v>10</v>
       </c>
+      <c r="ID24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18295,6 +18367,9 @@
       <c r="IC25" t="n">
         <v>40</v>
       </c>
+      <c r="ID25" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19010,6 +19085,9 @@
       <c r="IC26" t="n">
         <v>86.25</v>
       </c>
+      <c r="ID26" t="n">
+        <v>55.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19725,6 +19803,9 @@
       <c r="IC27" t="n">
         <v>34.5</v>
       </c>
+      <c r="ID27" t="n">
+        <v>17.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20440,6 +20521,9 @@
       <c r="IC28" t="n">
         <v>31</v>
       </c>
+      <c r="ID28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21155,6 +21239,9 @@
       <c r="IC29" t="n">
         <v>72</v>
       </c>
+      <c r="ID29" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21870,6 +21957,9 @@
       <c r="IC30" t="n">
         <v>45</v>
       </c>
+      <c r="ID30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22585,6 +22675,9 @@
       <c r="IC31" t="n">
         <v>46</v>
       </c>
+      <c r="ID31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23300,6 +23393,9 @@
       <c r="IC32" t="n">
         <v>4.6</v>
       </c>
+      <c r="ID32" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24015,6 +24111,9 @@
       <c r="IC33" t="n">
         <v>11.5</v>
       </c>
+      <c r="ID33" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24730,6 +24829,9 @@
       <c r="IC34" t="n">
         <v>15.2</v>
       </c>
+      <c r="ID34" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25445,6 +25547,9 @@
       <c r="IC35" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="ID35" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26160,6 +26265,9 @@
       <c r="IC36" t="n">
         <v>188</v>
       </c>
+      <c r="ID36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26875,6 +26983,9 @@
       <c r="IC37" t="n">
         <v>84.40000000000001</v>
       </c>
+      <c r="ID37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27590,6 +27701,9 @@
       <c r="IC38" t="n">
         <v>24.8</v>
       </c>
+      <c r="ID38" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28305,6 +28419,9 @@
       <c r="IC39" t="n">
         <v>68.2</v>
       </c>
+      <c r="ID39" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29020,6 +29137,9 @@
       <c r="IC40" t="n">
         <v>7</v>
       </c>
+      <c r="ID40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29735,6 +29855,9 @@
       <c r="IC41" t="n">
         <v>10</v>
       </c>
+      <c r="ID41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30450,6 +30573,9 @@
       <c r="IC42" t="n">
         <v>4</v>
       </c>
+      <c r="ID42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31165,6 +31291,9 @@
       <c r="IC43" t="n">
         <v>2</v>
       </c>
+      <c r="ID43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31880,6 +32009,9 @@
       <c r="IC44" t="n">
         <v>124</v>
       </c>
+      <c r="ID44" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32595,6 +32727,9 @@
       <c r="IC45" t="n">
         <v>216</v>
       </c>
+      <c r="ID45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33310,6 +33445,9 @@
       <c r="IC46" t="n">
         <v>253</v>
       </c>
+      <c r="ID46" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34025,6 +34163,9 @@
       <c r="IC47" t="n">
         <v>73.3</v>
       </c>
+      <c r="ID47" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34740,6 +34881,9 @@
       <c r="IC48" t="n">
         <v>72</v>
       </c>
+      <c r="ID48" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35455,6 +35599,9 @@
       <c r="IC49" t="n">
         <v>10</v>
       </c>
+      <c r="ID49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36170,6 +36317,9 @@
       <c r="IC50" t="n">
         <v>3</v>
       </c>
+      <c r="ID50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36885,6 +37035,9 @@
       <c r="IC51" t="n">
         <v>31</v>
       </c>
+      <c r="ID51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37600,6 +37753,9 @@
       <c r="IC52" t="n">
         <v>45</v>
       </c>
+      <c r="ID52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38315,6 +38471,9 @@
       <c r="IC53" t="n">
         <v>49</v>
       </c>
+      <c r="ID53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39030,6 +39189,9 @@
       <c r="IC54" t="n">
         <v>8</v>
       </c>
+      <c r="ID54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39745,6 +39907,9 @@
       <c r="IC55" t="n">
         <v>2</v>
       </c>
+      <c r="ID55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40460,6 +40625,9 @@
       <c r="IC56" t="n">
         <v>50</v>
       </c>
+      <c r="ID56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41175,6 +41343,9 @@
       <c r="IC57" t="n">
         <v>222</v>
       </c>
+      <c r="ID57" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41890,6 +42061,9 @@
       <c r="IC58" t="n">
         <v>183</v>
       </c>
+      <c r="ID58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42605,6 +42779,9 @@
       <c r="IC59" t="n">
         <v>405</v>
       </c>
+      <c r="ID59" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43320,6 +43497,9 @@
       <c r="IC60" t="n">
         <v>1.21</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44035,6 +44215,9 @@
       <c r="IC61" t="n">
         <v>94</v>
       </c>
+      <c r="ID61" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44750,6 +44933,9 @@
       <c r="IC62" t="n">
         <v>35</v>
       </c>
+      <c r="ID62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45465,6 +45651,9 @@
       <c r="IC63" t="n">
         <v>34</v>
       </c>
+      <c r="ID63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46180,6 +46369,9 @@
       <c r="IC64" t="n">
         <v>22</v>
       </c>
+      <c r="ID64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46895,6 +47087,9 @@
       <c r="IC65" t="n">
         <v>17</v>
       </c>
+      <c r="ID65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47610,6 +47805,9 @@
       <c r="IC66" t="n">
         <v>14</v>
       </c>
+      <c r="ID66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48325,6 +48523,9 @@
       <c r="IC67" t="n">
         <v>6</v>
       </c>
+      <c r="ID67" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49040,6 +49241,9 @@
       <c r="IC68" t="n">
         <v>11</v>
       </c>
+      <c r="ID68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49755,6 +49959,9 @@
       <c r="IC69" t="n">
         <v>3</v>
       </c>
+      <c r="ID69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50470,6 +50677,9 @@
       <c r="IC70" t="n">
         <v>28</v>
       </c>
+      <c r="ID70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51185,6 +51395,9 @@
       <c r="IC71" t="n">
         <v>50</v>
       </c>
+      <c r="ID71" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51900,6 +52113,9 @@
       <c r="IC72" t="n">
         <v>28.93</v>
       </c>
+      <c r="ID72" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52615,6 +52831,9 @@
       <c r="IC73" t="n">
         <v>14.46</v>
       </c>
+      <c r="ID73" t="n">
+        <v>12.81</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53330,6 +53549,9 @@
       <c r="IC74" t="n">
         <v>37</v>
       </c>
+      <c r="ID74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54045,6 +54267,9 @@
       <c r="IC75" t="n">
         <v>57</v>
       </c>
+      <c r="ID75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54760,6 +54985,9 @@
       <c r="IC76" t="n">
         <v>42</v>
       </c>
+      <c r="ID76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55475,6 +55703,9 @@
       <c r="IC77" t="n">
         <v>61</v>
       </c>
+      <c r="ID77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56190,6 +56421,9 @@
       <c r="IC78" t="n">
         <v>2.18</v>
       </c>
+      <c r="ID78" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56905,6 +57139,9 @@
       <c r="IC79" t="n">
         <v>4.36</v>
       </c>
+      <c r="ID79" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57620,6 +57857,9 @@
       <c r="IC80" t="n">
         <v>41</v>
       </c>
+      <c r="ID80" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58335,6 +58575,9 @@
       <c r="IC81" t="n">
         <v>23</v>
       </c>
+      <c r="ID81" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59050,6 +59293,9 @@
       <c r="IC82" t="n">
         <v>187.1</v>
       </c>
+      <c r="ID82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59765,6 +60011,9 @@
       <c r="IC83" t="n">
         <v>86.5</v>
       </c>
+      <c r="ID83" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60480,6 +60729,9 @@
       <c r="IC84" t="n">
         <v>24</v>
       </c>
+      <c r="ID84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61195,6 +61447,9 @@
       <c r="IC85" t="n">
         <v>79</v>
       </c>
+      <c r="ID85" t="n">
+        <v>97.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61910,6 +62165,9 @@
       <c r="IC86" t="n">
         <v>9</v>
       </c>
+      <c r="ID86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62625,6 +62883,9 @@
       <c r="IC87" t="n">
         <v>7</v>
       </c>
+      <c r="ID87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63340,6 +63601,9 @@
       <c r="IC88" t="n">
         <v>1</v>
       </c>
+      <c r="ID88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64055,6 +64319,9 @@
       <c r="IC89" t="n">
         <v>5</v>
       </c>
+      <c r="ID89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64770,6 +65037,9 @@
       <c r="IC90" t="n">
         <v>146</v>
       </c>
+      <c r="ID90" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65485,6 +65755,9 @@
       <c r="IC91" t="n">
         <v>257</v>
       </c>
+      <c r="ID91" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66200,6 +66473,9 @@
       <c r="IC92" t="n">
         <v>313</v>
       </c>
+      <c r="ID92" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66915,6 +67191,9 @@
       <c r="IC93" t="n">
         <v>77.3</v>
       </c>
+      <c r="ID93" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67630,6 +67909,9 @@
       <c r="IC94" t="n">
         <v>57</v>
       </c>
+      <c r="ID94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68345,6 +68627,9 @@
       <c r="IC95" t="n">
         <v>18</v>
       </c>
+      <c r="ID95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69060,6 +69345,9 @@
       <c r="IC96" t="n">
         <v>16</v>
       </c>
+      <c r="ID96" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69775,6 +70063,9 @@
       <c r="IC97" t="n">
         <v>37</v>
       </c>
+      <c r="ID97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70490,6 +70781,9 @@
       <c r="IC98" t="n">
         <v>42</v>
       </c>
+      <c r="ID98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71205,6 +71499,9 @@
       <c r="IC99" t="n">
         <v>50</v>
       </c>
+      <c r="ID99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71920,6 +72217,9 @@
       <c r="IC100" t="n">
         <v>10</v>
       </c>
+      <c r="ID100" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72635,6 +72935,9 @@
       <c r="IC101" t="n">
         <v>6</v>
       </c>
+      <c r="ID101" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73350,6 +73653,9 @@
       <c r="IC102" t="n">
         <v>42.9</v>
       </c>
+      <c r="ID102" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,9 @@
       <c r="ID1" t="n">
         <v>10522</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10552</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1856,6 +1859,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2574,6 +2580,9 @@
       <c r="ID3" t="n">
         <v>23</v>
       </c>
+      <c r="IE3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3292,6 +3301,9 @@
       <c r="ID4" t="n">
         <v>1</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4010,6 +4022,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4728,6 +4743,9 @@
       <c r="ID6" t="n">
         <v>49</v>
       </c>
+      <c r="IE6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5446,6 +5464,9 @@
       <c r="ID7" t="n">
         <v>136</v>
       </c>
+      <c r="IE7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6164,6 +6185,9 @@
       <c r="ID8" t="n">
         <v>-87</v>
       </c>
+      <c r="IE8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6882,6 +6906,9 @@
       <c r="ID9" t="n">
         <v>0</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7600,6 +7627,9 @@
       <c r="ID10" t="n">
         <v>16</v>
       </c>
+      <c r="IE10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8318,6 +8348,9 @@
       <c r="ID11" t="n">
         <v>195</v>
       </c>
+      <c r="IE11" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9036,6 +9069,9 @@
       <c r="ID12" t="n">
         <v>140</v>
       </c>
+      <c r="IE12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9754,6 +9790,9 @@
       <c r="ID13" t="n">
         <v>335</v>
       </c>
+      <c r="IE13" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10472,6 +10511,9 @@
       <c r="ID14" t="n">
         <v>1.39</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11190,6 +11232,9 @@
       <c r="ID15" t="n">
         <v>86</v>
       </c>
+      <c r="IE15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11908,6 +11953,9 @@
       <c r="ID16" t="n">
         <v>55</v>
       </c>
+      <c r="IE16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12626,6 +12674,9 @@
       <c r="ID17" t="n">
         <v>35</v>
       </c>
+      <c r="IE17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13344,6 +13395,9 @@
       <c r="ID18" t="n">
         <v>15</v>
       </c>
+      <c r="IE18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14062,6 +14116,9 @@
       <c r="ID19" t="n">
         <v>22</v>
       </c>
+      <c r="IE19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14780,6 +14837,9 @@
       <c r="ID20" t="n">
         <v>6</v>
       </c>
+      <c r="IE20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15498,6 +15558,9 @@
       <c r="ID21" t="n">
         <v>5</v>
       </c>
+      <c r="IE21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16216,6 +16279,9 @@
       <c r="ID22" t="n">
         <v>11</v>
       </c>
+      <c r="IE22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16934,6 +17000,9 @@
       <c r="ID23" t="n">
         <v>2</v>
       </c>
+      <c r="IE23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17652,6 +17721,9 @@
       <c r="ID24" t="n">
         <v>19</v>
       </c>
+      <c r="IE24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18370,6 +18442,9 @@
       <c r="ID25" t="n">
         <v>31.6</v>
       </c>
+      <c r="IE25" t="n">
+        <v>59.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19088,6 +19163,9 @@
       <c r="ID26" t="n">
         <v>55.83</v>
       </c>
+      <c r="IE26" t="n">
+        <v>22.19</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19806,6 +19884,9 @@
       <c r="ID27" t="n">
         <v>17.63</v>
       </c>
+      <c r="IE27" t="n">
+        <v>13.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20524,6 +20605,9 @@
       <c r="ID28" t="n">
         <v>36</v>
       </c>
+      <c r="IE28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21242,6 +21326,9 @@
       <c r="ID29" t="n">
         <v>60</v>
       </c>
+      <c r="IE29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21960,6 +22047,9 @@
       <c r="ID30" t="n">
         <v>34</v>
       </c>
+      <c r="IE30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22678,6 +22768,9 @@
       <c r="ID31" t="n">
         <v>47</v>
       </c>
+      <c r="IE31" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23396,6 +23489,9 @@
       <c r="ID32" t="n">
         <v>2.47</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24114,6 +24210,9 @@
       <c r="ID33" t="n">
         <v>7.83</v>
       </c>
+      <c r="IE33" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24832,6 +24931,9 @@
       <c r="ID34" t="n">
         <v>36.2</v>
       </c>
+      <c r="IE34" t="n">
+        <v>40.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25550,6 +25652,9 @@
       <c r="ID35" t="n">
         <v>12.8</v>
       </c>
+      <c r="IE35" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26268,6 +26373,9 @@
       <c r="ID36" t="n">
         <v>187.8</v>
       </c>
+      <c r="IE36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26986,6 +27094,9 @@
       <c r="ID37" t="n">
         <v>83.7</v>
       </c>
+      <c r="IE37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27704,6 +27815,9 @@
       <c r="ID38" t="n">
         <v>24.16</v>
       </c>
+      <c r="IE38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28422,6 +28536,9 @@
       <c r="ID39" t="n">
         <v>74.5</v>
       </c>
+      <c r="IE39" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29140,6 +29257,9 @@
       <c r="ID40" t="n">
         <v>8</v>
       </c>
+      <c r="IE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29858,6 +29978,9 @@
       <c r="ID41" t="n">
         <v>8</v>
       </c>
+      <c r="IE41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30576,6 +30699,9 @@
       <c r="ID42" t="n">
         <v>4</v>
       </c>
+      <c r="IE42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31294,6 +31420,9 @@
       <c r="ID43" t="n">
         <v>3</v>
       </c>
+      <c r="IE43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32012,6 +32141,9 @@
       <c r="ID44" t="n">
         <v>125</v>
       </c>
+      <c r="IE44" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32730,6 +32862,9 @@
       <c r="ID45" t="n">
         <v>211</v>
       </c>
+      <c r="IE45" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33448,6 +33583,9 @@
       <c r="ID46" t="n">
         <v>245</v>
       </c>
+      <c r="IE46" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34166,6 +34304,9 @@
       <c r="ID47" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="IE47" t="n">
+        <v>67.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34884,6 +35025,9 @@
       <c r="ID48" t="n">
         <v>60</v>
       </c>
+      <c r="IE48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35602,6 +35746,9 @@
       <c r="ID49" t="n">
         <v>7</v>
       </c>
+      <c r="IE49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36320,6 +36467,9 @@
       <c r="ID50" t="n">
         <v>7</v>
       </c>
+      <c r="IE50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37038,6 +37188,9 @@
       <c r="ID51" t="n">
         <v>36</v>
       </c>
+      <c r="IE51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37756,6 +37909,9 @@
       <c r="ID52" t="n">
         <v>34</v>
       </c>
+      <c r="IE52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38474,6 +38630,9 @@
       <c r="ID53" t="n">
         <v>37</v>
       </c>
+      <c r="IE53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39192,6 +39351,9 @@
       <c r="ID54" t="n">
         <v>3</v>
       </c>
+      <c r="IE54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39910,6 +40072,9 @@
       <c r="ID55" t="n">
         <v>5</v>
       </c>
+      <c r="IE55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40628,6 +40793,9 @@
       <c r="ID56" t="n">
         <v>83.3</v>
       </c>
+      <c r="IE56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41346,6 +41514,9 @@
       <c r="ID57" t="n">
         <v>255</v>
       </c>
+      <c r="IE57" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42064,6 +42235,9 @@
       <c r="ID58" t="n">
         <v>142</v>
       </c>
+      <c r="IE58" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42782,6 +42956,9 @@
       <c r="ID59" t="n">
         <v>397</v>
       </c>
+      <c r="IE59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43500,6 +43677,9 @@
       <c r="ID60" t="n">
         <v>1.8</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44218,6 +44398,9 @@
       <c r="ID61" t="n">
         <v>129</v>
       </c>
+      <c r="IE61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44936,6 +45119,9 @@
       <c r="ID62" t="n">
         <v>51</v>
       </c>
+      <c r="IE62" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45654,6 +45840,9 @@
       <c r="ID63" t="n">
         <v>31</v>
       </c>
+      <c r="IE63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46372,6 +46561,9 @@
       <c r="ID64" t="n">
         <v>22</v>
       </c>
+      <c r="IE64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47090,6 +47282,9 @@
       <c r="ID65" t="n">
         <v>15</v>
       </c>
+      <c r="IE65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47808,6 +48003,9 @@
       <c r="ID66" t="n">
         <v>21</v>
       </c>
+      <c r="IE66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48526,6 +48724,9 @@
       <c r="ID67" t="n">
         <v>17</v>
       </c>
+      <c r="IE67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49244,6 +49445,9 @@
       <c r="ID68" t="n">
         <v>9</v>
       </c>
+      <c r="IE68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49962,6 +50166,9 @@
       <c r="ID69" t="n">
         <v>1</v>
       </c>
+      <c r="IE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50680,6 +50887,9 @@
       <c r="ID70" t="n">
         <v>31</v>
       </c>
+      <c r="IE70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51398,6 +51608,9 @@
       <c r="ID71" t="n">
         <v>67.7</v>
       </c>
+      <c r="IE71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52116,6 +52329,9 @@
       <c r="ID72" t="n">
         <v>18.9</v>
       </c>
+      <c r="IE72" t="n">
+        <v>28.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52834,6 +53050,9 @@
       <c r="ID73" t="n">
         <v>12.81</v>
       </c>
+      <c r="IE73" t="n">
+        <v>16.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53552,6 +53771,9 @@
       <c r="ID74" t="n">
         <v>27</v>
       </c>
+      <c r="IE74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54270,6 +54492,9 @@
       <c r="ID75" t="n">
         <v>54</v>
       </c>
+      <c r="IE75" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54988,6 +55213,9 @@
       <c r="ID76" t="n">
         <v>40</v>
       </c>
+      <c r="IE76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55706,6 +55934,9 @@
       <c r="ID77" t="n">
         <v>55</v>
       </c>
+      <c r="IE77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56424,6 +56655,9 @@
       <c r="ID78" t="n">
         <v>1.77</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57142,6 +57376,9 @@
       <c r="ID79" t="n">
         <v>2.62</v>
       </c>
+      <c r="IE79" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57860,6 +58097,9 @@
       <c r="ID80" t="n">
         <v>54.5</v>
       </c>
+      <c r="IE80" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58578,6 +58818,9 @@
       <c r="ID81" t="n">
         <v>38.2</v>
       </c>
+      <c r="IE81" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59296,6 +59539,9 @@
       <c r="ID82" t="n">
         <v>187.1</v>
       </c>
+      <c r="IE82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60014,6 +60260,9 @@
       <c r="ID83" t="n">
         <v>84.2</v>
       </c>
+      <c r="IE83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60732,6 +60981,9 @@
       <c r="ID84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IE84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61450,6 +61702,9 @@
       <c r="ID85" t="n">
         <v>97.90000000000001</v>
       </c>
+      <c r="IE85" t="n">
+        <v>91.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62168,6 +62423,9 @@
       <c r="ID86" t="n">
         <v>7</v>
       </c>
+      <c r="IE86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62886,6 +63144,9 @@
       <c r="ID87" t="n">
         <v>6</v>
       </c>
+      <c r="IE87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63604,6 +63865,9 @@
       <c r="ID88" t="n">
         <v>5</v>
       </c>
+      <c r="IE88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64322,6 +64586,9 @@
       <c r="ID89" t="n">
         <v>5</v>
       </c>
+      <c r="IE89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65040,6 +65307,9 @@
       <c r="ID90" t="n">
         <v>132</v>
       </c>
+      <c r="IE90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65758,6 +66028,9 @@
       <c r="ID91" t="n">
         <v>261</v>
       </c>
+      <c r="IE91" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66476,6 +66749,9 @@
       <c r="ID92" t="n">
         <v>308</v>
       </c>
+      <c r="IE92" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67194,6 +67470,9 @@
       <c r="ID93" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="IE93" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67912,6 +68191,9 @@
       <c r="ID94" t="n">
         <v>54</v>
       </c>
+      <c r="IE94" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68630,6 +68912,9 @@
       <c r="ID95" t="n">
         <v>13</v>
       </c>
+      <c r="IE95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69348,6 +69633,9 @@
       <c r="ID96" t="n">
         <v>24</v>
       </c>
+      <c r="IE96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70066,6 +70354,9 @@
       <c r="ID97" t="n">
         <v>27</v>
       </c>
+      <c r="IE97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70784,6 +71075,9 @@
       <c r="ID98" t="n">
         <v>40</v>
       </c>
+      <c r="IE98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71502,6 +71796,9 @@
       <c r="ID99" t="n">
         <v>49</v>
       </c>
+      <c r="IE99" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72220,6 +72517,9 @@
       <c r="ID100" t="n">
         <v>11</v>
       </c>
+      <c r="IE100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72938,6 +73238,9 @@
       <c r="ID101" t="n">
         <v>17</v>
       </c>
+      <c r="IE101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73656,6 +73959,9 @@
       <c r="ID102" t="n">
         <v>81</v>
       </c>
+      <c r="IE102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,6 +1141,9 @@
       <c r="IE1" t="n">
         <v>10552</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10558</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1862,6 +1865,9 @@
       <c r="IE2" t="n">
         <v>2022</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2583,6 +2589,9 @@
       <c r="IE3" t="n">
         <v>1</v>
       </c>
+      <c r="IF3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3304,6 +3313,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4025,6 +4037,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4746,6 +4761,9 @@
       <c r="IE6" t="n">
         <v>107</v>
       </c>
+      <c r="IF6" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5467,6 +5485,9 @@
       <c r="IE7" t="n">
         <v>80</v>
       </c>
+      <c r="IF7" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6188,6 +6209,9 @@
       <c r="IE8" t="n">
         <v>27</v>
       </c>
+      <c r="IF8" t="n">
+        <v>-13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6909,6 +6933,9 @@
       <c r="IE9" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7630,6 +7657,9 @@
       <c r="IE10" t="n">
         <v>17</v>
       </c>
+      <c r="IF10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8351,6 +8381,9 @@
       <c r="IE11" t="n">
         <v>212</v>
       </c>
+      <c r="IF11" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9072,6 +9105,9 @@
       <c r="IE12" t="n">
         <v>143</v>
       </c>
+      <c r="IF12" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9793,6 +9829,9 @@
       <c r="IE13" t="n">
         <v>355</v>
       </c>
+      <c r="IF13" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10514,6 +10553,9 @@
       <c r="IE14" t="n">
         <v>1.48</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11235,6 +11277,9 @@
       <c r="IE15" t="n">
         <v>65</v>
       </c>
+      <c r="IF15" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11956,6 +12001,9 @@
       <c r="IE16" t="n">
         <v>59</v>
       </c>
+      <c r="IF16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12677,6 +12725,9 @@
       <c r="IE17" t="n">
         <v>35</v>
       </c>
+      <c r="IF17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13398,6 +13449,9 @@
       <c r="IE18" t="n">
         <v>24</v>
       </c>
+      <c r="IF18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14119,6 +14173,9 @@
       <c r="IE19" t="n">
         <v>20</v>
       </c>
+      <c r="IF19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14840,6 +14897,9 @@
       <c r="IE20" t="n">
         <v>16</v>
       </c>
+      <c r="IF20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15561,6 +15621,9 @@
       <c r="IE21" t="n">
         <v>12</v>
       </c>
+      <c r="IF21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16282,6 +16345,9 @@
       <c r="IE22" t="n">
         <v>8</v>
       </c>
+      <c r="IF22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17003,6 +17069,9 @@
       <c r="IE23" t="n">
         <v>3</v>
       </c>
+      <c r="IF23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17724,6 +17793,9 @@
       <c r="IE24" t="n">
         <v>27</v>
       </c>
+      <c r="IF24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18445,6 +18517,9 @@
       <c r="IE25" t="n">
         <v>59.3</v>
       </c>
+      <c r="IF25" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19166,6 +19241,9 @@
       <c r="IE26" t="n">
         <v>22.19</v>
       </c>
+      <c r="IF26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19887,6 +19965,9 @@
       <c r="IE27" t="n">
         <v>13.15</v>
       </c>
+      <c r="IF27" t="n">
+        <v>15.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20608,6 +20689,9 @@
       <c r="IE28" t="n">
         <v>39</v>
       </c>
+      <c r="IF28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21329,6 +21413,9 @@
       <c r="IE29" t="n">
         <v>65</v>
       </c>
+      <c r="IF29" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22050,6 +22137,9 @@
       <c r="IE30" t="n">
         <v>30</v>
       </c>
+      <c r="IF30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22771,6 +22861,9 @@
       <c r="IE31" t="n">
         <v>59</v>
       </c>
+      <c r="IF31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23492,6 +23585,9 @@
       <c r="IE32" t="n">
         <v>2.19</v>
       </c>
+      <c r="IF32" t="n">
+        <v>3.16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24213,6 +24309,9 @@
       <c r="IE33" t="n">
         <v>3.69</v>
       </c>
+      <c r="IF33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24934,6 +25033,9 @@
       <c r="IE34" t="n">
         <v>40.7</v>
       </c>
+      <c r="IF34" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25655,6 +25757,9 @@
       <c r="IE35" t="n">
         <v>27.1</v>
       </c>
+      <c r="IF35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26376,6 +26481,9 @@
       <c r="IE36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IF36" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27097,6 +27205,9 @@
       <c r="IE37" t="n">
         <v>87.2</v>
       </c>
+      <c r="IF37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27818,6 +27929,9 @@
       <c r="IE38" t="n">
         <v>24.74</v>
       </c>
+      <c r="IF38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28539,6 +28653,9 @@
       <c r="IE39" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="IF39" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29260,6 +29377,9 @@
       <c r="IE40" t="n">
         <v>7</v>
       </c>
+      <c r="IF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29981,6 +30101,9 @@
       <c r="IE41" t="n">
         <v>8</v>
       </c>
+      <c r="IF41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30702,6 +30825,9 @@
       <c r="IE42" t="n">
         <v>4</v>
       </c>
+      <c r="IF42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31423,6 +31549,9 @@
       <c r="IE43" t="n">
         <v>3</v>
       </c>
+      <c r="IF43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32144,6 +32273,9 @@
       <c r="IE44" t="n">
         <v>156</v>
       </c>
+      <c r="IF44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32865,6 +32997,9 @@
       <c r="IE45" t="n">
         <v>190</v>
       </c>
+      <c r="IF45" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33586,6 +33721,9 @@
       <c r="IE46" t="n">
         <v>239</v>
       </c>
+      <c r="IF46" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34307,6 +34445,9 @@
       <c r="IE47" t="n">
         <v>67.3</v>
       </c>
+      <c r="IF47" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35028,6 +35169,9 @@
       <c r="IE48" t="n">
         <v>65</v>
       </c>
+      <c r="IF48" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35749,6 +35893,9 @@
       <c r="IE49" t="n">
         <v>8</v>
       </c>
+      <c r="IF49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36470,6 +36617,9 @@
       <c r="IE50" t="n">
         <v>16</v>
       </c>
+      <c r="IF50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37191,6 +37341,9 @@
       <c r="IE51" t="n">
         <v>39</v>
       </c>
+      <c r="IF51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37912,6 +38065,9 @@
       <c r="IE52" t="n">
         <v>30</v>
       </c>
+      <c r="IF52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38633,6 +38789,9 @@
       <c r="IE53" t="n">
         <v>38</v>
       </c>
+      <c r="IF53" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39354,6 +39513,9 @@
       <c r="IE54" t="n">
         <v>2</v>
       </c>
+      <c r="IF54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40075,6 +40237,9 @@
       <c r="IE55" t="n">
         <v>12</v>
       </c>
+      <c r="IF55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40796,6 +40961,9 @@
       <c r="IE56" t="n">
         <v>75</v>
       </c>
+      <c r="IF56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41517,6 +41685,9 @@
       <c r="IE57" t="n">
         <v>216</v>
       </c>
+      <c r="IF57" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42238,6 +42409,9 @@
       <c r="IE58" t="n">
         <v>123</v>
       </c>
+      <c r="IF58" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42959,6 +43133,9 @@
       <c r="IE59" t="n">
         <v>339</v>
       </c>
+      <c r="IF59" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43680,6 +43857,9 @@
       <c r="IE60" t="n">
         <v>1.76</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44401,6 +44581,9 @@
       <c r="IE61" t="n">
         <v>91</v>
       </c>
+      <c r="IF61" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45122,6 +45305,9 @@
       <c r="IE62" t="n">
         <v>38</v>
       </c>
+      <c r="IF62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45843,6 +46029,9 @@
       <c r="IE63" t="n">
         <v>39</v>
       </c>
+      <c r="IF63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46564,6 +46753,9 @@
       <c r="IE64" t="n">
         <v>20</v>
       </c>
+      <c r="IF64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47285,6 +47477,9 @@
       <c r="IE65" t="n">
         <v>24</v>
       </c>
+      <c r="IF65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48006,6 +48201,9 @@
       <c r="IE66" t="n">
         <v>12</v>
       </c>
+      <c r="IF66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48727,6 +48925,9 @@
       <c r="IE67" t="n">
         <v>8</v>
       </c>
+      <c r="IF67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49448,6 +49649,9 @@
       <c r="IE68" t="n">
         <v>6</v>
       </c>
+      <c r="IF68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50169,6 +50373,9 @@
       <c r="IE69" t="n">
         <v>2</v>
       </c>
+      <c r="IF69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50890,6 +51097,9 @@
       <c r="IE70" t="n">
         <v>20</v>
       </c>
+      <c r="IF70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51611,6 +51821,9 @@
       <c r="IE71" t="n">
         <v>60</v>
       </c>
+      <c r="IF71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52332,6 +52545,9 @@
       <c r="IE72" t="n">
         <v>28.25</v>
       </c>
+      <c r="IF72" t="n">
+        <v>35.17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53053,6 +53269,9 @@
       <c r="IE73" t="n">
         <v>16.95</v>
       </c>
+      <c r="IF73" t="n">
+        <v>19.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53774,6 +53993,9 @@
       <c r="IE74" t="n">
         <v>35</v>
       </c>
+      <c r="IF74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54495,6 +54717,9 @@
       <c r="IE75" t="n">
         <v>66</v>
       </c>
+      <c r="IF75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55216,6 +55441,9 @@
       <c r="IE76" t="n">
         <v>42</v>
       </c>
+      <c r="IF76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55937,6 +56165,9 @@
       <c r="IE77" t="n">
         <v>42</v>
       </c>
+      <c r="IF77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56658,6 +56889,9 @@
       <c r="IE78" t="n">
         <v>2.1</v>
       </c>
+      <c r="IF78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57379,6 +57613,9 @@
       <c r="IE79" t="n">
         <v>3.5</v>
       </c>
+      <c r="IF79" t="n">
+        <v>4.58</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58100,6 +58337,9 @@
       <c r="IE80" t="n">
         <v>42.9</v>
       </c>
+      <c r="IF80" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58821,6 +59061,9 @@
       <c r="IE81" t="n">
         <v>28.6</v>
       </c>
+      <c r="IF81" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59542,6 +59785,9 @@
       <c r="IE82" t="n">
         <v>189</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60263,6 +60509,9 @@
       <c r="IE83" t="n">
         <v>86.8</v>
       </c>
+      <c r="IF83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60984,6 +61233,9 @@
       <c r="IE84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IF84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61705,6 +61957,9 @@
       <c r="IE85" t="n">
         <v>91.09999999999999</v>
       </c>
+      <c r="IF85" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62426,6 +62681,9 @@
       <c r="IE86" t="n">
         <v>12</v>
       </c>
+      <c r="IF86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63147,6 +63405,9 @@
       <c r="IE87" t="n">
         <v>3</v>
       </c>
+      <c r="IF87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63868,6 +64129,9 @@
       <c r="IE88" t="n">
         <v>1</v>
       </c>
+      <c r="IF88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64589,6 +64853,9 @@
       <c r="IE89" t="n">
         <v>6</v>
       </c>
+      <c r="IF89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65310,6 +65577,9 @@
       <c r="IE90" t="n">
         <v>122</v>
       </c>
+      <c r="IF90" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66031,6 +66301,9 @@
       <c r="IE91" t="n">
         <v>211</v>
       </c>
+      <c r="IF91" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66752,6 +67025,9 @@
       <c r="IE92" t="n">
         <v>250</v>
       </c>
+      <c r="IF92" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67473,6 +67749,9 @@
       <c r="IE93" t="n">
         <v>73.7</v>
       </c>
+      <c r="IF93" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68194,6 +68473,9 @@
       <c r="IE94" t="n">
         <v>66</v>
       </c>
+      <c r="IF94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68915,6 +69197,9 @@
       <c r="IE95" t="n">
         <v>6</v>
       </c>
+      <c r="IF95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69636,6 +69921,9 @@
       <c r="IE96" t="n">
         <v>9</v>
       </c>
+      <c r="IF96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70357,6 +70645,9 @@
       <c r="IE97" t="n">
         <v>35</v>
       </c>
+      <c r="IF97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71078,6 +71369,9 @@
       <c r="IE98" t="n">
         <v>42</v>
       </c>
+      <c r="IF98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71799,6 +72093,9 @@
       <c r="IE99" t="n">
         <v>62</v>
       </c>
+      <c r="IF99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72520,6 +72817,9 @@
       <c r="IE100" t="n">
         <v>4</v>
       </c>
+      <c r="IF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73241,6 +73541,9 @@
       <c r="IE101" t="n">
         <v>8</v>
       </c>
+      <c r="IF101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73962,6 +74265,9 @@
       <c r="IE102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IF102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,6 +1144,9 @@
       <c r="IF1" t="n">
         <v>10558</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10565</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1868,6 +1871,9 @@
       <c r="IF2" t="n">
         <v>2022</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2592,6 +2598,9 @@
       <c r="IF3" t="n">
         <v>2</v>
       </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3316,6 +3325,9 @@
       <c r="IF4" t="n">
         <v>0</v>
       </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4040,6 +4052,9 @@
       <c r="IF5" t="n">
         <v>1</v>
       </c>
+      <c r="IG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4764,6 +4779,9 @@
       <c r="IF6" t="n">
         <v>69</v>
       </c>
+      <c r="IG6" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5488,6 +5506,9 @@
       <c r="IF7" t="n">
         <v>82</v>
       </c>
+      <c r="IG7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6212,6 +6233,9 @@
       <c r="IF8" t="n">
         <v>-13</v>
       </c>
+      <c r="IG8" t="n">
+        <v>-26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6936,6 +6960,9 @@
       <c r="IF9" t="n">
         <v>0</v>
       </c>
+      <c r="IG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7660,6 +7687,9 @@
       <c r="IF10" t="n">
         <v>11</v>
       </c>
+      <c r="IG10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8384,6 +8414,9 @@
       <c r="IF11" t="n">
         <v>199</v>
       </c>
+      <c r="IG11" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9108,6 +9141,9 @@
       <c r="IF12" t="n">
         <v>101</v>
       </c>
+      <c r="IG12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9832,6 +9868,9 @@
       <c r="IF13" t="n">
         <v>300</v>
       </c>
+      <c r="IG13" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10556,6 +10595,9 @@
       <c r="IF14" t="n">
         <v>1.97</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11280,6 +11322,9 @@
       <c r="IF15" t="n">
         <v>73</v>
       </c>
+      <c r="IG15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12004,6 +12049,9 @@
       <c r="IF16" t="n">
         <v>51</v>
       </c>
+      <c r="IG16" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12728,6 +12776,9 @@
       <c r="IF17" t="n">
         <v>49</v>
       </c>
+      <c r="IG17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13452,6 +13503,9 @@
       <c r="IF18" t="n">
         <v>17</v>
       </c>
+      <c r="IG18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14176,6 +14230,9 @@
       <c r="IF19" t="n">
         <v>20</v>
       </c>
+      <c r="IG19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14900,6 +14957,9 @@
       <c r="IF20" t="n">
         <v>10</v>
       </c>
+      <c r="IG20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15624,6 +15684,9 @@
       <c r="IF21" t="n">
         <v>7</v>
       </c>
+      <c r="IG21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16348,6 +16411,9 @@
       <c r="IF22" t="n">
         <v>8</v>
       </c>
+      <c r="IG22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17072,6 +17138,9 @@
       <c r="IF23" t="n">
         <v>1</v>
       </c>
+      <c r="IG23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17796,6 +17865,9 @@
       <c r="IF24" t="n">
         <v>19</v>
       </c>
+      <c r="IG24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18520,6 +18592,9 @@
       <c r="IF25" t="n">
         <v>52.6</v>
       </c>
+      <c r="IG25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19244,6 +19319,9 @@
       <c r="IF26" t="n">
         <v>30</v>
       </c>
+      <c r="IG26" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19968,6 +20046,9 @@
       <c r="IF27" t="n">
         <v>15.79</v>
       </c>
+      <c r="IG27" t="n">
+        <v>17.65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20692,6 +20773,9 @@
       <c r="IF28" t="n">
         <v>40</v>
       </c>
+      <c r="IG28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21416,6 +21500,9 @@
       <c r="IF29" t="n">
         <v>66</v>
       </c>
+      <c r="IG29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22140,6 +22227,9 @@
       <c r="IF30" t="n">
         <v>41</v>
       </c>
+      <c r="IG30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22864,6 +22954,9 @@
       <c r="IF31" t="n">
         <v>60</v>
       </c>
+      <c r="IG31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23588,6 +23681,9 @@
       <c r="IF32" t="n">
         <v>3.16</v>
       </c>
+      <c r="IG32" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24312,6 +24408,9 @@
       <c r="IF33" t="n">
         <v>6</v>
       </c>
+      <c r="IG33" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25036,6 +25135,9 @@
       <c r="IF34" t="n">
         <v>30</v>
       </c>
+      <c r="IG34" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25760,6 +25862,9 @@
       <c r="IF35" t="n">
         <v>16.7</v>
       </c>
+      <c r="IG35" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26484,6 +26589,9 @@
       <c r="IF36" t="n">
         <v>189.3</v>
       </c>
+      <c r="IG36" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27208,6 +27316,9 @@
       <c r="IF37" t="n">
         <v>87.5</v>
       </c>
+      <c r="IG37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27932,6 +28043,9 @@
       <c r="IF38" t="n">
         <v>25</v>
       </c>
+      <c r="IG38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28656,6 +28770,9 @@
       <c r="IF39" t="n">
         <v>82</v>
       </c>
+      <c r="IG39" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29380,6 +29497,9 @@
       <c r="IF40" t="n">
         <v>7</v>
       </c>
+      <c r="IG40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30104,6 +30224,9 @@
       <c r="IF41" t="n">
         <v>7</v>
       </c>
+      <c r="IG41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30828,6 +30951,9 @@
       <c r="IF42" t="n">
         <v>4</v>
       </c>
+      <c r="IG42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31552,6 +31678,9 @@
       <c r="IF43" t="n">
         <v>4</v>
       </c>
+      <c r="IG43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32276,6 +32405,9 @@
       <c r="IF44" t="n">
         <v>148</v>
       </c>
+      <c r="IG44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33000,6 +33132,9 @@
       <c r="IF45" t="n">
         <v>157</v>
       </c>
+      <c r="IG45" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33724,6 +33859,9 @@
       <c r="IF46" t="n">
         <v>201</v>
       </c>
+      <c r="IG46" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34448,6 +34586,9 @@
       <c r="IF47" t="n">
         <v>67</v>
       </c>
+      <c r="IG47" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35172,6 +35313,9 @@
       <c r="IF48" t="n">
         <v>66</v>
       </c>
+      <c r="IG48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35896,6 +36040,9 @@
       <c r="IF49" t="n">
         <v>9</v>
       </c>
+      <c r="IG49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36620,6 +36767,9 @@
       <c r="IF50" t="n">
         <v>10</v>
       </c>
+      <c r="IG50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37344,6 +37494,9 @@
       <c r="IF51" t="n">
         <v>40</v>
       </c>
+      <c r="IG51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38068,6 +38221,9 @@
       <c r="IF52" t="n">
         <v>41</v>
       </c>
+      <c r="IG52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38792,6 +38948,9 @@
       <c r="IF53" t="n">
         <v>80</v>
       </c>
+      <c r="IG53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39516,6 +39675,9 @@
       <c r="IF54" t="n">
         <v>4</v>
       </c>
+      <c r="IG54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40240,6 +40402,9 @@
       <c r="IF55" t="n">
         <v>7</v>
       </c>
+      <c r="IG55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40964,6 +41129,9 @@
       <c r="IF56" t="n">
         <v>70</v>
       </c>
+      <c r="IG56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41688,6 +41856,9 @@
       <c r="IF57" t="n">
         <v>253</v>
       </c>
+      <c r="IG57" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42412,6 +42583,9 @@
       <c r="IF58" t="n">
         <v>169</v>
       </c>
+      <c r="IG58" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43136,6 +43310,9 @@
       <c r="IF59" t="n">
         <v>422</v>
       </c>
+      <c r="IG59" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43860,6 +44037,9 @@
       <c r="IF60" t="n">
         <v>1.5</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44584,6 +44764,9 @@
       <c r="IF61" t="n">
         <v>92</v>
       </c>
+      <c r="IG61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45308,6 +45491,9 @@
       <c r="IF62" t="n">
         <v>64</v>
       </c>
+      <c r="IG62" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46032,6 +46218,9 @@
       <c r="IF63" t="n">
         <v>35</v>
       </c>
+      <c r="IG63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46756,6 +46945,9 @@
       <c r="IF64" t="n">
         <v>20</v>
       </c>
+      <c r="IG64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47480,6 +47672,9 @@
       <c r="IF65" t="n">
         <v>17</v>
       </c>
+      <c r="IG65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48204,6 +48399,9 @@
       <c r="IF66" t="n">
         <v>12</v>
       </c>
+      <c r="IG66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48928,6 +49126,9 @@
       <c r="IF67" t="n">
         <v>6</v>
       </c>
+      <c r="IG67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49652,6 +49853,9 @@
       <c r="IF68" t="n">
         <v>8</v>
       </c>
+      <c r="IG68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50376,6 +50580,9 @@
       <c r="IF69" t="n">
         <v>2</v>
       </c>
+      <c r="IG69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51100,6 +51307,9 @@
       <c r="IF70" t="n">
         <v>22</v>
       </c>
+      <c r="IG70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51824,6 +52034,9 @@
       <c r="IF71" t="n">
         <v>54.5</v>
       </c>
+      <c r="IG71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52548,6 +52761,9 @@
       <c r="IF72" t="n">
         <v>35.17</v>
       </c>
+      <c r="IG72" t="n">
+        <v>32.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53272,6 +53488,9 @@
       <c r="IF73" t="n">
         <v>19.18</v>
       </c>
+      <c r="IG73" t="n">
+        <v>17.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53996,6 +54215,9 @@
       <c r="IF74" t="n">
         <v>47</v>
       </c>
+      <c r="IG74" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54720,6 +54942,9 @@
       <c r="IF75" t="n">
         <v>61</v>
       </c>
+      <c r="IG75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55444,6 +55669,9 @@
       <c r="IF76" t="n">
         <v>49</v>
       </c>
+      <c r="IG76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56168,6 +56396,9 @@
       <c r="IF77" t="n">
         <v>55</v>
       </c>
+      <c r="IG77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56892,6 +57123,9 @@
       <c r="IF78" t="n">
         <v>2.5</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57616,6 +57850,9 @@
       <c r="IF79" t="n">
         <v>4.58</v>
       </c>
+      <c r="IG79" t="n">
+        <v>4.58</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58340,6 +58577,9 @@
       <c r="IF80" t="n">
         <v>36.4</v>
       </c>
+      <c r="IG80" t="n">
+        <v>41.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59064,6 +59304,9 @@
       <c r="IF81" t="n">
         <v>21.8</v>
       </c>
+      <c r="IG81" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59788,6 +60031,9 @@
       <c r="IF82" t="n">
         <v>187.3</v>
       </c>
+      <c r="IG82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60512,6 +60758,9 @@
       <c r="IF83" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="IG83" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61236,6 +61485,9 @@
       <c r="IF84" t="n">
         <v>25.33</v>
       </c>
+      <c r="IG84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61960,6 +62212,9 @@
       <c r="IF85" t="n">
         <v>97.2</v>
       </c>
+      <c r="IG85" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62684,6 +62939,9 @@
       <c r="IF86" t="n">
         <v>7</v>
       </c>
+      <c r="IG86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63408,6 +63666,9 @@
       <c r="IF87" t="n">
         <v>3</v>
       </c>
+      <c r="IG87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64132,6 +64393,9 @@
       <c r="IF88" t="n">
         <v>7</v>
       </c>
+      <c r="IG88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64856,6 +65120,9 @@
       <c r="IF89" t="n">
         <v>5</v>
       </c>
+      <c r="IG89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65580,6 +65847,9 @@
       <c r="IF90" t="n">
         <v>171</v>
       </c>
+      <c r="IG90" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66304,6 +66574,9 @@
       <c r="IF91" t="n">
         <v>243</v>
       </c>
+      <c r="IG91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67028,6 +67301,9 @@
       <c r="IF92" t="n">
         <v>293</v>
       </c>
+      <c r="IG92" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67752,6 +68028,9 @@
       <c r="IF93" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="IG93" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68476,6 +68755,9 @@
       <c r="IF94" t="n">
         <v>61</v>
       </c>
+      <c r="IG94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69200,6 +69482,9 @@
       <c r="IF95" t="n">
         <v>5</v>
       </c>
+      <c r="IG95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69924,6 +70209,9 @@
       <c r="IF96" t="n">
         <v>6</v>
       </c>
+      <c r="IG96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70648,6 +70936,9 @@
       <c r="IF97" t="n">
         <v>47</v>
       </c>
+      <c r="IG97" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71372,6 +71663,9 @@
       <c r="IF98" t="n">
         <v>49</v>
       </c>
+      <c r="IG98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72096,6 +72390,9 @@
       <c r="IF99" t="n">
         <v>56</v>
       </c>
+      <c r="IG99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72820,6 +73117,9 @@
       <c r="IF100" t="n">
         <v>0</v>
       </c>
+      <c r="IG100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73544,6 +73844,9 @@
       <c r="IF101" t="n">
         <v>6</v>
       </c>
+      <c r="IG101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74268,6 +74571,9 @@
       <c r="IF102" t="n">
         <v>50</v>
       </c>
+      <c r="IG102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,9 @@
       <c r="IH1" t="n">
         <v>10579</v>
       </c>
+      <c r="II1" t="n">
+        <v>10583</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1880,6 +1883,9 @@
       <c r="IH2" t="n">
         <v>2022</v>
       </c>
+      <c r="II2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2610,6 +2616,9 @@
       <c r="IH3" t="n">
         <v>4</v>
       </c>
+      <c r="II3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3340,6 +3349,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4070,6 +4082,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4800,6 +4815,9 @@
       <c r="IH6" t="n">
         <v>92</v>
       </c>
+      <c r="II6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5530,6 +5548,9 @@
       <c r="IH7" t="n">
         <v>62</v>
       </c>
+      <c r="II7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6260,6 +6281,9 @@
       <c r="IH8" t="n">
         <v>30</v>
       </c>
+      <c r="II8" t="n">
+        <v>-26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6990,6 +7014,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7720,6 +7747,9 @@
       <c r="IH10" t="n">
         <v>3</v>
       </c>
+      <c r="II10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8450,6 +8480,9 @@
       <c r="IH11" t="n">
         <v>216</v>
       </c>
+      <c r="II11" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9180,6 +9213,9 @@
       <c r="IH12" t="n">
         <v>129</v>
       </c>
+      <c r="II12" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9910,6 +9946,9 @@
       <c r="IH13" t="n">
         <v>345</v>
       </c>
+      <c r="II13" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10640,6 +10679,9 @@
       <c r="IH14" t="n">
         <v>1.67</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11370,6 +11412,9 @@
       <c r="IH15" t="n">
         <v>79</v>
       </c>
+      <c r="II15" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12100,6 +12145,9 @@
       <c r="IH16" t="n">
         <v>35</v>
       </c>
+      <c r="II16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12830,6 +12878,9 @@
       <c r="IH17" t="n">
         <v>52</v>
       </c>
+      <c r="II17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13560,6 +13611,9 @@
       <c r="IH18" t="n">
         <v>17</v>
       </c>
+      <c r="II18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14290,6 +14344,9 @@
       <c r="IH19" t="n">
         <v>21</v>
       </c>
+      <c r="II19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15020,6 +15077,9 @@
       <c r="IH20" t="n">
         <v>13</v>
       </c>
+      <c r="II20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15750,6 +15810,9 @@
       <c r="IH21" t="n">
         <v>10</v>
       </c>
+      <c r="II21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16480,6 +16543,9 @@
       <c r="IH22" t="n">
         <v>13</v>
       </c>
+      <c r="II22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17210,6 +17276,9 @@
       <c r="IH23" t="n">
         <v>1</v>
       </c>
+      <c r="II23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17940,6 +18009,9 @@
       <c r="IH24" t="n">
         <v>27</v>
       </c>
+      <c r="II24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18670,6 +18742,9 @@
       <c r="IH25" t="n">
         <v>48.1</v>
       </c>
+      <c r="II25" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19400,6 +19475,9 @@
       <c r="IH26" t="n">
         <v>26.54</v>
       </c>
+      <c r="II26" t="n">
+        <v>36.56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20130,6 +20208,9 @@
       <c r="IH27" t="n">
         <v>12.78</v>
       </c>
+      <c r="II27" t="n">
+        <v>20.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20860,6 +20941,9 @@
       <c r="IH28" t="n">
         <v>43</v>
       </c>
+      <c r="II28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21590,6 +21674,9 @@
       <c r="IH29" t="n">
         <v>60</v>
       </c>
+      <c r="II29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22320,6 +22407,9 @@
       <c r="IH30" t="n">
         <v>39</v>
       </c>
+      <c r="II30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23050,6 +23140,9 @@
       <c r="IH31" t="n">
         <v>64</v>
       </c>
+      <c r="II31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23780,6 +23873,9 @@
       <c r="IH32" t="n">
         <v>2.37</v>
       </c>
+      <c r="II32" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24510,6 +24606,9 @@
       <c r="IH33" t="n">
         <v>4.92</v>
       </c>
+      <c r="II33" t="n">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25240,6 +25339,9 @@
       <c r="IH34" t="n">
         <v>40.6</v>
       </c>
+      <c r="II34" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25970,6 +26072,9 @@
       <c r="IH35" t="n">
         <v>20.3</v>
       </c>
+      <c r="II35" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26700,6 +26805,9 @@
       <c r="IH36" t="n">
         <v>188.2</v>
       </c>
+      <c r="II36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27430,6 +27538,9 @@
       <c r="IH37" t="n">
         <v>86.3</v>
       </c>
+      <c r="II37" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28160,6 +28271,9 @@
       <c r="IH38" t="n">
         <v>25.16</v>
       </c>
+      <c r="II38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28890,6 +29004,9 @@
       <c r="IH39" t="n">
         <v>79.5</v>
       </c>
+      <c r="II39" t="n">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29620,6 +29737,9 @@
       <c r="IH40" t="n">
         <v>8</v>
       </c>
+      <c r="II40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30350,6 +30470,9 @@
       <c r="IH41" t="n">
         <v>7</v>
       </c>
+      <c r="II41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31080,6 +31203,9 @@
       <c r="IH42" t="n">
         <v>5</v>
       </c>
+      <c r="II42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31810,6 +31936,9 @@
       <c r="IH43" t="n">
         <v>3</v>
       </c>
+      <c r="II43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32540,6 +32669,9 @@
       <c r="IH44" t="n">
         <v>142</v>
       </c>
+      <c r="II44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33270,6 +33402,9 @@
       <c r="IH45" t="n">
         <v>192</v>
       </c>
+      <c r="II45" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34000,6 +34135,9 @@
       <c r="IH46" t="n">
         <v>235</v>
       </c>
+      <c r="II46" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34730,6 +34868,9 @@
       <c r="IH47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="II47" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35460,6 +35601,9 @@
       <c r="IH48" t="n">
         <v>60</v>
       </c>
+      <c r="II48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36190,6 +36334,9 @@
       <c r="IH49" t="n">
         <v>12</v>
       </c>
+      <c r="II49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36920,6 +37067,9 @@
       <c r="IH50" t="n">
         <v>13</v>
       </c>
+      <c r="II50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37650,6 +37800,9 @@
       <c r="IH51" t="n">
         <v>43</v>
       </c>
+      <c r="II51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38380,6 +38533,9 @@
       <c r="IH52" t="n">
         <v>39</v>
       </c>
+      <c r="II52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39110,6 +39266,9 @@
       <c r="IH53" t="n">
         <v>46</v>
       </c>
+      <c r="II53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39840,6 +39999,9 @@
       <c r="IH54" t="n">
         <v>3</v>
       </c>
+      <c r="II54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40570,6 +40732,9 @@
       <c r="IH55" t="n">
         <v>10</v>
       </c>
+      <c r="II55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41300,6 +41465,9 @@
       <c r="IH56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="II56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42030,6 +42198,9 @@
       <c r="IH57" t="n">
         <v>233</v>
       </c>
+      <c r="II57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42760,6 +42931,9 @@
       <c r="IH58" t="n">
         <v>148</v>
       </c>
+      <c r="II58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43490,6 +43664,9 @@
       <c r="IH59" t="n">
         <v>381</v>
       </c>
+      <c r="II59" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44220,6 +44397,9 @@
       <c r="IH60" t="n">
         <v>1.57</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44950,6 +45130,9 @@
       <c r="IH61" t="n">
         <v>101</v>
       </c>
+      <c r="II61" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45680,6 +45863,9 @@
       <c r="IH62" t="n">
         <v>67</v>
       </c>
+      <c r="II62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46410,6 +46596,9 @@
       <c r="IH63" t="n">
         <v>19</v>
       </c>
+      <c r="II63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47140,6 +47329,9 @@
       <c r="IH64" t="n">
         <v>21</v>
       </c>
+      <c r="II64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47870,6 +48062,9 @@
       <c r="IH65" t="n">
         <v>17</v>
       </c>
+      <c r="II65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48600,6 +48795,9 @@
       <c r="IH66" t="n">
         <v>8</v>
       </c>
+      <c r="II66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49330,6 +49528,9 @@
       <c r="IH67" t="n">
         <v>5</v>
       </c>
+      <c r="II67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50060,6 +50261,9 @@
       <c r="IH68" t="n">
         <v>13</v>
       </c>
+      <c r="II68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50790,6 +50994,9 @@
       <c r="IH69" t="n">
         <v>1</v>
       </c>
+      <c r="II69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51520,6 +51727,9 @@
       <c r="IH70" t="n">
         <v>22</v>
       </c>
+      <c r="II70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52250,6 +52460,9 @@
       <c r="IH71" t="n">
         <v>36.4</v>
       </c>
+      <c r="II71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52980,6 +53193,9 @@
       <c r="IH72" t="n">
         <v>47.62</v>
       </c>
+      <c r="II72" t="n">
+        <v>30.54</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53710,6 +53926,9 @@
       <c r="IH73" t="n">
         <v>17.32</v>
       </c>
+      <c r="II73" t="n">
+        <v>18.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54440,6 +54659,9 @@
       <c r="IH74" t="n">
         <v>27</v>
       </c>
+      <c r="II74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55170,6 +55392,9 @@
       <c r="IH75" t="n">
         <v>66</v>
       </c>
+      <c r="II75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55900,6 +56125,9 @@
       <c r="IH76" t="n">
         <v>50</v>
       </c>
+      <c r="II76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56630,6 +56858,9 @@
       <c r="IH77" t="n">
         <v>47</v>
       </c>
+      <c r="II77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57360,6 +57591,9 @@
       <c r="IH78" t="n">
         <v>2.14</v>
       </c>
+      <c r="II78" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58090,6 +58324,9 @@
       <c r="IH79" t="n">
         <v>5.88</v>
       </c>
+      <c r="II79" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58820,6 +59057,9 @@
       <c r="IH80" t="n">
         <v>44.7</v>
       </c>
+      <c r="II80" t="n">
+        <v>41.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59550,6 +59790,9 @@
       <c r="IH81" t="n">
         <v>17</v>
       </c>
+      <c r="II81" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60280,6 +60523,9 @@
       <c r="IH82" t="n">
         <v>188.9</v>
       </c>
+      <c r="II82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61010,6 +61256,9 @@
       <c r="IH83" t="n">
         <v>87.3</v>
       </c>
+      <c r="II83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61740,6 +61989,9 @@
       <c r="IH84" t="n">
         <v>25.8</v>
       </c>
+      <c r="II84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62470,6 +62722,9 @@
       <c r="IH85" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="II85" t="n">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63200,6 +63455,9 @@
       <c r="IH86" t="n">
         <v>7</v>
       </c>
+      <c r="II86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63930,6 +64188,9 @@
       <c r="IH87" t="n">
         <v>8</v>
       </c>
+      <c r="II87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64660,6 +64921,9 @@
       <c r="IH88" t="n">
         <v>8</v>
       </c>
+      <c r="II88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65390,6 +65654,9 @@
       <c r="IH89" t="n">
         <v>0</v>
       </c>
+      <c r="II89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66120,6 +66387,9 @@
       <c r="IH90" t="n">
         <v>129</v>
       </c>
+      <c r="II90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66850,6 +67120,9 @@
       <c r="IH91" t="n">
         <v>237</v>
       </c>
+      <c r="II91" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67580,6 +67853,9 @@
       <c r="IH92" t="n">
         <v>282</v>
       </c>
+      <c r="II92" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68310,6 +68586,9 @@
       <c r="IH93" t="n">
         <v>74</v>
       </c>
+      <c r="II93" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69040,6 +69319,9 @@
       <c r="IH94" t="n">
         <v>66</v>
       </c>
+      <c r="II94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69770,6 +70052,9 @@
       <c r="IH95" t="n">
         <v>9</v>
       </c>
+      <c r="II95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70500,6 +70785,9 @@
       <c r="IH96" t="n">
         <v>10</v>
       </c>
+      <c r="II96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71230,6 +71518,9 @@
       <c r="IH97" t="n">
         <v>27</v>
       </c>
+      <c r="II97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71960,6 +72251,9 @@
       <c r="IH98" t="n">
         <v>50</v>
       </c>
+      <c r="II98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72690,6 +72984,9 @@
       <c r="IH99" t="n">
         <v>56</v>
       </c>
+      <c r="II99" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73420,6 +73717,9 @@
       <c r="IH100" t="n">
         <v>15</v>
       </c>
+      <c r="II100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74150,6 +74450,9 @@
       <c r="IH101" t="n">
         <v>5</v>
       </c>
+      <c r="II101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74880,6 +75183,9 @@
       <c r="IH102" t="n">
         <v>62.5</v>
       </c>
+      <c r="II102" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,6 +1153,9 @@
       <c r="II1" t="n">
         <v>10583</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10594</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1886,6 +1889,9 @@
       <c r="II2" t="n">
         <v>2022</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2619,6 +2625,9 @@
       <c r="II3" t="n">
         <v>5</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3352,6 +3361,9 @@
       <c r="II4" t="n">
         <v>1</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4085,6 +4097,9 @@
       <c r="II5" t="n">
         <v>0</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4818,6 +4833,9 @@
       <c r="II6" t="n">
         <v>61</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5551,6 +5569,9 @@
       <c r="II7" t="n">
         <v>87</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6284,6 +6305,9 @@
       <c r="II8" t="n">
         <v>-26</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7017,6 +7041,9 @@
       <c r="II9" t="n">
         <v>0</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7750,6 +7777,9 @@
       <c r="II10" t="n">
         <v>15</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8483,6 +8513,9 @@
       <c r="II11" t="n">
         <v>211</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9216,6 +9249,9 @@
       <c r="II12" t="n">
         <v>118</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9949,6 +9985,9 @@
       <c r="II13" t="n">
         <v>329</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10682,6 +10721,9 @@
       <c r="II14" t="n">
         <v>1.79</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11415,6 +11457,9 @@
       <c r="II15" t="n">
         <v>108</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12148,6 +12193,9 @@
       <c r="II16" t="n">
         <v>45</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12881,6 +12929,9 @@
       <c r="II17" t="n">
         <v>37</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13614,6 +13665,9 @@
       <c r="II18" t="n">
         <v>15</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14347,6 +14401,9 @@
       <c r="II19" t="n">
         <v>18</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15080,6 +15137,9 @@
       <c r="II20" t="n">
         <v>9</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15813,6 +15873,9 @@
       <c r="II21" t="n">
         <v>7</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16546,6 +16609,9 @@
       <c r="II22" t="n">
         <v>4</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17279,6 +17345,9 @@
       <c r="II23" t="n">
         <v>3</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18012,6 +18081,9 @@
       <c r="II24" t="n">
         <v>16</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18745,6 +18817,9 @@
       <c r="II25" t="n">
         <v>56.2</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19478,6 +19553,9 @@
       <c r="II26" t="n">
         <v>36.56</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>30.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20211,6 +20289,9 @@
       <c r="II27" t="n">
         <v>20.56</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>13.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20944,6 +21025,9 @@
       <c r="II28" t="n">
         <v>24</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21677,6 +21761,9 @@
       <c r="II29" t="n">
         <v>51</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22410,6 +22497,9 @@
       <c r="II30" t="n">
         <v>39</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23143,6 +23233,9 @@
       <c r="II31" t="n">
         <v>56</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23876,6 +23969,9 @@
       <c r="II32" t="n">
         <v>3.5</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24609,6 +24705,9 @@
       <c r="II33" t="n">
         <v>6.22</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25342,6 +25441,9 @@
       <c r="II34" t="n">
         <v>23.2</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26075,6 +26177,9 @@
       <c r="II35" t="n">
         <v>16.1</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26808,6 +26913,9 @@
       <c r="II36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27541,6 +27649,9 @@
       <c r="II37" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28274,6 +28385,9 @@
       <c r="II38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29007,6 +29121,9 @@
       <c r="II39" t="n">
         <v>79.5</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>80.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29740,6 +29857,9 @@
       <c r="II40" t="n">
         <v>9</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30473,6 +30593,9 @@
       <c r="II41" t="n">
         <v>6</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31206,6 +31329,9 @@
       <c r="II42" t="n">
         <v>5</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31939,6 +32065,9 @@
       <c r="II43" t="n">
         <v>3</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32672,6 +32801,9 @@
       <c r="II44" t="n">
         <v>120</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33405,6 +33537,9 @@
       <c r="II45" t="n">
         <v>207</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34138,6 +34273,9 @@
       <c r="II46" t="n">
         <v>244</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34871,6 +35009,9 @@
       <c r="II47" t="n">
         <v>74.2</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35604,6 +35745,9 @@
       <c r="II48" t="n">
         <v>51</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36337,6 +36481,9 @@
       <c r="II49" t="n">
         <v>12</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37070,6 +37217,9 @@
       <c r="II50" t="n">
         <v>11</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37803,6 +37953,9 @@
       <c r="II51" t="n">
         <v>24</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38536,6 +38689,9 @@
       <c r="II52" t="n">
         <v>39</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39269,6 +39425,9 @@
       <c r="II53" t="n">
         <v>48</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40002,6 +40161,9 @@
       <c r="II54" t="n">
         <v>8</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40735,6 +40897,9 @@
       <c r="II55" t="n">
         <v>7</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41468,6 +41633,9 @@
       <c r="II56" t="n">
         <v>77.8</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42201,6 +42369,9 @@
       <c r="II57" t="n">
         <v>237</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42934,6 +43105,9 @@
       <c r="II58" t="n">
         <v>160</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43667,6 +43841,9 @@
       <c r="II59" t="n">
         <v>397</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44400,6 +44577,9 @@
       <c r="II60" t="n">
         <v>1.48</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45133,6 +45313,9 @@
       <c r="II61" t="n">
         <v>108</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45866,6 +46049,9 @@
       <c r="II62" t="n">
         <v>54</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46599,6 +46785,9 @@
       <c r="II63" t="n">
         <v>27</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47332,6 +47521,9 @@
       <c r="II64" t="n">
         <v>18</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48065,6 +48257,9 @@
       <c r="II65" t="n">
         <v>15</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48798,6 +48993,9 @@
       <c r="II66" t="n">
         <v>13</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49531,6 +49729,9 @@
       <c r="II67" t="n">
         <v>11</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50264,6 +50465,9 @@
       <c r="II68" t="n">
         <v>9</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50997,6 +51201,9 @@
       <c r="II69" t="n">
         <v>0</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51730,6 +51937,9 @@
       <c r="II70" t="n">
         <v>22</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52463,6 +52673,9 @@
       <c r="II71" t="n">
         <v>59.1</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53196,6 +53409,9 @@
       <c r="II72" t="n">
         <v>30.54</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>16.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53929,6 +54145,9 @@
       <c r="II73" t="n">
         <v>18.05</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>12.74</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54662,6 +54881,9 @@
       <c r="II74" t="n">
         <v>42</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55395,6 +55617,9 @@
       <c r="II75" t="n">
         <v>54</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56128,6 +56353,9 @@
       <c r="II76" t="n">
         <v>46</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56861,6 +57089,9 @@
       <c r="II77" t="n">
         <v>53</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57594,6 +57825,9 @@
       <c r="II78" t="n">
         <v>2.41</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58327,6 +58561,9 @@
       <c r="II79" t="n">
         <v>4.08</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59060,6 +59297,9 @@
       <c r="II80" t="n">
         <v>41.5</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59793,6 +60033,9 @@
       <c r="II81" t="n">
         <v>24.5</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60526,6 +60769,9 @@
       <c r="II82" t="n">
         <v>188.1</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61259,6 +61505,9 @@
       <c r="II83" t="n">
         <v>86.3</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61992,6 +62241,9 @@
       <c r="II84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62725,6 +62977,9 @@
       <c r="II85" t="n">
         <v>78.7</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63458,6 +63713,9 @@
       <c r="II86" t="n">
         <v>6</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64191,6 +64449,9 @@
       <c r="II87" t="n">
         <v>9</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64924,6 +65185,9 @@
       <c r="II88" t="n">
         <v>5</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65657,6 +65921,9 @@
       <c r="II89" t="n">
         <v>2</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66390,6 +66657,9 @@
       <c r="II90" t="n">
         <v>138</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67123,6 +67393,9 @@
       <c r="II91" t="n">
         <v>252</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67856,6 +68129,9 @@
       <c r="II92" t="n">
         <v>300</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68589,6 +68865,9 @@
       <c r="II93" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69322,6 +69601,9 @@
       <c r="II94" t="n">
         <v>54</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70055,6 +70337,9 @@
       <c r="II95" t="n">
         <v>12</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70788,6 +71073,9 @@
       <c r="II96" t="n">
         <v>11</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71521,6 +71809,9 @@
       <c r="II97" t="n">
         <v>42</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72254,6 +72545,9 @@
       <c r="II98" t="n">
         <v>46</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72987,6 +73281,9 @@
       <c r="II99" t="n">
         <v>62</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73720,6 +74017,9 @@
       <c r="II100" t="n">
         <v>7</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74453,6 +74753,9 @@
       <c r="II101" t="n">
         <v>11</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75186,6 +75489,9 @@
       <c r="II102" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>61.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,12 @@
       <c r="IJ1" t="n">
         <v>10594</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10604</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10610</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1892,6 +1898,12 @@
       <c r="IJ2" t="n">
         <v>2022</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2628,6 +2640,12 @@
       <c r="IJ3" t="n">
         <v>6</v>
       </c>
+      <c r="IK3" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3364,6 +3382,12 @@
       <c r="IJ4" t="n">
         <v>0</v>
       </c>
+      <c r="IK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4100,6 +4124,12 @@
       <c r="IJ5" t="n">
         <v>1</v>
       </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4836,6 +4866,12 @@
       <c r="IJ6" t="n">
         <v>80</v>
       </c>
+      <c r="IK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5572,6 +5608,12 @@
       <c r="IJ7" t="n">
         <v>132</v>
       </c>
+      <c r="IK7" t="n">
+        <v>115</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6308,6 +6350,12 @@
       <c r="IJ8" t="n">
         <v>-52</v>
       </c>
+      <c r="IK8" t="n">
+        <v>-25</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7044,6 +7092,12 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7780,6 +7834,12 @@
       <c r="IJ10" t="n">
         <v>2</v>
       </c>
+      <c r="IK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8516,6 +8576,12 @@
       <c r="IJ11" t="n">
         <v>213</v>
       </c>
+      <c r="IK11" t="n">
+        <v>198</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9252,6 +9318,12 @@
       <c r="IJ12" t="n">
         <v>118</v>
       </c>
+      <c r="IK12" t="n">
+        <v>129</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9988,6 +10060,12 @@
       <c r="IJ13" t="n">
         <v>331</v>
       </c>
+      <c r="IK13" t="n">
+        <v>327</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10724,6 +10802,12 @@
       <c r="IJ14" t="n">
         <v>1.81</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11460,6 +11544,12 @@
       <c r="IJ15" t="n">
         <v>74</v>
       </c>
+      <c r="IK15" t="n">
+        <v>89</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12196,6 +12286,12 @@
       <c r="IJ16" t="n">
         <v>61</v>
       </c>
+      <c r="IK16" t="n">
+        <v>55</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12932,6 +13028,12 @@
       <c r="IJ17" t="n">
         <v>55</v>
       </c>
+      <c r="IK17" t="n">
+        <v>50</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13668,6 +13770,12 @@
       <c r="IJ18" t="n">
         <v>24</v>
       </c>
+      <c r="IK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14404,6 +14512,12 @@
       <c r="IJ19" t="n">
         <v>30</v>
       </c>
+      <c r="IK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15140,6 +15254,12 @@
       <c r="IJ20" t="n">
         <v>11</v>
       </c>
+      <c r="IK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15876,6 +15996,12 @@
       <c r="IJ21" t="n">
         <v>8</v>
       </c>
+      <c r="IK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16612,6 +16738,12 @@
       <c r="IJ22" t="n">
         <v>10</v>
       </c>
+      <c r="IK22" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17348,6 +17480,12 @@
       <c r="IJ23" t="n">
         <v>4</v>
       </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18084,6 +18222,12 @@
       <c r="IJ24" t="n">
         <v>25</v>
       </c>
+      <c r="IK24" t="n">
+        <v>20</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18820,6 +18964,12 @@
       <c r="IJ25" t="n">
         <v>44</v>
       </c>
+      <c r="IK25" t="n">
+        <v>70</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19556,6 +19706,12 @@
       <c r="IJ26" t="n">
         <v>30.09</v>
       </c>
+      <c r="IK26" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20292,6 +20448,12 @@
       <c r="IJ27" t="n">
         <v>13.24</v>
       </c>
+      <c r="IK27" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>13.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21028,6 +21190,12 @@
       <c r="IJ28" t="n">
         <v>51</v>
       </c>
+      <c r="IK28" t="n">
+        <v>36</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21764,6 +21932,12 @@
       <c r="IJ29" t="n">
         <v>68</v>
       </c>
+      <c r="IK29" t="n">
+        <v>74</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22500,6 +22674,12 @@
       <c r="IJ30" t="n">
         <v>33</v>
       </c>
+      <c r="IK30" t="n">
+        <v>33</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23236,6 +23416,12 @@
       <c r="IJ31" t="n">
         <v>57</v>
       </c>
+      <c r="IK31" t="n">
+        <v>46</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23972,6 +24158,12 @@
       <c r="IJ32" t="n">
         <v>2.28</v>
       </c>
+      <c r="IK32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24708,6 +24900,12 @@
       <c r="IJ33" t="n">
         <v>5.18</v>
       </c>
+      <c r="IK33" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25444,6 +25642,12 @@
       <c r="IJ34" t="n">
         <v>36.8</v>
       </c>
+      <c r="IK34" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>41.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26180,6 +26384,12 @@
       <c r="IJ35" t="n">
         <v>19.3</v>
       </c>
+      <c r="IK35" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26916,6 +27126,12 @@
       <c r="IJ36" t="n">
         <v>188</v>
       </c>
+      <c r="IK36" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IL36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27652,6 +27868,12 @@
       <c r="IJ37" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="IK37" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28388,6 +28610,12 @@
       <c r="IJ38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IK38" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29124,6 +29352,12 @@
       <c r="IJ39" t="n">
         <v>80.40000000000001</v>
       </c>
+      <c r="IK39" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29860,6 +30094,12 @@
       <c r="IJ40" t="n">
         <v>9</v>
       </c>
+      <c r="IK40" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30596,6 +30836,12 @@
       <c r="IJ41" t="n">
         <v>6</v>
       </c>
+      <c r="IK41" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31332,6 +31578,12 @@
       <c r="IJ42" t="n">
         <v>4</v>
       </c>
+      <c r="IK42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32068,6 +32320,12 @@
       <c r="IJ43" t="n">
         <v>3</v>
       </c>
+      <c r="IK43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32804,6 +33062,12 @@
       <c r="IJ44" t="n">
         <v>159</v>
       </c>
+      <c r="IK44" t="n">
+        <v>123</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33540,6 +33804,12 @@
       <c r="IJ45" t="n">
         <v>169</v>
       </c>
+      <c r="IK45" t="n">
+        <v>199</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34276,6 +34546,12 @@
       <c r="IJ46" t="n">
         <v>221</v>
       </c>
+      <c r="IK46" t="n">
+        <v>239</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35012,6 +35288,12 @@
       <c r="IJ47" t="n">
         <v>66.8</v>
       </c>
+      <c r="IK47" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35748,6 +36030,12 @@
       <c r="IJ48" t="n">
         <v>68</v>
       </c>
+      <c r="IK48" t="n">
+        <v>74</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36484,6 +36772,12 @@
       <c r="IJ49" t="n">
         <v>10</v>
       </c>
+      <c r="IK49" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37220,6 +37514,12 @@
       <c r="IJ50" t="n">
         <v>7</v>
       </c>
+      <c r="IK50" t="n">
+        <v>16</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37956,6 +38256,12 @@
       <c r="IJ51" t="n">
         <v>51</v>
       </c>
+      <c r="IK51" t="n">
+        <v>36</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38692,6 +38998,12 @@
       <c r="IJ52" t="n">
         <v>33</v>
       </c>
+      <c r="IK52" t="n">
+        <v>33</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39428,6 +39740,12 @@
       <c r="IJ53" t="n">
         <v>64</v>
       </c>
+      <c r="IK53" t="n">
+        <v>44</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40164,6 +40482,12 @@
       <c r="IJ54" t="n">
         <v>5</v>
       </c>
+      <c r="IK54" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40900,6 +41224,12 @@
       <c r="IJ55" t="n">
         <v>8</v>
       </c>
+      <c r="IK55" t="n">
+        <v>12</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41636,6 +41966,12 @@
       <c r="IJ56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IK56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IL56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42372,6 +42708,12 @@
       <c r="IJ57" t="n">
         <v>214</v>
       </c>
+      <c r="IK57" t="n">
+        <v>208</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43108,6 +43450,12 @@
       <c r="IJ58" t="n">
         <v>130</v>
       </c>
+      <c r="IK58" t="n">
+        <v>148</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43844,6 +44192,12 @@
       <c r="IJ59" t="n">
         <v>344</v>
       </c>
+      <c r="IK59" t="n">
+        <v>356</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44580,6 +44934,12 @@
       <c r="IJ60" t="n">
         <v>1.65</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45316,6 +45676,12 @@
       <c r="IJ61" t="n">
         <v>64</v>
       </c>
+      <c r="IK61" t="n">
+        <v>92</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46052,6 +46418,12 @@
       <c r="IJ62" t="n">
         <v>71</v>
       </c>
+      <c r="IK62" t="n">
+        <v>56</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46788,6 +47160,12 @@
       <c r="IJ63" t="n">
         <v>41</v>
       </c>
+      <c r="IK63" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47524,6 +47902,12 @@
       <c r="IJ64" t="n">
         <v>30</v>
       </c>
+      <c r="IK64" t="n">
+        <v>23</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48260,6 +48644,12 @@
       <c r="IJ65" t="n">
         <v>24</v>
       </c>
+      <c r="IK65" t="n">
+        <v>19</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48996,6 +49386,12 @@
       <c r="IJ66" t="n">
         <v>21</v>
       </c>
+      <c r="IK66" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49732,6 +50128,12 @@
       <c r="IJ67" t="n">
         <v>13</v>
       </c>
+      <c r="IK67" t="n">
+        <v>10</v>
+      </c>
+      <c r="IL67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50468,6 +50870,12 @@
       <c r="IJ68" t="n">
         <v>5</v>
       </c>
+      <c r="IK68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51204,6 +51612,12 @@
       <c r="IJ69" t="n">
         <v>1</v>
       </c>
+      <c r="IK69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51940,6 +52354,12 @@
       <c r="IJ70" t="n">
         <v>27</v>
       </c>
+      <c r="IK70" t="n">
+        <v>30</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52676,6 +53096,12 @@
       <c r="IJ71" t="n">
         <v>77.8</v>
       </c>
+      <c r="IK71" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53412,6 +53838,12 @@
       <c r="IJ72" t="n">
         <v>16.38</v>
       </c>
+      <c r="IK72" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>38.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54148,6 +54580,12 @@
       <c r="IJ73" t="n">
         <v>12.74</v>
       </c>
+      <c r="IK73" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>14.81</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54884,6 +55322,12 @@
       <c r="IJ74" t="n">
         <v>44</v>
       </c>
+      <c r="IK74" t="n">
+        <v>33</v>
+      </c>
+      <c r="IL74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55620,6 +56064,12 @@
       <c r="IJ75" t="n">
         <v>66</v>
       </c>
+      <c r="IK75" t="n">
+        <v>71</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56356,6 +56806,12 @@
       <c r="IJ76" t="n">
         <v>43</v>
       </c>
+      <c r="IK76" t="n">
+        <v>31</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57092,6 +57548,12 @@
       <c r="IJ77" t="n">
         <v>53</v>
       </c>
+      <c r="IK77" t="n">
+        <v>52</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57828,6 +58290,12 @@
       <c r="IJ78" t="n">
         <v>1.96</v>
       </c>
+      <c r="IK78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58564,6 +59032,12 @@
       <c r="IJ79" t="n">
         <v>2.52</v>
       </c>
+      <c r="IK79" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>5.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59300,6 +59774,12 @@
       <c r="IJ80" t="n">
         <v>49.1</v>
       </c>
+      <c r="IK80" t="n">
+        <v>50</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60036,6 +60516,12 @@
       <c r="IJ81" t="n">
         <v>39.6</v>
       </c>
+      <c r="IK81" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60772,6 +61258,12 @@
       <c r="IJ82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IK82" t="n">
+        <v>188</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61508,6 +62000,12 @@
       <c r="IJ83" t="n">
         <v>88</v>
       </c>
+      <c r="IK83" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IL83" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62244,6 +62742,12 @@
       <c r="IJ84" t="n">
         <v>26</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62980,6 +63484,12 @@
       <c r="IJ85" t="n">
         <v>103.3</v>
       </c>
+      <c r="IK85" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>102.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63716,6 +64226,12 @@
       <c r="IJ86" t="n">
         <v>5</v>
       </c>
+      <c r="IK86" t="n">
+        <v>8</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64452,6 +64968,12 @@
       <c r="IJ87" t="n">
         <v>7</v>
       </c>
+      <c r="IK87" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65188,6 +65710,12 @@
       <c r="IJ88" t="n">
         <v>6</v>
       </c>
+      <c r="IK88" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65924,6 +66452,12 @@
       <c r="IJ89" t="n">
         <v>5</v>
       </c>
+      <c r="IK89" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66660,6 +67194,12 @@
       <c r="IJ90" t="n">
         <v>163</v>
       </c>
+      <c r="IK90" t="n">
+        <v>129</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67396,6 +67936,12 @@
       <c r="IJ91" t="n">
         <v>166</v>
       </c>
+      <c r="IK91" t="n">
+        <v>221</v>
+      </c>
+      <c r="IL91" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68132,6 +68678,12 @@
       <c r="IJ92" t="n">
         <v>238</v>
       </c>
+      <c r="IK92" t="n">
+        <v>267</v>
+      </c>
+      <c r="IL92" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68868,6 +69420,12 @@
       <c r="IJ93" t="n">
         <v>69.2</v>
       </c>
+      <c r="IK93" t="n">
+        <v>75</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69604,6 +70162,12 @@
       <c r="IJ94" t="n">
         <v>66</v>
       </c>
+      <c r="IK94" t="n">
+        <v>71</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70340,6 +70904,12 @@
       <c r="IJ95" t="n">
         <v>10</v>
       </c>
+      <c r="IK95" t="n">
+        <v>15</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71076,6 +71646,12 @@
       <c r="IJ96" t="n">
         <v>9</v>
       </c>
+      <c r="IK96" t="n">
+        <v>13</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71812,6 +72388,12 @@
       <c r="IJ97" t="n">
         <v>44</v>
       </c>
+      <c r="IK97" t="n">
+        <v>33</v>
+      </c>
+      <c r="IL97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72548,6 +73130,12 @@
       <c r="IJ98" t="n">
         <v>43</v>
       </c>
+      <c r="IK98" t="n">
+        <v>31</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73284,6 +73872,12 @@
       <c r="IJ99" t="n">
         <v>58</v>
       </c>
+      <c r="IK99" t="n">
+        <v>40</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74020,6 +74614,12 @@
       <c r="IJ100" t="n">
         <v>5</v>
       </c>
+      <c r="IK100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74756,6 +75356,12 @@
       <c r="IJ101" t="n">
         <v>13</v>
       </c>
+      <c r="IK101" t="n">
+        <v>10</v>
+      </c>
+      <c r="IL101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75492,6 +76098,12 @@
       <c r="IJ102" t="n">
         <v>61.9</v>
       </c>
+      <c r="IK102" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>87.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,6 +1162,12 @@
       <c r="IL1" t="n">
         <v>10610</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10622</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10631</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1904,6 +1910,12 @@
       <c r="IL2" t="n">
         <v>2022</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2646,6 +2658,12 @@
       <c r="IL3" t="n">
         <v>8</v>
       </c>
+      <c r="IM3" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3388,6 +3406,12 @@
       <c r="IL4" t="n">
         <v>1</v>
       </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4130,6 +4154,12 @@
       <c r="IL5" t="n">
         <v>1</v>
       </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4872,6 +4902,12 @@
       <c r="IL6" t="n">
         <v>75</v>
       </c>
+      <c r="IM6" t="n">
+        <v>69</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5614,6 +5650,12 @@
       <c r="IL7" t="n">
         <v>61</v>
       </c>
+      <c r="IM7" t="n">
+        <v>33</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6356,6 +6398,12 @@
       <c r="IL8" t="n">
         <v>14</v>
       </c>
+      <c r="IM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7098,6 +7146,12 @@
       <c r="IL9" t="n">
         <v>1</v>
       </c>
+      <c r="IM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7840,6 +7894,12 @@
       <c r="IL10" t="n">
         <v>16</v>
       </c>
+      <c r="IM10" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8582,6 +8642,12 @@
       <c r="IL11" t="n">
         <v>235</v>
       </c>
+      <c r="IM11" t="n">
+        <v>225</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9324,6 +9390,12 @@
       <c r="IL12" t="n">
         <v>92</v>
       </c>
+      <c r="IM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10066,6 +10138,12 @@
       <c r="IL13" t="n">
         <v>327</v>
       </c>
+      <c r="IM13" t="n">
+        <v>335</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10808,6 +10886,12 @@
       <c r="IL14" t="n">
         <v>2.55</v>
       </c>
+      <c r="IM14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11550,6 +11634,12 @@
       <c r="IL15" t="n">
         <v>118</v>
       </c>
+      <c r="IM15" t="n">
+        <v>62</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12292,6 +12382,12 @@
       <c r="IL16" t="n">
         <v>47</v>
       </c>
+      <c r="IM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13034,6 +13130,12 @@
       <c r="IL17" t="n">
         <v>42</v>
       </c>
+      <c r="IM17" t="n">
+        <v>33</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13776,6 +13878,12 @@
       <c r="IL18" t="n">
         <v>26</v>
       </c>
+      <c r="IM18" t="n">
+        <v>20</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14518,6 +14626,12 @@
       <c r="IL19" t="n">
         <v>19</v>
       </c>
+      <c r="IM19" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15260,6 +15374,12 @@
       <c r="IL20" t="n">
         <v>10</v>
       </c>
+      <c r="IM20" t="n">
+        <v>10</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16002,6 +16122,12 @@
       <c r="IL21" t="n">
         <v>7</v>
       </c>
+      <c r="IM21" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16744,6 +16870,12 @@
       <c r="IL22" t="n">
         <v>13</v>
       </c>
+      <c r="IM22" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17486,6 +17618,12 @@
       <c r="IL23" t="n">
         <v>2</v>
       </c>
+      <c r="IM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18228,6 +18366,12 @@
       <c r="IL24" t="n">
         <v>25</v>
       </c>
+      <c r="IM24" t="n">
+        <v>19</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18970,6 +19114,12 @@
       <c r="IL25" t="n">
         <v>40</v>
       </c>
+      <c r="IM25" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19712,6 +19862,12 @@
       <c r="IL26" t="n">
         <v>32.7</v>
       </c>
+      <c r="IM26" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>22.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20454,6 +20610,12 @@
       <c r="IL27" t="n">
         <v>13.08</v>
       </c>
+      <c r="IM27" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>13.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21196,6 +21358,12 @@
       <c r="IL28" t="n">
         <v>36</v>
       </c>
+      <c r="IM28" t="n">
+        <v>46</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21938,6 +22106,12 @@
       <c r="IL29" t="n">
         <v>48</v>
       </c>
+      <c r="IM29" t="n">
+        <v>87</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22680,6 +22854,12 @@
       <c r="IL30" t="n">
         <v>32</v>
       </c>
+      <c r="IM30" t="n">
+        <v>60</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23422,6 +23602,12 @@
       <c r="IL31" t="n">
         <v>55</v>
       </c>
+      <c r="IM31" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24164,6 +24350,12 @@
       <c r="IL32" t="n">
         <v>2.2</v>
       </c>
+      <c r="IM32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24906,6 +25098,12 @@
       <c r="IL33" t="n">
         <v>5.5</v>
       </c>
+      <c r="IM33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>4.31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25648,6 +25846,12 @@
       <c r="IL34" t="n">
         <v>41.8</v>
       </c>
+      <c r="IM34" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26390,6 +26594,12 @@
       <c r="IL35" t="n">
         <v>18.2</v>
       </c>
+      <c r="IM35" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27132,6 +27342,12 @@
       <c r="IL36" t="n">
         <v>187.4</v>
       </c>
+      <c r="IM36" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27874,6 +28090,12 @@
       <c r="IL37" t="n">
         <v>86</v>
       </c>
+      <c r="IM37" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28616,6 +28838,12 @@
       <c r="IL38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IM38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IN38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29358,6 +29586,12 @@
       <c r="IL39" t="n">
         <v>83</v>
       </c>
+      <c r="IM39" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>82.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30100,6 +30334,12 @@
       <c r="IL40" t="n">
         <v>7</v>
       </c>
+      <c r="IM40" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30842,6 +31082,12 @@
       <c r="IL41" t="n">
         <v>8</v>
       </c>
+      <c r="IM41" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31584,6 +31830,12 @@
       <c r="IL42" t="n">
         <v>5</v>
       </c>
+      <c r="IM42" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32326,6 +32578,12 @@
       <c r="IL43" t="n">
         <v>3</v>
       </c>
+      <c r="IM43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33068,6 +33326,12 @@
       <c r="IL44" t="n">
         <v>139</v>
       </c>
+      <c r="IM44" t="n">
+        <v>174</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33810,6 +34074,12 @@
       <c r="IL45" t="n">
         <v>188</v>
       </c>
+      <c r="IM45" t="n">
+        <v>155</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34552,6 +34822,12 @@
       <c r="IL46" t="n">
         <v>223</v>
       </c>
+      <c r="IM46" t="n">
+        <v>211</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35294,6 +35570,12 @@
       <c r="IL47" t="n">
         <v>68.2</v>
       </c>
+      <c r="IM47" t="n">
+        <v>63</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36036,6 +36318,12 @@
       <c r="IL48" t="n">
         <v>48</v>
       </c>
+      <c r="IM48" t="n">
+        <v>87</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36778,6 +37066,12 @@
       <c r="IL49" t="n">
         <v>9</v>
       </c>
+      <c r="IM49" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37520,6 +37814,12 @@
       <c r="IL50" t="n">
         <v>11</v>
       </c>
+      <c r="IM50" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38262,6 +38562,12 @@
       <c r="IL51" t="n">
         <v>36</v>
       </c>
+      <c r="IM51" t="n">
+        <v>46</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39004,6 +39310,12 @@
       <c r="IL52" t="n">
         <v>32</v>
       </c>
+      <c r="IM52" t="n">
+        <v>60</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39746,6 +40058,12 @@
       <c r="IL53" t="n">
         <v>43</v>
       </c>
+      <c r="IM53" t="n">
+        <v>72</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40488,6 +40806,12 @@
       <c r="IL54" t="n">
         <v>8</v>
       </c>
+      <c r="IM54" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41230,6 +41554,12 @@
       <c r="IL55" t="n">
         <v>7</v>
       </c>
+      <c r="IM55" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41972,6 +42302,12 @@
       <c r="IL56" t="n">
         <v>70</v>
       </c>
+      <c r="IM56" t="n">
+        <v>50</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42714,6 +43050,12 @@
       <c r="IL57" t="n">
         <v>201</v>
       </c>
+      <c r="IM57" t="n">
+        <v>211</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43456,6 +43798,12 @@
       <c r="IL58" t="n">
         <v>110</v>
       </c>
+      <c r="IM58" t="n">
+        <v>165</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44198,6 +44546,12 @@
       <c r="IL59" t="n">
         <v>311</v>
       </c>
+      <c r="IM59" t="n">
+        <v>376</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44940,6 +45294,12 @@
       <c r="IL60" t="n">
         <v>1.83</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45682,6 +46042,12 @@
       <c r="IL61" t="n">
         <v>96</v>
       </c>
+      <c r="IM61" t="n">
+        <v>70</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46424,6 +46790,12 @@
       <c r="IL62" t="n">
         <v>62</v>
       </c>
+      <c r="IM62" t="n">
+        <v>93</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47166,6 +47538,12 @@
       <c r="IL63" t="n">
         <v>23</v>
       </c>
+      <c r="IM63" t="n">
+        <v>46</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47908,6 +48286,12 @@
       <c r="IL64" t="n">
         <v>19</v>
       </c>
+      <c r="IM64" t="n">
+        <v>24</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48650,6 +49034,12 @@
       <c r="IL65" t="n">
         <v>26</v>
       </c>
+      <c r="IM65" t="n">
+        <v>20</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49392,6 +49782,12 @@
       <c r="IL66" t="n">
         <v>8</v>
       </c>
+      <c r="IM66" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50134,6 +50530,12 @@
       <c r="IL67" t="n">
         <v>7</v>
       </c>
+      <c r="IM67" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50876,6 +51278,12 @@
       <c r="IL68" t="n">
         <v>11</v>
       </c>
+      <c r="IM68" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51618,6 +52026,12 @@
       <c r="IL69" t="n">
         <v>2</v>
       </c>
+      <c r="IM69" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52360,6 +52774,12 @@
       <c r="IL70" t="n">
         <v>21</v>
       </c>
+      <c r="IM70" t="n">
+        <v>13</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53102,6 +53522,12 @@
       <c r="IL71" t="n">
         <v>38.1</v>
       </c>
+      <c r="IM71" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53844,6 +54270,12 @@
       <c r="IL72" t="n">
         <v>38.88</v>
       </c>
+      <c r="IM72" t="n">
+        <v>94</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54586,6 +55018,12 @@
       <c r="IL73" t="n">
         <v>14.81</v>
       </c>
+      <c r="IM73" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>11.77</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55328,6 +55766,12 @@
       <c r="IL74" t="n">
         <v>29</v>
       </c>
+      <c r="IM74" t="n">
+        <v>30</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56070,6 +56514,12 @@
       <c r="IL75" t="n">
         <v>68</v>
       </c>
+      <c r="IM75" t="n">
+        <v>72</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56812,6 +57262,12 @@
       <c r="IL76" t="n">
         <v>45</v>
       </c>
+      <c r="IM76" t="n">
+        <v>26</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57554,6 +58010,12 @@
       <c r="IL77" t="n">
         <v>41</v>
       </c>
+      <c r="IM77" t="n">
+        <v>65</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58296,6 +58758,12 @@
       <c r="IL78" t="n">
         <v>1.95</v>
       </c>
+      <c r="IM78" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59038,6 +59506,12 @@
       <c r="IL79" t="n">
         <v>5.12</v>
       </c>
+      <c r="IM79" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>3.87</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59780,6 +60254,12 @@
       <c r="IL80" t="n">
         <v>46.3</v>
       </c>
+      <c r="IM80" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60522,6 +61002,12 @@
       <c r="IL81" t="n">
         <v>19.5</v>
       </c>
+      <c r="IM81" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61264,6 +61750,12 @@
       <c r="IL82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IM82" t="n">
+        <v>189</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62006,6 +62498,12 @@
       <c r="IL83" t="n">
         <v>86.7</v>
       </c>
+      <c r="IM83" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62748,6 +63246,12 @@
       <c r="IL84" t="n">
         <v>25</v>
       </c>
+      <c r="IM84" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63490,6 +63994,12 @@
       <c r="IL85" t="n">
         <v>102.9</v>
       </c>
+      <c r="IM85" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64232,6 +64742,12 @@
       <c r="IL86" t="n">
         <v>9</v>
       </c>
+      <c r="IM86" t="n">
+        <v>10</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64974,6 +65490,12 @@
       <c r="IL87" t="n">
         <v>4</v>
       </c>
+      <c r="IM87" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65716,6 +66238,12 @@
       <c r="IL88" t="n">
         <v>4</v>
       </c>
+      <c r="IM88" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66458,6 +66986,12 @@
       <c r="IL89" t="n">
         <v>5</v>
       </c>
+      <c r="IM89" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67200,6 +67734,12 @@
       <c r="IL90" t="n">
         <v>124</v>
       </c>
+      <c r="IM90" t="n">
+        <v>157</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67942,6 +68482,12 @@
       <c r="IL91" t="n">
         <v>182</v>
       </c>
+      <c r="IM91" t="n">
+        <v>211</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68684,6 +69230,12 @@
       <c r="IL92" t="n">
         <v>220</v>
       </c>
+      <c r="IM92" t="n">
+        <v>254</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69426,6 +69978,12 @@
       <c r="IL93" t="n">
         <v>70.7</v>
       </c>
+      <c r="IM93" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70168,6 +70726,12 @@
       <c r="IL94" t="n">
         <v>68</v>
       </c>
+      <c r="IM94" t="n">
+        <v>72</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70910,6 +71474,12 @@
       <c r="IL95" t="n">
         <v>13</v>
       </c>
+      <c r="IM95" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71652,6 +72222,12 @@
       <c r="IL96" t="n">
         <v>13</v>
       </c>
+      <c r="IM96" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72394,6 +72970,12 @@
       <c r="IL97" t="n">
         <v>29</v>
       </c>
+      <c r="IM97" t="n">
+        <v>30</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73136,6 +73718,12 @@
       <c r="IL98" t="n">
         <v>45</v>
       </c>
+      <c r="IM98" t="n">
+        <v>26</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73878,6 +74466,12 @@
       <c r="IL99" t="n">
         <v>36</v>
       </c>
+      <c r="IM99" t="n">
+        <v>60</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74620,6 +75214,12 @@
       <c r="IL100" t="n">
         <v>8</v>
       </c>
+      <c r="IM100" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75362,6 +75962,12 @@
       <c r="IL101" t="n">
         <v>7</v>
       </c>
+      <c r="IM101" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76104,6 +76710,12 @@
       <c r="IL102" t="n">
         <v>87.5</v>
       </c>
+      <c r="IM102" t="n">
+        <v>25</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,6 +1168,24 @@
       <c r="IN1" t="n">
         <v>10631</v>
       </c>
+      <c r="IO1" t="n">
+        <v>10640</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10647</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10655</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10668</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>10674</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10682</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1916,6 +1934,24 @@
       <c r="IN2" t="n">
         <v>2022</v>
       </c>
+      <c r="IO2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2664,6 +2700,24 @@
       <c r="IN3" t="n">
         <v>10</v>
       </c>
+      <c r="IO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>15</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>16</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3412,6 +3466,24 @@
       <c r="IN4" t="n">
         <v>1</v>
       </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4160,6 +4232,24 @@
       <c r="IN5" t="n">
         <v>0</v>
       </c>
+      <c r="IO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4908,6 +4998,24 @@
       <c r="IN6" t="n">
         <v>87</v>
       </c>
+      <c r="IO6" t="n">
+        <v>121</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>109</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>116</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>91</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>62</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5656,6 +5764,24 @@
       <c r="IN7" t="n">
         <v>106</v>
       </c>
+      <c r="IO7" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>47</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>73</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>93</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>67</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6404,6 +6530,24 @@
       <c r="IN8" t="n">
         <v>-19</v>
       </c>
+      <c r="IO8" t="n">
+        <v>67</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>62</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>43</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7152,6 +7296,24 @@
       <c r="IN9" t="n">
         <v>0</v>
       </c>
+      <c r="IO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7900,6 +8062,24 @@
       <c r="IN10" t="n">
         <v>18</v>
       </c>
+      <c r="IO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8648,6 +8828,24 @@
       <c r="IN11" t="n">
         <v>209</v>
       </c>
+      <c r="IO11" t="n">
+        <v>226</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>256</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>217</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>201</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>219</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9396,6 +9594,24 @@
       <c r="IN12" t="n">
         <v>81</v>
       </c>
+      <c r="IO12" t="n">
+        <v>95</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>95</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>108</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>102</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>111</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10144,6 +10360,24 @@
       <c r="IN13" t="n">
         <v>290</v>
       </c>
+      <c r="IO13" t="n">
+        <v>321</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>351</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>325</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>303</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>330</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10892,6 +11126,24 @@
       <c r="IN14" t="n">
         <v>2.58</v>
       </c>
+      <c r="IO14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11640,6 +11892,24 @@
       <c r="IN15" t="n">
         <v>86</v>
       </c>
+      <c r="IO15" t="n">
+        <v>78</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>69</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>59</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>75</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12388,6 +12658,24 @@
       <c r="IN16" t="n">
         <v>66</v>
       </c>
+      <c r="IO16" t="n">
+        <v>75</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>81</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>72</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>54</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13136,6 +13424,24 @@
       <c r="IN17" t="n">
         <v>58</v>
       </c>
+      <c r="IO17" t="n">
+        <v>40</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>42</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>43</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>33</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13884,6 +14190,24 @@
       <c r="IN18" t="n">
         <v>20</v>
       </c>
+      <c r="IO18" t="n">
+        <v>32</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14632,6 +14956,24 @@
       <c r="IN19" t="n">
         <v>21</v>
       </c>
+      <c r="IO19" t="n">
+        <v>22</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15380,6 +15722,24 @@
       <c r="IN20" t="n">
         <v>13</v>
       </c>
+      <c r="IO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>15</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16128,6 +16488,24 @@
       <c r="IN21" t="n">
         <v>7</v>
       </c>
+      <c r="IO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16876,6 +17254,24 @@
       <c r="IN22" t="n">
         <v>9</v>
       </c>
+      <c r="IO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>14</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17624,6 +18020,24 @@
       <c r="IN23" t="n">
         <v>0</v>
       </c>
+      <c r="IO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18372,6 +18786,24 @@
       <c r="IN24" t="n">
         <v>22</v>
       </c>
+      <c r="IO24" t="n">
+        <v>31</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>34</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>26</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19120,6 +19552,24 @@
       <c r="IN25" t="n">
         <v>59.1</v>
       </c>
+      <c r="IO25" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>50</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19868,6 +20318,24 @@
       <c r="IN26" t="n">
         <v>22.31</v>
       </c>
+      <c r="IO26" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>24.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20616,6 +21084,24 @@
       <c r="IN27" t="n">
         <v>13.18</v>
       </c>
+      <c r="IO27" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>15</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>14.38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21364,6 +21850,24 @@
       <c r="IN28" t="n">
         <v>36</v>
       </c>
+      <c r="IO28" t="n">
+        <v>35</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>51</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>35</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>41</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22112,6 +22616,24 @@
       <c r="IN29" t="n">
         <v>58</v>
       </c>
+      <c r="IO29" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>57</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>64</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>55</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>66</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22860,6 +23382,24 @@
       <c r="IN30" t="n">
         <v>41</v>
       </c>
+      <c r="IO30" t="n">
+        <v>35</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>33</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>36</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23608,6 +24148,24 @@
       <c r="IN31" t="n">
         <v>56</v>
       </c>
+      <c r="IO31" t="n">
+        <v>62</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>81</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>62</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>54</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>54</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24356,6 +24914,24 @@
       <c r="IN32" t="n">
         <v>2.55</v>
       </c>
+      <c r="IO32" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25104,6 +25680,24 @@
       <c r="IN33" t="n">
         <v>4.31</v>
       </c>
+      <c r="IO33" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25852,6 +26446,24 @@
       <c r="IN34" t="n">
         <v>39.3</v>
       </c>
+      <c r="IO34" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26600,6 +27212,24 @@
       <c r="IN35" t="n">
         <v>23.2</v>
       </c>
+      <c r="IO35" t="n">
+        <v>29</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>29</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27348,6 +27978,24 @@
       <c r="IN36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IO36" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>188</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="IS36" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28096,6 +28744,24 @@
       <c r="IN37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IO37" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28844,6 +29510,24 @@
       <c r="IN38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IO38" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29592,6 +30276,24 @@
       <c r="IN39" t="n">
         <v>82.7</v>
       </c>
+      <c r="IO39" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30340,6 +31042,24 @@
       <c r="IN40" t="n">
         <v>9</v>
       </c>
+      <c r="IO40" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP40" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS40" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31088,6 +31808,24 @@
       <c r="IN41" t="n">
         <v>6</v>
       </c>
+      <c r="IO41" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ41" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31836,6 +32574,24 @@
       <c r="IN42" t="n">
         <v>5</v>
       </c>
+      <c r="IO42" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR42" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS42" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32584,6 +33340,24 @@
       <c r="IN43" t="n">
         <v>3</v>
       </c>
+      <c r="IO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33332,6 +34106,24 @@
       <c r="IN44" t="n">
         <v>133</v>
       </c>
+      <c r="IO44" t="n">
+        <v>149</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>171</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>144</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>150</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>153</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34080,6 +34872,24 @@
       <c r="IN45" t="n">
         <v>150</v>
       </c>
+      <c r="IO45" t="n">
+        <v>157</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>176</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>171</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>151</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>169</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34828,6 +35638,24 @@
       <c r="IN46" t="n">
         <v>198</v>
       </c>
+      <c r="IO46" t="n">
+        <v>217</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>231</v>
+      </c>
+      <c r="IQ46" t="n">
+        <v>220</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>200</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>224</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35576,6 +36404,24 @@
       <c r="IN47" t="n">
         <v>68.3</v>
       </c>
+      <c r="IO47" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>66</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36324,6 +37170,24 @@
       <c r="IN48" t="n">
         <v>58</v>
       </c>
+      <c r="IO48" t="n">
+        <v>54</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>57</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>64</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>55</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>66</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37072,6 +37936,24 @@
       <c r="IN49" t="n">
         <v>11</v>
       </c>
+      <c r="IO49" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP49" t="n">
+        <v>3</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS49" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37820,6 +38702,24 @@
       <c r="IN50" t="n">
         <v>9</v>
       </c>
+      <c r="IO50" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38568,6 +39468,24 @@
       <c r="IN51" t="n">
         <v>36</v>
       </c>
+      <c r="IO51" t="n">
+        <v>35</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>51</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>35</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>41</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39316,6 +40234,24 @@
       <c r="IN52" t="n">
         <v>41</v>
       </c>
+      <c r="IO52" t="n">
+        <v>35</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>29</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>33</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>42</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>36</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40064,6 +41000,24 @@
       <c r="IN53" t="n">
         <v>46</v>
       </c>
+      <c r="IO53" t="n">
+        <v>59</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>85</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>58</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>57</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>57</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40812,6 +41766,24 @@
       <c r="IN54" t="n">
         <v>0</v>
       </c>
+      <c r="IO54" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>16</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41560,6 +42532,24 @@
       <c r="IN55" t="n">
         <v>7</v>
       </c>
+      <c r="IO55" t="n">
+        <v>11</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42308,6 +43298,24 @@
       <c r="IN56" t="n">
         <v>53.8</v>
       </c>
+      <c r="IO56" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>75</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43056,6 +44064,24 @@
       <c r="IN57" t="n">
         <v>205</v>
       </c>
+      <c r="IO57" t="n">
+        <v>194</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>206</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>211</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>228</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>221</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43804,6 +44830,24 @@
       <c r="IN58" t="n">
         <v>160</v>
       </c>
+      <c r="IO58" t="n">
+        <v>123</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>88</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>195</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>150</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>135</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44552,6 +45596,24 @@
       <c r="IN59" t="n">
         <v>365</v>
       </c>
+      <c r="IO59" t="n">
+        <v>317</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>294</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>406</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>378</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>356</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45300,6 +46362,24 @@
       <c r="IN60" t="n">
         <v>1.28</v>
       </c>
+      <c r="IO60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46048,6 +47128,24 @@
       <c r="IN61" t="n">
         <v>78</v>
       </c>
+      <c r="IO61" t="n">
+        <v>68</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>48</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>90</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>102</v>
+      </c>
+      <c r="IS61" t="n">
+        <v>96</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46796,6 +47894,24 @@
       <c r="IN62" t="n">
         <v>62</v>
       </c>
+      <c r="IO62" t="n">
+        <v>55</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>69</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>66</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>69</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47544,6 +48660,24 @@
       <c r="IN63" t="n">
         <v>34</v>
       </c>
+      <c r="IO63" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>51</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>39</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>21</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>39</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48292,6 +49426,24 @@
       <c r="IN64" t="n">
         <v>21</v>
       </c>
+      <c r="IO64" t="n">
+        <v>22</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>21</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>22</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>19</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49040,6 +50192,24 @@
       <c r="IN65" t="n">
         <v>20</v>
       </c>
+      <c r="IO65" t="n">
+        <v>32</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>26</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>29</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS65" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49788,6 +50958,24 @@
       <c r="IN66" t="n">
         <v>15</v>
       </c>
+      <c r="IO66" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>13</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50536,6 +51724,24 @@
       <c r="IN67" t="n">
         <v>10</v>
       </c>
+      <c r="IO67" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ67" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51284,6 +52490,24 @@
       <c r="IN68" t="n">
         <v>15</v>
       </c>
+      <c r="IO68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>12</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52032,6 +53256,24 @@
       <c r="IN69" t="n">
         <v>1</v>
       </c>
+      <c r="IO69" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52780,6 +54022,24 @@
       <c r="IN70" t="n">
         <v>31</v>
       </c>
+      <c r="IO70" t="n">
+        <v>19</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>12</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>23</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>28</v>
+      </c>
+      <c r="IS70" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53528,6 +54788,24 @@
       <c r="IN71" t="n">
         <v>48.4</v>
       </c>
+      <c r="IO71" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54276,6 +55554,24 @@
       <c r="IN72" t="n">
         <v>24.33</v>
       </c>
+      <c r="IO72" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>42</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>25.69</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55024,6 +56320,24 @@
       <c r="IN73" t="n">
         <v>11.77</v>
       </c>
+      <c r="IO73" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>12.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55772,6 +57086,24 @@
       <c r="IN74" t="n">
         <v>49</v>
       </c>
+      <c r="IO74" t="n">
+        <v>23</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>47</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>39</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>43</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>30</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56520,6 +57852,24 @@
       <c r="IN75" t="n">
         <v>60</v>
       </c>
+      <c r="IO75" t="n">
+        <v>76</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>82</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>82</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>59</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57268,6 +58618,24 @@
       <c r="IN76" t="n">
         <v>42</v>
       </c>
+      <c r="IO76" t="n">
+        <v>44</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>63</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>43</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>39</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>45</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58016,6 +59384,24 @@
       <c r="IN77" t="n">
         <v>58</v>
       </c>
+      <c r="IO77" t="n">
+        <v>44</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>35</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>55</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>46</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58764,6 +60150,24 @@
       <c r="IN78" t="n">
         <v>1.87</v>
       </c>
+      <c r="IO78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59512,6 +60916,24 @@
       <c r="IN79" t="n">
         <v>3.87</v>
       </c>
+      <c r="IO79" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60260,6 +61682,24 @@
       <c r="IN80" t="n">
         <v>51.7</v>
       </c>
+      <c r="IO80" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61008,6 +62448,24 @@
       <c r="IN81" t="n">
         <v>25.9</v>
       </c>
+      <c r="IO81" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>20</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61756,6 +63214,24 @@
       <c r="IN82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IO82" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>188</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62504,6 +63980,24 @@
       <c r="IN83" t="n">
         <v>86.7</v>
       </c>
+      <c r="IO83" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63252,6 +64746,24 @@
       <c r="IN84" t="n">
         <v>25.16</v>
       </c>
+      <c r="IO84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64000,6 +65512,24 @@
       <c r="IN85" t="n">
         <v>81.2</v>
       </c>
+      <c r="IO85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64748,6 +66278,24 @@
       <c r="IN86" t="n">
         <v>9</v>
       </c>
+      <c r="IO86" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>11</v>
+      </c>
+      <c r="IQ86" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65496,6 +67044,24 @@
       <c r="IN87" t="n">
         <v>6</v>
       </c>
+      <c r="IO87" t="n">
+        <v>3</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66244,6 +67810,24 @@
       <c r="IN88" t="n">
         <v>4</v>
       </c>
+      <c r="IO88" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>5</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>3</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66992,6 +68576,24 @@
       <c r="IN89" t="n">
         <v>4</v>
       </c>
+      <c r="IO89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>2</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>5</v>
+      </c>
+      <c r="IS89" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67740,6 +69342,24 @@
       <c r="IN90" t="n">
         <v>152</v>
       </c>
+      <c r="IO90" t="n">
+        <v>115</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>147</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>140</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>152</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>134</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68488,6 +70108,24 @@
       <c r="IN91" t="n">
         <v>215</v>
       </c>
+      <c r="IO91" t="n">
+        <v>182</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>123</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>260</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>223</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>210</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69236,6 +70874,24 @@
       <c r="IN92" t="n">
         <v>272</v>
       </c>
+      <c r="IO92" t="n">
+        <v>225</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>205</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>302</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>287</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>245</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69984,6 +71640,24 @@
       <c r="IN93" t="n">
         <v>74.5</v>
       </c>
+      <c r="IO93" t="n">
+        <v>71</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70732,6 +72406,24 @@
       <c r="IN94" t="n">
         <v>60</v>
       </c>
+      <c r="IO94" t="n">
+        <v>76</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>82</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>82</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>59</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71480,6 +73172,24 @@
       <c r="IN95" t="n">
         <v>18</v>
       </c>
+      <c r="IO95" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>9</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>20</v>
+      </c>
+      <c r="IS95" t="n">
+        <v>14</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72228,6 +73938,24 @@
       <c r="IN96" t="n">
         <v>15</v>
       </c>
+      <c r="IO96" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>6</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>14</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72976,6 +74704,24 @@
       <c r="IN97" t="n">
         <v>49</v>
       </c>
+      <c r="IO97" t="n">
+        <v>23</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>47</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>39</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>43</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>30</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73724,6 +75470,24 @@
       <c r="IN98" t="n">
         <v>42</v>
       </c>
+      <c r="IO98" t="n">
+        <v>44</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>63</v>
+      </c>
+      <c r="IQ98" t="n">
+        <v>43</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>39</v>
+      </c>
+      <c r="IS98" t="n">
+        <v>45</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74472,6 +76236,24 @@
       <c r="IN99" t="n">
         <v>54</v>
       </c>
+      <c r="IO99" t="n">
+        <v>56</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>70</v>
+      </c>
+      <c r="IQ99" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>59</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>55</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75220,6 +77002,24 @@
       <c r="IN100" t="n">
         <v>3</v>
       </c>
+      <c r="IO100" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75968,6 +77768,24 @@
       <c r="IN101" t="n">
         <v>10</v>
       </c>
+      <c r="IO101" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ101" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76716,6 +78534,24 @@
       <c r="IN102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IO102" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>80</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>46.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/django_AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:JB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,6 +1186,30 @@
       <c r="IT1" t="n">
         <v>10682</v>
       </c>
+      <c r="IU1" t="n">
+        <v>10689</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>10689</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10689</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>10697</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>10709</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>10718</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>10725</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>10739</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1952,6 +1976,30 @@
       <c r="IT2" t="n">
         <v>2022</v>
       </c>
+      <c r="IU2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2718,6 +2766,30 @@
       <c r="IT3" t="n">
         <v>17</v>
       </c>
+      <c r="IU3" t="n">
+        <v>18</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>20</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3484,6 +3556,30 @@
       <c r="IT4" t="n">
         <v>0</v>
       </c>
+      <c r="IU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4250,6 +4346,30 @@
       <c r="IT5" t="n">
         <v>0</v>
       </c>
+      <c r="IU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5016,6 +5136,30 @@
       <c r="IT6" t="n">
         <v>94</v>
       </c>
+      <c r="IU6" t="n">
+        <v>55</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>55</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>93</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>107</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>63</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>59</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5782,6 +5926,30 @@
       <c r="IT7" t="n">
         <v>92</v>
       </c>
+      <c r="IU7" t="n">
+        <v>103</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>103</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>103</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>110</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>104</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>119</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6548,6 +6716,30 @@
       <c r="IT8" t="n">
         <v>2</v>
       </c>
+      <c r="IU8" t="n">
+        <v>-48</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>-48</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>-48</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>-17</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>-7</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>-60</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7314,6 +7506,30 @@
       <c r="IT9" t="n">
         <v>1</v>
       </c>
+      <c r="IU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8080,6 +8296,30 @@
       <c r="IT10" t="n">
         <v>14</v>
       </c>
+      <c r="IU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8846,6 +9086,30 @@
       <c r="IT11" t="n">
         <v>237</v>
       </c>
+      <c r="IU11" t="n">
+        <v>200</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>200</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>200</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>192</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>187</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>225</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>224</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9612,6 +9876,30 @@
       <c r="IT12" t="n">
         <v>108</v>
       </c>
+      <c r="IU12" t="n">
+        <v>93</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>93</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>93</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>114</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>115</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>123</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>107</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10378,6 +10666,30 @@
       <c r="IT13" t="n">
         <v>345</v>
       </c>
+      <c r="IU13" t="n">
+        <v>293</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>293</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>293</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>306</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>302</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>348</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>331</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11144,6 +11456,30 @@
       <c r="IT14" t="n">
         <v>2.19</v>
       </c>
+      <c r="IU14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JB14" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11910,6 +12246,30 @@
       <c r="IT15" t="n">
         <v>98</v>
       </c>
+      <c r="IU15" t="n">
+        <v>91</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>91</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>91</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>83</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>74</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>89</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>105</v>
+      </c>
+      <c r="JB15" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12676,6 +13036,30 @@
       <c r="IT16" t="n">
         <v>52</v>
       </c>
+      <c r="IU16" t="n">
+        <v>48</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>48</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>48</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>66</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>82</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>63</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13442,6 +13826,30 @@
       <c r="IT17" t="n">
         <v>41</v>
       </c>
+      <c r="IU17" t="n">
+        <v>36</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>54</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>37</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>47</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>42</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14208,6 +14616,30 @@
       <c r="IT18" t="n">
         <v>20</v>
       </c>
+      <c r="IU18" t="n">
+        <v>17</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>17</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="JB18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14974,6 +15406,30 @@
       <c r="IT19" t="n">
         <v>16</v>
       </c>
+      <c r="IU19" t="n">
+        <v>27</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>27</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>27</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>24</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA19" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15740,6 +16196,30 @@
       <c r="IT20" t="n">
         <v>14</v>
       </c>
+      <c r="IU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="JB20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16506,6 +16986,30 @@
       <c r="IT21" t="n">
         <v>7</v>
       </c>
+      <c r="IU21" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>14</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17272,6 +17776,30 @@
       <c r="IT22" t="n">
         <v>5</v>
       </c>
+      <c r="IU22" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB22" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18038,6 +18566,30 @@
       <c r="IT23" t="n">
         <v>5</v>
       </c>
+      <c r="IU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18804,6 +19356,30 @@
       <c r="IT24" t="n">
         <v>24</v>
       </c>
+      <c r="IU24" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>23</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>27</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19570,6 +20146,30 @@
       <c r="IT25" t="n">
         <v>58.3</v>
       </c>
+      <c r="IU25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20336,6 +20936,30 @@
       <c r="IT26" t="n">
         <v>24.64</v>
       </c>
+      <c r="IU26" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>23.56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21102,6 +21726,30 @@
       <c r="IT27" t="n">
         <v>14.38</v>
       </c>
+      <c r="IU27" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="IZ27" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="JB27" t="n">
+        <v>11.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21868,6 +22516,30 @@
       <c r="IT28" t="n">
         <v>39</v>
       </c>
+      <c r="IU28" t="n">
+        <v>34</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>34</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>34</v>
+      </c>
+      <c r="IX28" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY28" t="n">
+        <v>46</v>
+      </c>
+      <c r="IZ28" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA28" t="n">
+        <v>38</v>
+      </c>
+      <c r="JB28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22634,6 +23306,30 @@
       <c r="IT29" t="n">
         <v>73</v>
       </c>
+      <c r="IU29" t="n">
+        <v>68</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>68</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>68</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>58</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ29" t="n">
+        <v>70</v>
+      </c>
+      <c r="JA29" t="n">
+        <v>71</v>
+      </c>
+      <c r="JB29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -23400,6 +24096,30 @@
       <c r="IT30" t="n">
         <v>50</v>
       </c>
+      <c r="IU30" t="n">
+        <v>45</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>45</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>37</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>23</v>
+      </c>
+      <c r="IZ30" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA30" t="n">
+        <v>52</v>
+      </c>
+      <c r="JB30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24166,6 +24886,30 @@
       <c r="IT31" t="n">
         <v>57</v>
       </c>
+      <c r="IU31" t="n">
+        <v>45</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>45</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX31" t="n">
+        <v>52</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ31" t="n">
+        <v>53</v>
+      </c>
+      <c r="JA31" t="n">
+        <v>42</v>
+      </c>
+      <c r="JB31" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24932,6 +25676,30 @@
       <c r="IT32" t="n">
         <v>2.38</v>
       </c>
+      <c r="IU32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="IZ32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="JA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB32" t="n">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25698,6 +26466,30 @@
       <c r="IT33" t="n">
         <v>4.07</v>
       </c>
+      <c r="IU33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="IX33" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="IZ33" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="JA33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JB33" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26464,6 +27256,30 @@
       <c r="IT34" t="n">
         <v>33.3</v>
       </c>
+      <c r="IU34" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="IX34" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="IZ34" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="JA34" t="n">
+        <v>31</v>
+      </c>
+      <c r="JB34" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -27230,6 +28046,30 @@
       <c r="IT35" t="n">
         <v>24.6</v>
       </c>
+      <c r="IU35" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="IX35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="IY35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="IZ35" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JA35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JB35" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27996,6 +28836,30 @@
       <c r="IT36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IU36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IV36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IX36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IY36" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IZ36" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JA36" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JB36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28762,6 +29626,30 @@
       <c r="IT37" t="n">
         <v>87.2</v>
       </c>
+      <c r="IU37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IV37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IX37" t="n">
+        <v>87</v>
+      </c>
+      <c r="IY37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="IZ37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JA37" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JB37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -29528,6 +30416,30 @@
       <c r="IT38" t="n">
         <v>25.16</v>
       </c>
+      <c r="IU38" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="IV38" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="IX38" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="IY38" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="IZ38" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JA38" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="JB38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30294,6 +31206,30 @@
       <c r="IT39" t="n">
         <v>89.2</v>
       </c>
+      <c r="IU39" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="IX39" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="IY39" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="IZ39" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="JA39" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="JB39" t="n">
+        <v>79.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -31060,6 +31996,30 @@
       <c r="IT40" t="n">
         <v>7</v>
       </c>
+      <c r="IU40" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX40" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY40" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA40" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31826,6 +32786,30 @@
       <c r="IT41" t="n">
         <v>8</v>
       </c>
+      <c r="IU41" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV41" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX41" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -32592,6 +33576,30 @@
       <c r="IT42" t="n">
         <v>4</v>
       </c>
+      <c r="IU42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX42" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY42" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33358,6 +34366,30 @@
       <c r="IT43" t="n">
         <v>4</v>
       </c>
+      <c r="IU43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY43" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA43" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -34124,6 +35156,30 @@
       <c r="IT44" t="n">
         <v>146</v>
       </c>
+      <c r="IU44" t="n">
+        <v>118</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>118</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>118</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>121</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>139</v>
+      </c>
+      <c r="IZ44" t="n">
+        <v>157</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>126</v>
+      </c>
+      <c r="JB44" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34890,6 +35946,30 @@
       <c r="IT45" t="n">
         <v>187</v>
       </c>
+      <c r="IU45" t="n">
+        <v>164</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>164</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>164</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>181</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>166</v>
+      </c>
+      <c r="IZ45" t="n">
+        <v>186</v>
+      </c>
+      <c r="JA45" t="n">
+        <v>197</v>
+      </c>
+      <c r="JB45" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -35656,6 +36736,30 @@
       <c r="IT46" t="n">
         <v>238</v>
       </c>
+      <c r="IU46" t="n">
+        <v>204</v>
+      </c>
+      <c r="IV46" t="n">
+        <v>204</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>204</v>
+      </c>
+      <c r="IX46" t="n">
+        <v>215</v>
+      </c>
+      <c r="IY46" t="n">
+        <v>209</v>
+      </c>
+      <c r="IZ46" t="n">
+        <v>220</v>
+      </c>
+      <c r="JA46" t="n">
+        <v>231</v>
+      </c>
+      <c r="JB46" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -36422,6 +37526,30 @@
       <c r="IT47" t="n">
         <v>69</v>
       </c>
+      <c r="IU47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="IV47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="IX47" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="IY47" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IZ47" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="JA47" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JB47" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -37188,6 +38316,30 @@
       <c r="IT48" t="n">
         <v>73</v>
       </c>
+      <c r="IU48" t="n">
+        <v>68</v>
+      </c>
+      <c r="IV48" t="n">
+        <v>68</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>68</v>
+      </c>
+      <c r="IX48" t="n">
+        <v>58</v>
+      </c>
+      <c r="IY48" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ48" t="n">
+        <v>70</v>
+      </c>
+      <c r="JA48" t="n">
+        <v>71</v>
+      </c>
+      <c r="JB48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37954,6 +39106,30 @@
       <c r="IT49" t="n">
         <v>13</v>
       </c>
+      <c r="IU49" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV49" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX49" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY49" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -38720,6 +39896,30 @@
       <c r="IT50" t="n">
         <v>13</v>
       </c>
+      <c r="IU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -39486,6 +40686,30 @@
       <c r="IT51" t="n">
         <v>39</v>
       </c>
+      <c r="IU51" t="n">
+        <v>34</v>
+      </c>
+      <c r="IV51" t="n">
+        <v>34</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>34</v>
+      </c>
+      <c r="IX51" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY51" t="n">
+        <v>46</v>
+      </c>
+      <c r="IZ51" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA51" t="n">
+        <v>38</v>
+      </c>
+      <c r="JB51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -40252,6 +41476,30 @@
       <c r="IT52" t="n">
         <v>50</v>
       </c>
+      <c r="IU52" t="n">
+        <v>45</v>
+      </c>
+      <c r="IV52" t="n">
+        <v>45</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX52" t="n">
+        <v>37</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>23</v>
+      </c>
+      <c r="IZ52" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA52" t="n">
+        <v>52</v>
+      </c>
+      <c r="JB52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41018,6 +42266,30 @@
       <c r="IT53" t="n">
         <v>52</v>
       </c>
+      <c r="IU53" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>50</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>50</v>
+      </c>
+      <c r="IX53" t="n">
+        <v>51</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ53" t="n">
+        <v>56</v>
+      </c>
+      <c r="JA53" t="n">
+        <v>43</v>
+      </c>
+      <c r="JB53" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41784,6 +43056,30 @@
       <c r="IT54" t="n">
         <v>5</v>
       </c>
+      <c r="IU54" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV54" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA54" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -42550,6 +43846,30 @@
       <c r="IT55" t="n">
         <v>7</v>
       </c>
+      <c r="IU55" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV55" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX55" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>14</v>
+      </c>
+      <c r="IZ55" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA55" t="n">
+        <v>6</v>
+      </c>
+      <c r="JB55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -43316,6 +44636,30 @@
       <c r="IT56" t="n">
         <v>50</v>
       </c>
+      <c r="IU56" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="IV56" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="IX56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IY56" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IZ56" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JB56" t="n">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -44082,6 +45426,30 @@
       <c r="IT57" t="n">
         <v>205</v>
       </c>
+      <c r="IU57" t="n">
+        <v>252</v>
+      </c>
+      <c r="IV57" t="n">
+        <v>252</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>252</v>
+      </c>
+      <c r="IX57" t="n">
+        <v>220</v>
+      </c>
+      <c r="IY57" t="n">
+        <v>222</v>
+      </c>
+      <c r="IZ57" t="n">
+        <v>221</v>
+      </c>
+      <c r="JA57" t="n">
+        <v>241</v>
+      </c>
+      <c r="JB57" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -44848,6 +46216,30 @@
       <c r="IT58" t="n">
         <v>129</v>
       </c>
+      <c r="IU58" t="n">
+        <v>156</v>
+      </c>
+      <c r="IV58" t="n">
+        <v>156</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>156</v>
+      </c>
+      <c r="IX58" t="n">
+        <v>117</v>
+      </c>
+      <c r="IY58" t="n">
+        <v>146</v>
+      </c>
+      <c r="IZ58" t="n">
+        <v>140</v>
+      </c>
+      <c r="JA58" t="n">
+        <v>155</v>
+      </c>
+      <c r="JB58" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -45614,6 +47006,30 @@
       <c r="IT59" t="n">
         <v>334</v>
       </c>
+      <c r="IU59" t="n">
+        <v>408</v>
+      </c>
+      <c r="IV59" t="n">
+        <v>408</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>408</v>
+      </c>
+      <c r="IX59" t="n">
+        <v>337</v>
+      </c>
+      <c r="IY59" t="n">
+        <v>368</v>
+      </c>
+      <c r="IZ59" t="n">
+        <v>361</v>
+      </c>
+      <c r="JA59" t="n">
+        <v>396</v>
+      </c>
+      <c r="JB59" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -46380,6 +47796,30 @@
       <c r="IT60" t="n">
         <v>1.59</v>
       </c>
+      <c r="IU60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IV60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="IX60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="IY60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="IZ60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="JA60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JB60" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -47146,6 +48586,30 @@
       <c r="IT61" t="n">
         <v>82</v>
       </c>
+      <c r="IU61" t="n">
+        <v>117</v>
+      </c>
+      <c r="IV61" t="n">
+        <v>117</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>117</v>
+      </c>
+      <c r="IX61" t="n">
+        <v>87</v>
+      </c>
+      <c r="IY61" t="n">
+        <v>110</v>
+      </c>
+      <c r="IZ61" t="n">
+        <v>96</v>
+      </c>
+      <c r="JA61" t="n">
+        <v>107</v>
+      </c>
+      <c r="JB61" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -47912,6 +49376,30 @@
       <c r="IT62" t="n">
         <v>49</v>
       </c>
+      <c r="IU62" t="n">
+        <v>53</v>
+      </c>
+      <c r="IV62" t="n">
+        <v>53</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>53</v>
+      </c>
+      <c r="IX62" t="n">
+        <v>49</v>
+      </c>
+      <c r="IY62" t="n">
+        <v>64</v>
+      </c>
+      <c r="IZ62" t="n">
+        <v>68</v>
+      </c>
+      <c r="JA62" t="n">
+        <v>59</v>
+      </c>
+      <c r="JB62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -48678,6 +50166,30 @@
       <c r="IT63" t="n">
         <v>30</v>
       </c>
+      <c r="IU63" t="n">
+        <v>36</v>
+      </c>
+      <c r="IV63" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX63" t="n">
+        <v>27</v>
+      </c>
+      <c r="IY63" t="n">
+        <v>41</v>
+      </c>
+      <c r="IZ63" t="n">
+        <v>34</v>
+      </c>
+      <c r="JA63" t="n">
+        <v>26</v>
+      </c>
+      <c r="JB63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -49444,6 +50956,30 @@
       <c r="IT64" t="n">
         <v>16</v>
       </c>
+      <c r="IU64" t="n">
+        <v>27</v>
+      </c>
+      <c r="IV64" t="n">
+        <v>27</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>27</v>
+      </c>
+      <c r="IX64" t="n">
+        <v>24</v>
+      </c>
+      <c r="IY64" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA64" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -50210,6 +51746,30 @@
       <c r="IT65" t="n">
         <v>20</v>
       </c>
+      <c r="IU65" t="n">
+        <v>17</v>
+      </c>
+      <c r="IV65" t="n">
+        <v>17</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX65" t="n">
+        <v>19</v>
+      </c>
+      <c r="IY65" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ65" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA65" t="n">
+        <v>19</v>
+      </c>
+      <c r="JB65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -50976,6 +52536,30 @@
       <c r="IT66" t="n">
         <v>13</v>
       </c>
+      <c r="IU66" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV66" t="n">
+        <v>14</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX66" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY66" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ66" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA66" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -51742,6 +53326,30 @@
       <c r="IT67" t="n">
         <v>6</v>
       </c>
+      <c r="IU67" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV67" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX67" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY67" t="n">
+        <v>14</v>
+      </c>
+      <c r="IZ67" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA67" t="n">
+        <v>13</v>
+      </c>
+      <c r="JB67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -52508,6 +54116,30 @@
       <c r="IT68" t="n">
         <v>13</v>
       </c>
+      <c r="IU68" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV68" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX68" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY68" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA68" t="n">
+        <v>8</v>
+      </c>
+      <c r="JB68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -53274,6 +54906,30 @@
       <c r="IT69" t="n">
         <v>1</v>
       </c>
+      <c r="IU69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX69" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY69" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA69" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -54040,6 +55696,30 @@
       <c r="IT70" t="n">
         <v>27</v>
       </c>
+      <c r="IU70" t="n">
+        <v>33</v>
+      </c>
+      <c r="IV70" t="n">
+        <v>33</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>33</v>
+      </c>
+      <c r="IX70" t="n">
+        <v>30</v>
+      </c>
+      <c r="IY70" t="n">
+        <v>24</v>
+      </c>
+      <c r="IZ70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA70" t="n">
+        <v>29</v>
+      </c>
+      <c r="JB70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -54806,6 +56486,30 @@
       <c r="IT71" t="n">
         <v>48.1</v>
       </c>
+      <c r="IU71" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="IV71" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="IX71" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IY71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IZ71" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA71" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="JB71" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -55572,6 +57276,30 @@
       <c r="IT72" t="n">
         <v>25.69</v>
       </c>
+      <c r="IU72" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="IV72" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="IX72" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="IY72" t="n">
+        <v>23</v>
+      </c>
+      <c r="IZ72" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JA72" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB72" t="n">
+        <v>66.83</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -56338,6 +58066,30 @@
       <c r="IT73" t="n">
         <v>12.37</v>
       </c>
+      <c r="IU73" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="IV73" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="IX73" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="IY73" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="IZ73" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="JA73" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="JB73" t="n">
+        <v>23.59</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -57104,6 +58856,30 @@
       <c r="IT74" t="n">
         <v>35</v>
       </c>
+      <c r="IU74" t="n">
+        <v>36</v>
+      </c>
+      <c r="IV74" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX74" t="n">
+        <v>44</v>
+      </c>
+      <c r="IY74" t="n">
+        <v>32</v>
+      </c>
+      <c r="IZ74" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA74" t="n">
+        <v>38</v>
+      </c>
+      <c r="JB74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -57870,6 +59646,30 @@
       <c r="IT75" t="n">
         <v>61</v>
       </c>
+      <c r="IU75" t="n">
+        <v>48</v>
+      </c>
+      <c r="IV75" t="n">
+        <v>48</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>48</v>
+      </c>
+      <c r="IX75" t="n">
+        <v>57</v>
+      </c>
+      <c r="IY75" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ75" t="n">
+        <v>77</v>
+      </c>
+      <c r="JA75" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -58636,6 +60436,30 @@
       <c r="IT76" t="n">
         <v>43</v>
       </c>
+      <c r="IU76" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV76" t="n">
+        <v>37</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX76" t="n">
+        <v>37</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ76" t="n">
+        <v>43</v>
+      </c>
+      <c r="JA76" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB76" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -59402,6 +61226,30 @@
       <c r="IT77" t="n">
         <v>63</v>
       </c>
+      <c r="IU77" t="n">
+        <v>60</v>
+      </c>
+      <c r="IV77" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>60</v>
+      </c>
+      <c r="IX77" t="n">
+        <v>54</v>
+      </c>
+      <c r="IY77" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ77" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA77" t="n">
+        <v>72</v>
+      </c>
+      <c r="JB77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -60168,6 +62016,30 @@
       <c r="IT78" t="n">
         <v>2.33</v>
       </c>
+      <c r="IU78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="IV78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="IX78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="IY78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="IZ78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JA78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="JB78" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -60934,6 +62806,30 @@
       <c r="IT79" t="n">
         <v>4.85</v>
       </c>
+      <c r="IU79" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="IV79" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="IX79" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="IY79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="IZ79" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB79" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -61700,6 +63596,30 @@
       <c r="IT80" t="n">
         <v>41.3</v>
       </c>
+      <c r="IU80" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="IV80" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="IX80" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="IY80" t="n">
+        <v>55</v>
+      </c>
+      <c r="IZ80" t="n">
+        <v>38</v>
+      </c>
+      <c r="JA80" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JB80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -62466,6 +64386,30 @@
       <c r="IT81" t="n">
         <v>20.6</v>
       </c>
+      <c r="IU81" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="IV81" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="IX81" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="IY81" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ81" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA81" t="n">
+        <v>25</v>
+      </c>
+      <c r="JB81" t="n">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -63232,6 +65176,30 @@
       <c r="IT82" t="n">
         <v>186.3</v>
       </c>
+      <c r="IU82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IV82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IX82" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="IY82" t="n">
+        <v>188</v>
+      </c>
+      <c r="IZ82" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JA82" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JB82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -63998,6 +65966,30 @@
       <c r="IT83" t="n">
         <v>85.3</v>
       </c>
+      <c r="IU83" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IV83" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IX83" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="IY83" t="n">
+        <v>86</v>
+      </c>
+      <c r="IZ83" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="JA83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="JB83" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -64764,6 +66756,30 @@
       <c r="IT84" t="n">
         <v>26.8</v>
       </c>
+      <c r="IU84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IV84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IX84" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="IY84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IZ84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="JA84" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JB84" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -65530,6 +67546,30 @@
       <c r="IT85" t="n">
         <v>112.4</v>
       </c>
+      <c r="IU85" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="IV85" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="IX85" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="IY85" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="IZ85" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="JA85" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="JB85" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -66296,6 +68336,30 @@
       <c r="IT86" t="n">
         <v>7</v>
       </c>
+      <c r="IU86" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV86" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX86" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY86" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ86" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA86" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -67062,6 +69126,30 @@
       <c r="IT87" t="n">
         <v>4</v>
       </c>
+      <c r="IU87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY87" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ87" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="JB87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -67828,6 +69916,30 @@
       <c r="IT88" t="n">
         <v>6</v>
       </c>
+      <c r="IU88" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX88" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY88" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ88" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="JB88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -68594,6 +70706,30 @@
       <c r="IT89" t="n">
         <v>6</v>
       </c>
+      <c r="IU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX89" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY89" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ89" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA89" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -69360,6 +71496,30 @@
       <c r="IT90" t="n">
         <v>135</v>
       </c>
+      <c r="IU90" t="n">
+        <v>140</v>
+      </c>
+      <c r="IV90" t="n">
+        <v>140</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>140</v>
+      </c>
+      <c r="IX90" t="n">
+        <v>137</v>
+      </c>
+      <c r="IY90" t="n">
+        <v>124</v>
+      </c>
+      <c r="IZ90" t="n">
+        <v>141</v>
+      </c>
+      <c r="JA90" t="n">
+        <v>152</v>
+      </c>
+      <c r="JB90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -70126,6 +72286,30 @@
       <c r="IT91" t="n">
         <v>194</v>
       </c>
+      <c r="IU91" t="n">
+        <v>265</v>
+      </c>
+      <c r="IV91" t="n">
+        <v>265</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>265</v>
+      </c>
+      <c r="IX91" t="n">
+        <v>192</v>
+      </c>
+      <c r="IY91" t="n">
+        <v>236</v>
+      </c>
+      <c r="IZ91" t="n">
+        <v>217</v>
+      </c>
+      <c r="JA91" t="n">
+        <v>247</v>
+      </c>
+      <c r="JB91" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -70892,6 +73076,30 @@
       <c r="IT92" t="n">
         <v>237</v>
       </c>
+      <c r="IU92" t="n">
+        <v>310</v>
+      </c>
+      <c r="IV92" t="n">
+        <v>310</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>310</v>
+      </c>
+      <c r="IX92" t="n">
+        <v>233</v>
+      </c>
+      <c r="IY92" t="n">
+        <v>274</v>
+      </c>
+      <c r="IZ92" t="n">
+        <v>252</v>
+      </c>
+      <c r="JA92" t="n">
+        <v>283</v>
+      </c>
+      <c r="JB92" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -71658,6 +73866,30 @@
       <c r="IT93" t="n">
         <v>71</v>
       </c>
+      <c r="IU93" t="n">
+        <v>76</v>
+      </c>
+      <c r="IV93" t="n">
+        <v>76</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>76</v>
+      </c>
+      <c r="IX93" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="IY93" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="IZ93" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="JA93" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="JB93" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -72424,6 +74656,30 @@
       <c r="IT94" t="n">
         <v>61</v>
       </c>
+      <c r="IU94" t="n">
+        <v>48</v>
+      </c>
+      <c r="IV94" t="n">
+        <v>48</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>48</v>
+      </c>
+      <c r="IX94" t="n">
+        <v>57</v>
+      </c>
+      <c r="IY94" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ94" t="n">
+        <v>77</v>
+      </c>
+      <c r="JA94" t="n">
+        <v>61</v>
+      </c>
+      <c r="JB94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -73190,6 +75446,30 @@
       <c r="IT95" t="n">
         <v>9</v>
       </c>
+      <c r="IU95" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV95" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW95" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX95" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY95" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA95" t="n">
+        <v>13</v>
+      </c>
+      <c r="JB95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -73956,6 +76236,30 @@
       <c r="IT96" t="n">
         <v>13</v>
       </c>
+      <c r="IU96" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV96" t="n">
+        <v>19</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>19</v>
+      </c>
+      <c r="IX96" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY96" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA96" t="n">
+        <v>18</v>
+      </c>
+      <c r="JB96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -74722,6 +77026,30 @@
       <c r="IT97" t="n">
         <v>35</v>
       </c>
+      <c r="IU97" t="n">
+        <v>36</v>
+      </c>
+      <c r="IV97" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX97" t="n">
+        <v>44</v>
+      </c>
+      <c r="IY97" t="n">
+        <v>32</v>
+      </c>
+      <c r="IZ97" t="n">
+        <v>37</v>
+      </c>
+      <c r="JA97" t="n">
+        <v>38</v>
+      </c>
+      <c r="JB97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -75488,6 +77816,30 @@
       <c r="IT98" t="n">
         <v>43</v>
       </c>
+      <c r="IU98" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV98" t="n">
+        <v>37</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX98" t="n">
+        <v>37</v>
+      </c>
+      <c r="IY98" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ98" t="n">
+        <v>43</v>
+      </c>
+      <c r="JA98" t="n">
+        <v>32</v>
+      </c>
+      <c r="JB98" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -76254,6 +78606,30 @@
       <c r="IT99" t="n">
         <v>51</v>
       </c>
+      <c r="IU99" t="n">
+        <v>44</v>
+      </c>
+      <c r="IV99" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>44</v>
+      </c>
+      <c r="IX99" t="n">
+        <v>41</v>
+      </c>
+      <c r="IY99" t="n">
+        <v>27</v>
+      </c>
+      <c r="IZ99" t="n">
+        <v>49</v>
+      </c>
+      <c r="JA99" t="n">
+        <v>60</v>
+      </c>
+      <c r="JB99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -77020,6 +79396,30 @@
       <c r="IT100" t="n">
         <v>11</v>
       </c>
+      <c r="IU100" t="n">
+        <v>18</v>
+      </c>
+      <c r="IV100" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX100" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA100" t="n">
+        <v>3</v>
+      </c>
+      <c r="JB100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -77786,6 +80186,30 @@
       <c r="IT101" t="n">
         <v>6</v>
       </c>
+      <c r="IU101" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV101" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX101" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY101" t="n">
+        <v>14</v>
+      </c>
+      <c r="IZ101" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA101" t="n">
+        <v>13</v>
+      </c>
+      <c r="JB101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -78552,6 +80976,30 @@
       <c r="IT102" t="n">
         <v>46.2</v>
       </c>
+      <c r="IU102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IV102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IX102" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="IY102" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IZ102" t="n">
+        <v>90</v>
+      </c>
+      <c r="JA102" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JB102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
